--- a/en/Sample_Project/Design_Document/B1_Customer_Management_System/030_Application_Design/010_System_Functional_Design/System_Function_Design_Document(Web_Services)_B_10101_Search_Customer.xlsx
+++ b/en/Sample_Project/Design_Document/B1_Customer_Management_System/030_Application_Design/010_System_Functional_Design/System_Function_Design_Document(Web_Services)_B_10101_Search_Customer.xlsx
@@ -1,34 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351979AC-833B-46DE-9FAD-AFCC65E30ADC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2660AB99-696A-4A33-8CAE-3600CEE25834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="360" windowWidth="22290" windowHeight="8475" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="36" state="hidden" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="37" state="hidden" r:id="rId2"/>
-    <sheet name="目次" sheetId="42" r:id="rId3"/>
-    <sheet name="1.1. Webサービス取引概要" sheetId="13" r:id="rId4"/>
-    <sheet name="1.2. 処理フロー" sheetId="48" r:id="rId5"/>
-    <sheet name="2. B10101（顧客検索）" sheetId="43" r:id="rId6"/>
-    <sheet name="データ" sheetId="49" r:id="rId7"/>
+    <sheet name="Contents" sheetId="42" r:id="rId3"/>
+    <sheet name="1. Web service subfunction" sheetId="13" r:id="rId4"/>
+    <sheet name="1.2. Process flow" sheetId="48" r:id="rId5"/>
+    <sheet name="2. B010101 (client search)" sheetId="43" r:id="rId6"/>
+    <sheet name="Data" sheetId="49" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1.1. Webサービス取引概要'!$A$1:$AI$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'2. B10101（顧客検索）'!$A$1:$AI$92</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">データ!$A$1:$B$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1. Web service subfunction'!$A$1:$AI$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'2. B010101 (client search)'!$A$1:$AI$92</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Contents!$A$1:$AI$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Data!$A$1:$B$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1.1. Webサービス取引概要'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'1.2. 処理フロー'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'2. B10101（顧客検索）'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1. Web service subfunction'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'1.2. Process flow'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'2. B010101 (client search)'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">Contents!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
-    <definedName name="種別一覧">データ!$A$2:$A$7</definedName>
+    <definedName name="種別一覧">Data!$A$2:$A$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -36,7 +36,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="159">
   <si>
     <t>PJ名</t>
   </si>
@@ -452,9 +454,6 @@
     <t>client_id</t>
   </si>
   <si>
-    <t>Contents</t>
-  </si>
-  <si>
     <t>1.2. Process flow</t>
   </si>
   <si>
@@ -526,6 +525,22 @@
   </si>
   <si>
     <t>Required</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Contents</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1. Web service subfunction definition</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1.2. Process flow</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2. B010101 (client search)</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1330,6 +1345,87 @@
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1444,86 +1540,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1561,59 +1630,47 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1651,251 +1708,53 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1964,6 +1823,162 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2021,8 +2036,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7905750" y="285750"/>
-          <a:ext cx="1390650" cy="590550"/>
+          <a:off x="7953375" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -6281,55 +6296,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="174" t="s">
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="175"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="183" t="s">
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="210" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="184"/>
-      <c r="R1" s="185"/>
-      <c r="S1" s="192" t="s">
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
+      <c r="R1" s="212"/>
+      <c r="S1" s="219" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="193"/>
-      <c r="U1" s="193"/>
-      <c r="V1" s="193"/>
-      <c r="W1" s="193"/>
-      <c r="X1" s="193"/>
-      <c r="Y1" s="193"/>
-      <c r="Z1" s="194"/>
-      <c r="AA1" s="180" t="s">
+      <c r="T1" s="220"/>
+      <c r="U1" s="220"/>
+      <c r="V1" s="220"/>
+      <c r="W1" s="220"/>
+      <c r="X1" s="220"/>
+      <c r="Y1" s="220"/>
+      <c r="Z1" s="221"/>
+      <c r="AA1" s="207" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="182"/>
-      <c r="AC1" s="163" t="s">
+      <c r="AB1" s="209"/>
+      <c r="AC1" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="164"/>
-      <c r="AE1" s="164"/>
-      <c r="AF1" s="165"/>
-      <c r="AG1" s="167">
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="192"/>
+      <c r="AG1" s="194">
         <v>43718</v>
       </c>
-      <c r="AH1" s="168"/>
-      <c r="AI1" s="169"/>
+      <c r="AH1" s="195"/>
+      <c r="AI1" s="196"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -6337,53 +6352,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="174" t="s">
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="176"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="188"/>
-      <c r="S2" s="195"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="197"/>
-      <c r="AA2" s="180" t="s">
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="214"/>
+      <c r="Q2" s="214"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="222"/>
+      <c r="T2" s="223"/>
+      <c r="U2" s="223"/>
+      <c r="V2" s="223"/>
+      <c r="W2" s="223"/>
+      <c r="X2" s="223"/>
+      <c r="Y2" s="223"/>
+      <c r="Z2" s="224"/>
+      <c r="AA2" s="207" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="182"/>
-      <c r="AC2" s="177" t="str">
+      <c r="AB2" s="209"/>
+      <c r="AC2" s="204" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="178"/>
-      <c r="AE2" s="178"/>
-      <c r="AF2" s="179"/>
-      <c r="AG2" s="167" t="str">
+      <c r="AD2" s="205"/>
+      <c r="AE2" s="205"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="194" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="168"/>
-      <c r="AI2" s="169"/>
+      <c r="AH2" s="195"/>
+      <c r="AI2" s="196"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -6391,45 +6406,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="207" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="174" t="s">
+      <c r="B3" s="208"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="176"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="190"/>
-      <c r="Q3" s="190"/>
-      <c r="R3" s="191"/>
-      <c r="S3" s="198"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="199"/>
-      <c r="V3" s="199"/>
-      <c r="W3" s="199"/>
-      <c r="X3" s="199"/>
-      <c r="Y3" s="199"/>
-      <c r="Z3" s="200"/>
-      <c r="AA3" s="180"/>
-      <c r="AB3" s="182"/>
-      <c r="AC3" s="166"/>
-      <c r="AD3" s="164"/>
-      <c r="AE3" s="164"/>
-      <c r="AF3" s="165"/>
-      <c r="AG3" s="167"/>
-      <c r="AH3" s="168"/>
-      <c r="AI3" s="169"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="203"/>
+      <c r="O3" s="216"/>
+      <c r="P3" s="217"/>
+      <c r="Q3" s="217"/>
+      <c r="R3" s="218"/>
+      <c r="S3" s="225"/>
+      <c r="T3" s="226"/>
+      <c r="U3" s="226"/>
+      <c r="V3" s="226"/>
+      <c r="W3" s="226"/>
+      <c r="X3" s="226"/>
+      <c r="Y3" s="226"/>
+      <c r="Z3" s="227"/>
+      <c r="AA3" s="207"/>
+      <c r="AB3" s="209"/>
+      <c r="AC3" s="193"/>
+      <c r="AD3" s="191"/>
+      <c r="AE3" s="191"/>
+      <c r="AF3" s="192"/>
+      <c r="AG3" s="194"/>
+      <c r="AH3" s="195"/>
+      <c r="AI3" s="196"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -6466,1186 +6481,1030 @@
       <c r="A7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="170" t="s">
+      <c r="B7" s="197" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="171"/>
-      <c r="D7" s="170" t="s">
+      <c r="C7" s="198"/>
+      <c r="D7" s="197" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="172"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="170" t="s">
+      <c r="E7" s="199"/>
+      <c r="F7" s="198"/>
+      <c r="G7" s="197" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="172"/>
-      <c r="I7" s="171"/>
-      <c r="J7" s="173" t="s">
+      <c r="H7" s="199"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="172"/>
-      <c r="L7" s="172"/>
-      <c r="M7" s="172"/>
-      <c r="N7" s="172"/>
-      <c r="O7" s="172"/>
-      <c r="P7" s="171"/>
-      <c r="Q7" s="170" t="s">
+      <c r="K7" s="199"/>
+      <c r="L7" s="199"/>
+      <c r="M7" s="199"/>
+      <c r="N7" s="199"/>
+      <c r="O7" s="199"/>
+      <c r="P7" s="198"/>
+      <c r="Q7" s="197" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="172"/>
-      <c r="S7" s="172"/>
-      <c r="T7" s="172"/>
-      <c r="U7" s="172"/>
-      <c r="V7" s="172"/>
-      <c r="W7" s="172"/>
-      <c r="X7" s="172"/>
-      <c r="Y7" s="172"/>
-      <c r="Z7" s="172"/>
-      <c r="AA7" s="172"/>
-      <c r="AB7" s="172"/>
-      <c r="AC7" s="172"/>
-      <c r="AD7" s="172"/>
-      <c r="AE7" s="171"/>
-      <c r="AF7" s="173" t="s">
+      <c r="R7" s="199"/>
+      <c r="S7" s="199"/>
+      <c r="T7" s="199"/>
+      <c r="U7" s="199"/>
+      <c r="V7" s="199"/>
+      <c r="W7" s="199"/>
+      <c r="X7" s="199"/>
+      <c r="Y7" s="199"/>
+      <c r="Z7" s="199"/>
+      <c r="AA7" s="199"/>
+      <c r="AB7" s="199"/>
+      <c r="AC7" s="199"/>
+      <c r="AD7" s="199"/>
+      <c r="AE7" s="198"/>
+      <c r="AF7" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="AG7" s="172"/>
-      <c r="AH7" s="172"/>
-      <c r="AI7" s="171"/>
+      <c r="AG7" s="199"/>
+      <c r="AH7" s="199"/>
+      <c r="AI7" s="198"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="33">
         <v>1</v>
       </c>
-      <c r="B8" s="213" t="s">
+      <c r="B8" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="214"/>
-      <c r="D8" s="215">
+      <c r="C8" s="177"/>
+      <c r="D8" s="178">
         <v>43718</v>
       </c>
-      <c r="E8" s="216"/>
-      <c r="F8" s="217"/>
-      <c r="G8" s="218" t="s">
+      <c r="E8" s="179"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="181" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="219"/>
-      <c r="I8" s="214"/>
-      <c r="J8" s="220"/>
-      <c r="K8" s="221"/>
-      <c r="L8" s="221"/>
-      <c r="M8" s="221"/>
-      <c r="N8" s="221"/>
-      <c r="O8" s="221"/>
-      <c r="P8" s="222"/>
-      <c r="Q8" s="224"/>
-      <c r="R8" s="225"/>
-      <c r="S8" s="225"/>
-      <c r="T8" s="225"/>
-      <c r="U8" s="225"/>
-      <c r="V8" s="225"/>
-      <c r="W8" s="225"/>
-      <c r="X8" s="225"/>
-      <c r="Y8" s="225"/>
-      <c r="Z8" s="225"/>
-      <c r="AA8" s="225"/>
-      <c r="AB8" s="225"/>
-      <c r="AC8" s="225"/>
-      <c r="AD8" s="225"/>
-      <c r="AE8" s="226"/>
-      <c r="AF8" s="223" t="s">
+      <c r="H8" s="182"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="183"/>
+      <c r="K8" s="184"/>
+      <c r="L8" s="184"/>
+      <c r="M8" s="184"/>
+      <c r="N8" s="184"/>
+      <c r="O8" s="184"/>
+      <c r="P8" s="185"/>
+      <c r="Q8" s="187"/>
+      <c r="R8" s="188"/>
+      <c r="S8" s="188"/>
+      <c r="T8" s="188"/>
+      <c r="U8" s="188"/>
+      <c r="V8" s="188"/>
+      <c r="W8" s="188"/>
+      <c r="X8" s="188"/>
+      <c r="Y8" s="188"/>
+      <c r="Z8" s="188"/>
+      <c r="AA8" s="188"/>
+      <c r="AB8" s="188"/>
+      <c r="AC8" s="188"/>
+      <c r="AD8" s="188"/>
+      <c r="AE8" s="189"/>
+      <c r="AF8" s="186" t="s">
         <v>46</v>
       </c>
-      <c r="AG8" s="221"/>
-      <c r="AH8" s="221"/>
-      <c r="AI8" s="222"/>
+      <c r="AG8" s="184"/>
+      <c r="AH8" s="184"/>
+      <c r="AI8" s="185"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34"/>
-      <c r="B9" s="201"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="203"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="205"/>
-      <c r="G9" s="203"/>
-      <c r="H9" s="206"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="207"/>
-      <c r="K9" s="208"/>
-      <c r="L9" s="208"/>
-      <c r="M9" s="208"/>
-      <c r="N9" s="208"/>
-      <c r="O9" s="208"/>
-      <c r="P9" s="209"/>
-      <c r="Q9" s="210"/>
-      <c r="R9" s="211"/>
-      <c r="S9" s="211"/>
-      <c r="T9" s="211"/>
-      <c r="U9" s="211"/>
-      <c r="V9" s="211"/>
-      <c r="W9" s="211"/>
-      <c r="X9" s="211"/>
-      <c r="Y9" s="211"/>
-      <c r="Z9" s="211"/>
-      <c r="AA9" s="211"/>
-      <c r="AB9" s="211"/>
-      <c r="AC9" s="211"/>
-      <c r="AD9" s="211"/>
-      <c r="AE9" s="212"/>
-      <c r="AF9" s="207"/>
-      <c r="AG9" s="208"/>
-      <c r="AH9" s="208"/>
-      <c r="AI9" s="209"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="170"/>
+      <c r="M9" s="170"/>
+      <c r="N9" s="170"/>
+      <c r="O9" s="170"/>
+      <c r="P9" s="171"/>
+      <c r="Q9" s="172"/>
+      <c r="R9" s="173"/>
+      <c r="S9" s="173"/>
+      <c r="T9" s="173"/>
+      <c r="U9" s="173"/>
+      <c r="V9" s="173"/>
+      <c r="W9" s="173"/>
+      <c r="X9" s="173"/>
+      <c r="Y9" s="173"/>
+      <c r="Z9" s="173"/>
+      <c r="AA9" s="173"/>
+      <c r="AB9" s="173"/>
+      <c r="AC9" s="173"/>
+      <c r="AD9" s="173"/>
+      <c r="AE9" s="174"/>
+      <c r="AF9" s="169"/>
+      <c r="AG9" s="170"/>
+      <c r="AH9" s="170"/>
+      <c r="AI9" s="171"/>
     </row>
     <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34"/>
-      <c r="B10" s="201"/>
-      <c r="C10" s="202"/>
-      <c r="D10" s="203"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="205"/>
-      <c r="G10" s="201"/>
-      <c r="H10" s="206"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="207"/>
-      <c r="K10" s="208"/>
-      <c r="L10" s="208"/>
-      <c r="M10" s="208"/>
-      <c r="N10" s="208"/>
-      <c r="O10" s="208"/>
-      <c r="P10" s="209"/>
-      <c r="Q10" s="210"/>
-      <c r="R10" s="211"/>
-      <c r="S10" s="211"/>
-      <c r="T10" s="211"/>
-      <c r="U10" s="211"/>
-      <c r="V10" s="211"/>
-      <c r="W10" s="211"/>
-      <c r="X10" s="211"/>
-      <c r="Y10" s="211"/>
-      <c r="Z10" s="211"/>
-      <c r="AA10" s="211"/>
-      <c r="AB10" s="211"/>
-      <c r="AC10" s="211"/>
-      <c r="AD10" s="211"/>
-      <c r="AE10" s="212"/>
-      <c r="AF10" s="207"/>
-      <c r="AG10" s="208"/>
-      <c r="AH10" s="208"/>
-      <c r="AI10" s="209"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="170"/>
+      <c r="L10" s="170"/>
+      <c r="M10" s="170"/>
+      <c r="N10" s="170"/>
+      <c r="O10" s="170"/>
+      <c r="P10" s="171"/>
+      <c r="Q10" s="172"/>
+      <c r="R10" s="173"/>
+      <c r="S10" s="173"/>
+      <c r="T10" s="173"/>
+      <c r="U10" s="173"/>
+      <c r="V10" s="173"/>
+      <c r="W10" s="173"/>
+      <c r="X10" s="173"/>
+      <c r="Y10" s="173"/>
+      <c r="Z10" s="173"/>
+      <c r="AA10" s="173"/>
+      <c r="AB10" s="173"/>
+      <c r="AC10" s="173"/>
+      <c r="AD10" s="173"/>
+      <c r="AE10" s="174"/>
+      <c r="AF10" s="169"/>
+      <c r="AG10" s="170"/>
+      <c r="AH10" s="170"/>
+      <c r="AI10" s="171"/>
     </row>
     <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="34"/>
-      <c r="B11" s="201"/>
-      <c r="C11" s="202"/>
-      <c r="D11" s="203"/>
-      <c r="E11" s="204"/>
-      <c r="F11" s="205"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="206"/>
-      <c r="I11" s="202"/>
-      <c r="J11" s="207"/>
-      <c r="K11" s="208"/>
-      <c r="L11" s="208"/>
-      <c r="M11" s="208"/>
-      <c r="N11" s="208"/>
-      <c r="O11" s="208"/>
-      <c r="P11" s="209"/>
-      <c r="Q11" s="210"/>
-      <c r="R11" s="211"/>
-      <c r="S11" s="211"/>
-      <c r="T11" s="211"/>
-      <c r="U11" s="211"/>
-      <c r="V11" s="211"/>
-      <c r="W11" s="211"/>
-      <c r="X11" s="211"/>
-      <c r="Y11" s="211"/>
-      <c r="Z11" s="211"/>
-      <c r="AA11" s="211"/>
-      <c r="AB11" s="211"/>
-      <c r="AC11" s="211"/>
-      <c r="AD11" s="211"/>
-      <c r="AE11" s="212"/>
-      <c r="AF11" s="207"/>
-      <c r="AG11" s="208"/>
-      <c r="AH11" s="208"/>
-      <c r="AI11" s="209"/>
+      <c r="B11" s="163"/>
+      <c r="C11" s="164"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="170"/>
+      <c r="L11" s="170"/>
+      <c r="M11" s="170"/>
+      <c r="N11" s="170"/>
+      <c r="O11" s="170"/>
+      <c r="P11" s="171"/>
+      <c r="Q11" s="172"/>
+      <c r="R11" s="173"/>
+      <c r="S11" s="173"/>
+      <c r="T11" s="173"/>
+      <c r="U11" s="173"/>
+      <c r="V11" s="173"/>
+      <c r="W11" s="173"/>
+      <c r="X11" s="173"/>
+      <c r="Y11" s="173"/>
+      <c r="Z11" s="173"/>
+      <c r="AA11" s="173"/>
+      <c r="AB11" s="173"/>
+      <c r="AC11" s="173"/>
+      <c r="AD11" s="173"/>
+      <c r="AE11" s="174"/>
+      <c r="AF11" s="169"/>
+      <c r="AG11" s="170"/>
+      <c r="AH11" s="170"/>
+      <c r="AI11" s="171"/>
     </row>
     <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="34"/>
-      <c r="B12" s="201"/>
-      <c r="C12" s="202"/>
-      <c r="D12" s="203"/>
-      <c r="E12" s="204"/>
-      <c r="F12" s="205"/>
-      <c r="G12" s="201"/>
-      <c r="H12" s="206"/>
-      <c r="I12" s="202"/>
-      <c r="J12" s="207"/>
-      <c r="K12" s="208"/>
-      <c r="L12" s="208"/>
-      <c r="M12" s="208"/>
-      <c r="N12" s="208"/>
-      <c r="O12" s="208"/>
-      <c r="P12" s="209"/>
-      <c r="Q12" s="210"/>
-      <c r="R12" s="211"/>
-      <c r="S12" s="211"/>
-      <c r="T12" s="211"/>
-      <c r="U12" s="211"/>
-      <c r="V12" s="211"/>
-      <c r="W12" s="211"/>
-      <c r="X12" s="211"/>
-      <c r="Y12" s="211"/>
-      <c r="Z12" s="211"/>
-      <c r="AA12" s="211"/>
-      <c r="AB12" s="211"/>
-      <c r="AC12" s="211"/>
-      <c r="AD12" s="211"/>
-      <c r="AE12" s="212"/>
-      <c r="AF12" s="207"/>
-      <c r="AG12" s="208"/>
-      <c r="AH12" s="208"/>
-      <c r="AI12" s="209"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="167"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="168"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="170"/>
+      <c r="L12" s="170"/>
+      <c r="M12" s="170"/>
+      <c r="N12" s="170"/>
+      <c r="O12" s="170"/>
+      <c r="P12" s="171"/>
+      <c r="Q12" s="172"/>
+      <c r="R12" s="173"/>
+      <c r="S12" s="173"/>
+      <c r="T12" s="173"/>
+      <c r="U12" s="173"/>
+      <c r="V12" s="173"/>
+      <c r="W12" s="173"/>
+      <c r="X12" s="173"/>
+      <c r="Y12" s="173"/>
+      <c r="Z12" s="173"/>
+      <c r="AA12" s="173"/>
+      <c r="AB12" s="173"/>
+      <c r="AC12" s="173"/>
+      <c r="AD12" s="173"/>
+      <c r="AE12" s="174"/>
+      <c r="AF12" s="169"/>
+      <c r="AG12" s="170"/>
+      <c r="AH12" s="170"/>
+      <c r="AI12" s="171"/>
     </row>
     <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
-      <c r="B13" s="201"/>
-      <c r="C13" s="202"/>
-      <c r="D13" s="203"/>
-      <c r="E13" s="204"/>
-      <c r="F13" s="205"/>
-      <c r="G13" s="201"/>
-      <c r="H13" s="206"/>
-      <c r="I13" s="202"/>
-      <c r="J13" s="207"/>
-      <c r="K13" s="208"/>
-      <c r="L13" s="208"/>
-      <c r="M13" s="208"/>
-      <c r="N13" s="208"/>
-      <c r="O13" s="208"/>
-      <c r="P13" s="209"/>
-      <c r="Q13" s="210"/>
-      <c r="R13" s="211"/>
-      <c r="S13" s="211"/>
-      <c r="T13" s="211"/>
-      <c r="U13" s="211"/>
-      <c r="V13" s="211"/>
-      <c r="W13" s="211"/>
-      <c r="X13" s="211"/>
-      <c r="Y13" s="211"/>
-      <c r="Z13" s="211"/>
-      <c r="AA13" s="211"/>
-      <c r="AB13" s="211"/>
-      <c r="AC13" s="211"/>
-      <c r="AD13" s="211"/>
-      <c r="AE13" s="212"/>
-      <c r="AF13" s="207"/>
-      <c r="AG13" s="208"/>
-      <c r="AH13" s="208"/>
-      <c r="AI13" s="209"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="168"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="170"/>
+      <c r="L13" s="170"/>
+      <c r="M13" s="170"/>
+      <c r="N13" s="170"/>
+      <c r="O13" s="170"/>
+      <c r="P13" s="171"/>
+      <c r="Q13" s="172"/>
+      <c r="R13" s="173"/>
+      <c r="S13" s="173"/>
+      <c r="T13" s="173"/>
+      <c r="U13" s="173"/>
+      <c r="V13" s="173"/>
+      <c r="W13" s="173"/>
+      <c r="X13" s="173"/>
+      <c r="Y13" s="173"/>
+      <c r="Z13" s="173"/>
+      <c r="AA13" s="173"/>
+      <c r="AB13" s="173"/>
+      <c r="AC13" s="173"/>
+      <c r="AD13" s="173"/>
+      <c r="AE13" s="174"/>
+      <c r="AF13" s="169"/>
+      <c r="AG13" s="170"/>
+      <c r="AH13" s="170"/>
+      <c r="AI13" s="171"/>
     </row>
     <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="34"/>
-      <c r="B14" s="201"/>
-      <c r="C14" s="202"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="204"/>
-      <c r="F14" s="205"/>
-      <c r="G14" s="201"/>
-      <c r="H14" s="206"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="207"/>
-      <c r="K14" s="208"/>
-      <c r="L14" s="208"/>
-      <c r="M14" s="208"/>
-      <c r="N14" s="208"/>
-      <c r="O14" s="208"/>
-      <c r="P14" s="209"/>
-      <c r="Q14" s="210"/>
-      <c r="R14" s="211"/>
-      <c r="S14" s="211"/>
-      <c r="T14" s="211"/>
-      <c r="U14" s="211"/>
-      <c r="V14" s="211"/>
-      <c r="W14" s="211"/>
-      <c r="X14" s="211"/>
-      <c r="Y14" s="211"/>
-      <c r="Z14" s="211"/>
-      <c r="AA14" s="211"/>
-      <c r="AB14" s="211"/>
-      <c r="AC14" s="211"/>
-      <c r="AD14" s="211"/>
-      <c r="AE14" s="212"/>
-      <c r="AF14" s="207"/>
-      <c r="AG14" s="208"/>
-      <c r="AH14" s="208"/>
-      <c r="AI14" s="209"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="168"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="170"/>
+      <c r="L14" s="170"/>
+      <c r="M14" s="170"/>
+      <c r="N14" s="170"/>
+      <c r="O14" s="170"/>
+      <c r="P14" s="171"/>
+      <c r="Q14" s="172"/>
+      <c r="R14" s="173"/>
+      <c r="S14" s="173"/>
+      <c r="T14" s="173"/>
+      <c r="U14" s="173"/>
+      <c r="V14" s="173"/>
+      <c r="W14" s="173"/>
+      <c r="X14" s="173"/>
+      <c r="Y14" s="173"/>
+      <c r="Z14" s="173"/>
+      <c r="AA14" s="173"/>
+      <c r="AB14" s="173"/>
+      <c r="AC14" s="173"/>
+      <c r="AD14" s="173"/>
+      <c r="AE14" s="174"/>
+      <c r="AF14" s="169"/>
+      <c r="AG14" s="170"/>
+      <c r="AH14" s="170"/>
+      <c r="AI14" s="171"/>
     </row>
     <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="201"/>
-      <c r="C15" s="202"/>
-      <c r="D15" s="203"/>
-      <c r="E15" s="204"/>
-      <c r="F15" s="205"/>
-      <c r="G15" s="201"/>
-      <c r="H15" s="206"/>
-      <c r="I15" s="202"/>
-      <c r="J15" s="207"/>
-      <c r="K15" s="208"/>
-      <c r="L15" s="208"/>
-      <c r="M15" s="208"/>
-      <c r="N15" s="208"/>
-      <c r="O15" s="208"/>
-      <c r="P15" s="209"/>
-      <c r="Q15" s="210"/>
-      <c r="R15" s="211"/>
-      <c r="S15" s="211"/>
-      <c r="T15" s="211"/>
-      <c r="U15" s="211"/>
-      <c r="V15" s="211"/>
-      <c r="W15" s="211"/>
-      <c r="X15" s="211"/>
-      <c r="Y15" s="211"/>
-      <c r="Z15" s="211"/>
-      <c r="AA15" s="211"/>
-      <c r="AB15" s="211"/>
-      <c r="AC15" s="211"/>
-      <c r="AD15" s="211"/>
-      <c r="AE15" s="212"/>
-      <c r="AF15" s="207"/>
-      <c r="AG15" s="208"/>
-      <c r="AH15" s="208"/>
-      <c r="AI15" s="209"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="170"/>
+      <c r="L15" s="170"/>
+      <c r="M15" s="170"/>
+      <c r="N15" s="170"/>
+      <c r="O15" s="170"/>
+      <c r="P15" s="171"/>
+      <c r="Q15" s="172"/>
+      <c r="R15" s="173"/>
+      <c r="S15" s="173"/>
+      <c r="T15" s="173"/>
+      <c r="U15" s="173"/>
+      <c r="V15" s="173"/>
+      <c r="W15" s="173"/>
+      <c r="X15" s="173"/>
+      <c r="Y15" s="173"/>
+      <c r="Z15" s="173"/>
+      <c r="AA15" s="173"/>
+      <c r="AB15" s="173"/>
+      <c r="AC15" s="173"/>
+      <c r="AD15" s="173"/>
+      <c r="AE15" s="174"/>
+      <c r="AF15" s="169"/>
+      <c r="AG15" s="170"/>
+      <c r="AH15" s="170"/>
+      <c r="AI15" s="171"/>
     </row>
     <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="34"/>
-      <c r="B16" s="201"/>
-      <c r="C16" s="202"/>
-      <c r="D16" s="203"/>
-      <c r="E16" s="204"/>
-      <c r="F16" s="205"/>
-      <c r="G16" s="201"/>
-      <c r="H16" s="206"/>
-      <c r="I16" s="202"/>
-      <c r="J16" s="207"/>
-      <c r="K16" s="208"/>
-      <c r="L16" s="208"/>
-      <c r="M16" s="208"/>
-      <c r="N16" s="208"/>
-      <c r="O16" s="208"/>
-      <c r="P16" s="209"/>
-      <c r="Q16" s="210"/>
-      <c r="R16" s="211"/>
-      <c r="S16" s="211"/>
-      <c r="T16" s="211"/>
-      <c r="U16" s="211"/>
-      <c r="V16" s="211"/>
-      <c r="W16" s="211"/>
-      <c r="X16" s="211"/>
-      <c r="Y16" s="211"/>
-      <c r="Z16" s="211"/>
-      <c r="AA16" s="211"/>
-      <c r="AB16" s="211"/>
-      <c r="AC16" s="211"/>
-      <c r="AD16" s="211"/>
-      <c r="AE16" s="212"/>
-      <c r="AF16" s="207"/>
-      <c r="AG16" s="208"/>
-      <c r="AH16" s="208"/>
-      <c r="AI16" s="209"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="170"/>
+      <c r="L16" s="170"/>
+      <c r="M16" s="170"/>
+      <c r="N16" s="170"/>
+      <c r="O16" s="170"/>
+      <c r="P16" s="171"/>
+      <c r="Q16" s="172"/>
+      <c r="R16" s="173"/>
+      <c r="S16" s="173"/>
+      <c r="T16" s="173"/>
+      <c r="U16" s="173"/>
+      <c r="V16" s="173"/>
+      <c r="W16" s="173"/>
+      <c r="X16" s="173"/>
+      <c r="Y16" s="173"/>
+      <c r="Z16" s="173"/>
+      <c r="AA16" s="173"/>
+      <c r="AB16" s="173"/>
+      <c r="AC16" s="173"/>
+      <c r="AD16" s="173"/>
+      <c r="AE16" s="174"/>
+      <c r="AF16" s="169"/>
+      <c r="AG16" s="170"/>
+      <c r="AH16" s="170"/>
+      <c r="AI16" s="171"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="34"/>
-      <c r="B17" s="201"/>
-      <c r="C17" s="202"/>
-      <c r="D17" s="203"/>
-      <c r="E17" s="204"/>
-      <c r="F17" s="205"/>
-      <c r="G17" s="201"/>
-      <c r="H17" s="206"/>
-      <c r="I17" s="202"/>
-      <c r="J17" s="207"/>
-      <c r="K17" s="208"/>
-      <c r="L17" s="208"/>
-      <c r="M17" s="208"/>
-      <c r="N17" s="208"/>
-      <c r="O17" s="208"/>
-      <c r="P17" s="209"/>
-      <c r="Q17" s="210"/>
-      <c r="R17" s="211"/>
-      <c r="S17" s="211"/>
-      <c r="T17" s="211"/>
-      <c r="U17" s="211"/>
-      <c r="V17" s="211"/>
-      <c r="W17" s="211"/>
-      <c r="X17" s="211"/>
-      <c r="Y17" s="211"/>
-      <c r="Z17" s="211"/>
-      <c r="AA17" s="211"/>
-      <c r="AB17" s="211"/>
-      <c r="AC17" s="211"/>
-      <c r="AD17" s="211"/>
-      <c r="AE17" s="212"/>
-      <c r="AF17" s="207"/>
-      <c r="AG17" s="208"/>
-      <c r="AH17" s="208"/>
-      <c r="AI17" s="209"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="168"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="170"/>
+      <c r="L17" s="170"/>
+      <c r="M17" s="170"/>
+      <c r="N17" s="170"/>
+      <c r="O17" s="170"/>
+      <c r="P17" s="171"/>
+      <c r="Q17" s="172"/>
+      <c r="R17" s="173"/>
+      <c r="S17" s="173"/>
+      <c r="T17" s="173"/>
+      <c r="U17" s="173"/>
+      <c r="V17" s="173"/>
+      <c r="W17" s="173"/>
+      <c r="X17" s="173"/>
+      <c r="Y17" s="173"/>
+      <c r="Z17" s="173"/>
+      <c r="AA17" s="173"/>
+      <c r="AB17" s="173"/>
+      <c r="AC17" s="173"/>
+      <c r="AD17" s="173"/>
+      <c r="AE17" s="174"/>
+      <c r="AF17" s="169"/>
+      <c r="AG17" s="170"/>
+      <c r="AH17" s="170"/>
+      <c r="AI17" s="171"/>
     </row>
     <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="34"/>
-      <c r="B18" s="201"/>
-      <c r="C18" s="202"/>
-      <c r="D18" s="203"/>
-      <c r="E18" s="204"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="201"/>
-      <c r="H18" s="206"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="207"/>
-      <c r="K18" s="208"/>
-      <c r="L18" s="208"/>
-      <c r="M18" s="208"/>
-      <c r="N18" s="208"/>
-      <c r="O18" s="208"/>
-      <c r="P18" s="209"/>
-      <c r="Q18" s="210"/>
-      <c r="R18" s="211"/>
-      <c r="S18" s="211"/>
-      <c r="T18" s="211"/>
-      <c r="U18" s="211"/>
-      <c r="V18" s="211"/>
-      <c r="W18" s="211"/>
-      <c r="X18" s="211"/>
-      <c r="Y18" s="211"/>
-      <c r="Z18" s="211"/>
-      <c r="AA18" s="211"/>
-      <c r="AB18" s="211"/>
-      <c r="AC18" s="211"/>
-      <c r="AD18" s="211"/>
-      <c r="AE18" s="212"/>
-      <c r="AF18" s="207"/>
-      <c r="AG18" s="208"/>
-      <c r="AH18" s="208"/>
-      <c r="AI18" s="209"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="169"/>
+      <c r="K18" s="170"/>
+      <c r="L18" s="170"/>
+      <c r="M18" s="170"/>
+      <c r="N18" s="170"/>
+      <c r="O18" s="170"/>
+      <c r="P18" s="171"/>
+      <c r="Q18" s="172"/>
+      <c r="R18" s="173"/>
+      <c r="S18" s="173"/>
+      <c r="T18" s="173"/>
+      <c r="U18" s="173"/>
+      <c r="V18" s="173"/>
+      <c r="W18" s="173"/>
+      <c r="X18" s="173"/>
+      <c r="Y18" s="173"/>
+      <c r="Z18" s="173"/>
+      <c r="AA18" s="173"/>
+      <c r="AB18" s="173"/>
+      <c r="AC18" s="173"/>
+      <c r="AD18" s="173"/>
+      <c r="AE18" s="174"/>
+      <c r="AF18" s="169"/>
+      <c r="AG18" s="170"/>
+      <c r="AH18" s="170"/>
+      <c r="AI18" s="171"/>
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="34"/>
-      <c r="B19" s="201"/>
-      <c r="C19" s="202"/>
-      <c r="D19" s="203"/>
-      <c r="E19" s="204"/>
-      <c r="F19" s="205"/>
-      <c r="G19" s="201"/>
-      <c r="H19" s="206"/>
-      <c r="I19" s="202"/>
-      <c r="J19" s="207"/>
-      <c r="K19" s="208"/>
-      <c r="L19" s="208"/>
-      <c r="M19" s="208"/>
-      <c r="N19" s="208"/>
-      <c r="O19" s="208"/>
-      <c r="P19" s="209"/>
-      <c r="Q19" s="210"/>
-      <c r="R19" s="211"/>
-      <c r="S19" s="211"/>
-      <c r="T19" s="211"/>
-      <c r="U19" s="211"/>
-      <c r="V19" s="211"/>
-      <c r="W19" s="211"/>
-      <c r="X19" s="211"/>
-      <c r="Y19" s="211"/>
-      <c r="Z19" s="211"/>
-      <c r="AA19" s="211"/>
-      <c r="AB19" s="211"/>
-      <c r="AC19" s="211"/>
-      <c r="AD19" s="211"/>
-      <c r="AE19" s="212"/>
-      <c r="AF19" s="207"/>
-      <c r="AG19" s="208"/>
-      <c r="AH19" s="208"/>
-      <c r="AI19" s="209"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="164"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="169"/>
+      <c r="K19" s="170"/>
+      <c r="L19" s="170"/>
+      <c r="M19" s="170"/>
+      <c r="N19" s="170"/>
+      <c r="O19" s="170"/>
+      <c r="P19" s="171"/>
+      <c r="Q19" s="172"/>
+      <c r="R19" s="173"/>
+      <c r="S19" s="173"/>
+      <c r="T19" s="173"/>
+      <c r="U19" s="173"/>
+      <c r="V19" s="173"/>
+      <c r="W19" s="173"/>
+      <c r="X19" s="173"/>
+      <c r="Y19" s="173"/>
+      <c r="Z19" s="173"/>
+      <c r="AA19" s="173"/>
+      <c r="AB19" s="173"/>
+      <c r="AC19" s="173"/>
+      <c r="AD19" s="173"/>
+      <c r="AE19" s="174"/>
+      <c r="AF19" s="169"/>
+      <c r="AG19" s="170"/>
+      <c r="AH19" s="170"/>
+      <c r="AI19" s="171"/>
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="34"/>
-      <c r="B20" s="201"/>
-      <c r="C20" s="202"/>
-      <c r="D20" s="203"/>
-      <c r="E20" s="204"/>
-      <c r="F20" s="205"/>
-      <c r="G20" s="201"/>
-      <c r="H20" s="206"/>
-      <c r="I20" s="202"/>
-      <c r="J20" s="207"/>
-      <c r="K20" s="208"/>
-      <c r="L20" s="208"/>
-      <c r="M20" s="208"/>
-      <c r="N20" s="208"/>
-      <c r="O20" s="208"/>
-      <c r="P20" s="209"/>
-      <c r="Q20" s="210"/>
-      <c r="R20" s="211"/>
-      <c r="S20" s="211"/>
-      <c r="T20" s="211"/>
-      <c r="U20" s="211"/>
-      <c r="V20" s="211"/>
-      <c r="W20" s="211"/>
-      <c r="X20" s="211"/>
-      <c r="Y20" s="211"/>
-      <c r="Z20" s="211"/>
-      <c r="AA20" s="211"/>
-      <c r="AB20" s="211"/>
-      <c r="AC20" s="211"/>
-      <c r="AD20" s="211"/>
-      <c r="AE20" s="212"/>
-      <c r="AF20" s="207"/>
-      <c r="AG20" s="208"/>
-      <c r="AH20" s="208"/>
-      <c r="AI20" s="209"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="169"/>
+      <c r="K20" s="170"/>
+      <c r="L20" s="170"/>
+      <c r="M20" s="170"/>
+      <c r="N20" s="170"/>
+      <c r="O20" s="170"/>
+      <c r="P20" s="171"/>
+      <c r="Q20" s="172"/>
+      <c r="R20" s="173"/>
+      <c r="S20" s="173"/>
+      <c r="T20" s="173"/>
+      <c r="U20" s="173"/>
+      <c r="V20" s="173"/>
+      <c r="W20" s="173"/>
+      <c r="X20" s="173"/>
+      <c r="Y20" s="173"/>
+      <c r="Z20" s="173"/>
+      <c r="AA20" s="173"/>
+      <c r="AB20" s="173"/>
+      <c r="AC20" s="173"/>
+      <c r="AD20" s="173"/>
+      <c r="AE20" s="174"/>
+      <c r="AF20" s="169"/>
+      <c r="AG20" s="170"/>
+      <c r="AH20" s="170"/>
+      <c r="AI20" s="171"/>
     </row>
     <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="34"/>
-      <c r="B21" s="201"/>
-      <c r="C21" s="202"/>
-      <c r="D21" s="203"/>
-      <c r="E21" s="204"/>
-      <c r="F21" s="205"/>
-      <c r="G21" s="201"/>
-      <c r="H21" s="206"/>
-      <c r="I21" s="202"/>
-      <c r="J21" s="207"/>
-      <c r="K21" s="208"/>
-      <c r="L21" s="208"/>
-      <c r="M21" s="208"/>
-      <c r="N21" s="208"/>
-      <c r="O21" s="208"/>
-      <c r="P21" s="209"/>
-      <c r="Q21" s="210"/>
-      <c r="R21" s="211"/>
-      <c r="S21" s="211"/>
-      <c r="T21" s="211"/>
-      <c r="U21" s="211"/>
-      <c r="V21" s="211"/>
-      <c r="W21" s="211"/>
-      <c r="X21" s="211"/>
-      <c r="Y21" s="211"/>
-      <c r="Z21" s="211"/>
-      <c r="AA21" s="211"/>
-      <c r="AB21" s="211"/>
-      <c r="AC21" s="211"/>
-      <c r="AD21" s="211"/>
-      <c r="AE21" s="212"/>
-      <c r="AF21" s="207"/>
-      <c r="AG21" s="208"/>
-      <c r="AH21" s="208"/>
-      <c r="AI21" s="209"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="168"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="169"/>
+      <c r="K21" s="170"/>
+      <c r="L21" s="170"/>
+      <c r="M21" s="170"/>
+      <c r="N21" s="170"/>
+      <c r="O21" s="170"/>
+      <c r="P21" s="171"/>
+      <c r="Q21" s="172"/>
+      <c r="R21" s="173"/>
+      <c r="S21" s="173"/>
+      <c r="T21" s="173"/>
+      <c r="U21" s="173"/>
+      <c r="V21" s="173"/>
+      <c r="W21" s="173"/>
+      <c r="X21" s="173"/>
+      <c r="Y21" s="173"/>
+      <c r="Z21" s="173"/>
+      <c r="AA21" s="173"/>
+      <c r="AB21" s="173"/>
+      <c r="AC21" s="173"/>
+      <c r="AD21" s="173"/>
+      <c r="AE21" s="174"/>
+      <c r="AF21" s="169"/>
+      <c r="AG21" s="170"/>
+      <c r="AH21" s="170"/>
+      <c r="AI21" s="171"/>
     </row>
     <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="34"/>
-      <c r="B22" s="201"/>
-      <c r="C22" s="202"/>
-      <c r="D22" s="203"/>
-      <c r="E22" s="204"/>
-      <c r="F22" s="205"/>
-      <c r="G22" s="201"/>
-      <c r="H22" s="206"/>
-      <c r="I22" s="202"/>
-      <c r="J22" s="207"/>
-      <c r="K22" s="208"/>
-      <c r="L22" s="208"/>
-      <c r="M22" s="208"/>
-      <c r="N22" s="208"/>
-      <c r="O22" s="208"/>
-      <c r="P22" s="209"/>
-      <c r="Q22" s="210"/>
-      <c r="R22" s="211"/>
-      <c r="S22" s="211"/>
-      <c r="T22" s="211"/>
-      <c r="U22" s="211"/>
-      <c r="V22" s="211"/>
-      <c r="W22" s="211"/>
-      <c r="X22" s="211"/>
-      <c r="Y22" s="211"/>
-      <c r="Z22" s="211"/>
-      <c r="AA22" s="211"/>
-      <c r="AB22" s="211"/>
-      <c r="AC22" s="211"/>
-      <c r="AD22" s="211"/>
-      <c r="AE22" s="212"/>
-      <c r="AF22" s="207"/>
-      <c r="AG22" s="208"/>
-      <c r="AH22" s="208"/>
-      <c r="AI22" s="209"/>
+      <c r="B22" s="163"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="168"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="169"/>
+      <c r="K22" s="170"/>
+      <c r="L22" s="170"/>
+      <c r="M22" s="170"/>
+      <c r="N22" s="170"/>
+      <c r="O22" s="170"/>
+      <c r="P22" s="171"/>
+      <c r="Q22" s="172"/>
+      <c r="R22" s="173"/>
+      <c r="S22" s="173"/>
+      <c r="T22" s="173"/>
+      <c r="U22" s="173"/>
+      <c r="V22" s="173"/>
+      <c r="W22" s="173"/>
+      <c r="X22" s="173"/>
+      <c r="Y22" s="173"/>
+      <c r="Z22" s="173"/>
+      <c r="AA22" s="173"/>
+      <c r="AB22" s="173"/>
+      <c r="AC22" s="173"/>
+      <c r="AD22" s="173"/>
+      <c r="AE22" s="174"/>
+      <c r="AF22" s="169"/>
+      <c r="AG22" s="170"/>
+      <c r="AH22" s="170"/>
+      <c r="AI22" s="171"/>
     </row>
     <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="34"/>
-      <c r="B23" s="201"/>
-      <c r="C23" s="202"/>
-      <c r="D23" s="203"/>
-      <c r="E23" s="204"/>
-      <c r="F23" s="205"/>
-      <c r="G23" s="201"/>
-      <c r="H23" s="206"/>
-      <c r="I23" s="202"/>
-      <c r="J23" s="207"/>
-      <c r="K23" s="208"/>
-      <c r="L23" s="208"/>
-      <c r="M23" s="208"/>
-      <c r="N23" s="208"/>
-      <c r="O23" s="208"/>
-      <c r="P23" s="209"/>
-      <c r="Q23" s="210"/>
-      <c r="R23" s="211"/>
-      <c r="S23" s="211"/>
-      <c r="T23" s="211"/>
-      <c r="U23" s="211"/>
-      <c r="V23" s="211"/>
-      <c r="W23" s="211"/>
-      <c r="X23" s="211"/>
-      <c r="Y23" s="211"/>
-      <c r="Z23" s="211"/>
-      <c r="AA23" s="211"/>
-      <c r="AB23" s="211"/>
-      <c r="AC23" s="211"/>
-      <c r="AD23" s="211"/>
-      <c r="AE23" s="212"/>
-      <c r="AF23" s="207"/>
-      <c r="AG23" s="208"/>
-      <c r="AH23" s="208"/>
-      <c r="AI23" s="209"/>
+      <c r="B23" s="163"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="169"/>
+      <c r="K23" s="170"/>
+      <c r="L23" s="170"/>
+      <c r="M23" s="170"/>
+      <c r="N23" s="170"/>
+      <c r="O23" s="170"/>
+      <c r="P23" s="171"/>
+      <c r="Q23" s="172"/>
+      <c r="R23" s="173"/>
+      <c r="S23" s="173"/>
+      <c r="T23" s="173"/>
+      <c r="U23" s="173"/>
+      <c r="V23" s="173"/>
+      <c r="W23" s="173"/>
+      <c r="X23" s="173"/>
+      <c r="Y23" s="173"/>
+      <c r="Z23" s="173"/>
+      <c r="AA23" s="173"/>
+      <c r="AB23" s="173"/>
+      <c r="AC23" s="173"/>
+      <c r="AD23" s="173"/>
+      <c r="AE23" s="174"/>
+      <c r="AF23" s="169"/>
+      <c r="AG23" s="170"/>
+      <c r="AH23" s="170"/>
+      <c r="AI23" s="171"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="34"/>
-      <c r="B24" s="201"/>
-      <c r="C24" s="202"/>
-      <c r="D24" s="203"/>
-      <c r="E24" s="204"/>
-      <c r="F24" s="205"/>
-      <c r="G24" s="201"/>
-      <c r="H24" s="206"/>
-      <c r="I24" s="202"/>
-      <c r="J24" s="207"/>
-      <c r="K24" s="208"/>
-      <c r="L24" s="208"/>
-      <c r="M24" s="208"/>
-      <c r="N24" s="208"/>
-      <c r="O24" s="208"/>
-      <c r="P24" s="209"/>
-      <c r="Q24" s="210"/>
-      <c r="R24" s="211"/>
-      <c r="S24" s="211"/>
-      <c r="T24" s="211"/>
-      <c r="U24" s="211"/>
-      <c r="V24" s="211"/>
-      <c r="W24" s="211"/>
-      <c r="X24" s="211"/>
-      <c r="Y24" s="211"/>
-      <c r="Z24" s="211"/>
-      <c r="AA24" s="211"/>
-      <c r="AB24" s="211"/>
-      <c r="AC24" s="211"/>
-      <c r="AD24" s="211"/>
-      <c r="AE24" s="212"/>
-      <c r="AF24" s="207"/>
-      <c r="AG24" s="208"/>
-      <c r="AH24" s="208"/>
-      <c r="AI24" s="209"/>
+      <c r="B24" s="163"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="168"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="169"/>
+      <c r="K24" s="170"/>
+      <c r="L24" s="170"/>
+      <c r="M24" s="170"/>
+      <c r="N24" s="170"/>
+      <c r="O24" s="170"/>
+      <c r="P24" s="171"/>
+      <c r="Q24" s="172"/>
+      <c r="R24" s="173"/>
+      <c r="S24" s="173"/>
+      <c r="T24" s="173"/>
+      <c r="U24" s="173"/>
+      <c r="V24" s="173"/>
+      <c r="W24" s="173"/>
+      <c r="X24" s="173"/>
+      <c r="Y24" s="173"/>
+      <c r="Z24" s="173"/>
+      <c r="AA24" s="173"/>
+      <c r="AB24" s="173"/>
+      <c r="AC24" s="173"/>
+      <c r="AD24" s="173"/>
+      <c r="AE24" s="174"/>
+      <c r="AF24" s="169"/>
+      <c r="AG24" s="170"/>
+      <c r="AH24" s="170"/>
+      <c r="AI24" s="171"/>
     </row>
     <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="34"/>
-      <c r="B25" s="201"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="203"/>
-      <c r="E25" s="204"/>
-      <c r="F25" s="205"/>
-      <c r="G25" s="201"/>
-      <c r="H25" s="206"/>
-      <c r="I25" s="202"/>
-      <c r="J25" s="207"/>
-      <c r="K25" s="208"/>
-      <c r="L25" s="208"/>
-      <c r="M25" s="208"/>
-      <c r="N25" s="208"/>
-      <c r="O25" s="208"/>
-      <c r="P25" s="209"/>
-      <c r="Q25" s="210"/>
-      <c r="R25" s="211"/>
-      <c r="S25" s="211"/>
-      <c r="T25" s="211"/>
-      <c r="U25" s="211"/>
-      <c r="V25" s="211"/>
-      <c r="W25" s="211"/>
-      <c r="X25" s="211"/>
-      <c r="Y25" s="211"/>
-      <c r="Z25" s="211"/>
-      <c r="AA25" s="211"/>
-      <c r="AB25" s="211"/>
-      <c r="AC25" s="211"/>
-      <c r="AD25" s="211"/>
-      <c r="AE25" s="212"/>
-      <c r="AF25" s="207"/>
-      <c r="AG25" s="208"/>
-      <c r="AH25" s="208"/>
-      <c r="AI25" s="209"/>
+      <c r="B25" s="163"/>
+      <c r="C25" s="164"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="166"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="168"/>
+      <c r="I25" s="164"/>
+      <c r="J25" s="169"/>
+      <c r="K25" s="170"/>
+      <c r="L25" s="170"/>
+      <c r="M25" s="170"/>
+      <c r="N25" s="170"/>
+      <c r="O25" s="170"/>
+      <c r="P25" s="171"/>
+      <c r="Q25" s="172"/>
+      <c r="R25" s="173"/>
+      <c r="S25" s="173"/>
+      <c r="T25" s="173"/>
+      <c r="U25" s="173"/>
+      <c r="V25" s="173"/>
+      <c r="W25" s="173"/>
+      <c r="X25" s="173"/>
+      <c r="Y25" s="173"/>
+      <c r="Z25" s="173"/>
+      <c r="AA25" s="173"/>
+      <c r="AB25" s="173"/>
+      <c r="AC25" s="173"/>
+      <c r="AD25" s="173"/>
+      <c r="AE25" s="174"/>
+      <c r="AF25" s="169"/>
+      <c r="AG25" s="170"/>
+      <c r="AH25" s="170"/>
+      <c r="AI25" s="171"/>
     </row>
     <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="34"/>
-      <c r="B26" s="201"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="203"/>
-      <c r="E26" s="204"/>
-      <c r="F26" s="205"/>
-      <c r="G26" s="201"/>
-      <c r="H26" s="206"/>
-      <c r="I26" s="202"/>
-      <c r="J26" s="207"/>
-      <c r="K26" s="208"/>
-      <c r="L26" s="208"/>
-      <c r="M26" s="208"/>
-      <c r="N26" s="208"/>
-      <c r="O26" s="208"/>
-      <c r="P26" s="209"/>
-      <c r="Q26" s="210"/>
-      <c r="R26" s="211"/>
-      <c r="S26" s="211"/>
-      <c r="T26" s="211"/>
-      <c r="U26" s="211"/>
-      <c r="V26" s="211"/>
-      <c r="W26" s="211"/>
-      <c r="X26" s="211"/>
-      <c r="Y26" s="211"/>
-      <c r="Z26" s="211"/>
-      <c r="AA26" s="211"/>
-      <c r="AB26" s="211"/>
-      <c r="AC26" s="211"/>
-      <c r="AD26" s="211"/>
-      <c r="AE26" s="212"/>
-      <c r="AF26" s="207"/>
-      <c r="AG26" s="208"/>
-      <c r="AH26" s="208"/>
-      <c r="AI26" s="209"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="168"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="169"/>
+      <c r="K26" s="170"/>
+      <c r="L26" s="170"/>
+      <c r="M26" s="170"/>
+      <c r="N26" s="170"/>
+      <c r="O26" s="170"/>
+      <c r="P26" s="171"/>
+      <c r="Q26" s="172"/>
+      <c r="R26" s="173"/>
+      <c r="S26" s="173"/>
+      <c r="T26" s="173"/>
+      <c r="U26" s="173"/>
+      <c r="V26" s="173"/>
+      <c r="W26" s="173"/>
+      <c r="X26" s="173"/>
+      <c r="Y26" s="173"/>
+      <c r="Z26" s="173"/>
+      <c r="AA26" s="173"/>
+      <c r="AB26" s="173"/>
+      <c r="AC26" s="173"/>
+      <c r="AD26" s="173"/>
+      <c r="AE26" s="174"/>
+      <c r="AF26" s="169"/>
+      <c r="AG26" s="170"/>
+      <c r="AH26" s="170"/>
+      <c r="AI26" s="171"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="34"/>
-      <c r="B27" s="201"/>
-      <c r="C27" s="202"/>
-      <c r="D27" s="203"/>
-      <c r="E27" s="204"/>
-      <c r="F27" s="205"/>
-      <c r="G27" s="201"/>
-      <c r="H27" s="206"/>
-      <c r="I27" s="202"/>
-      <c r="J27" s="207"/>
-      <c r="K27" s="208"/>
-      <c r="L27" s="208"/>
-      <c r="M27" s="208"/>
-      <c r="N27" s="208"/>
-      <c r="O27" s="208"/>
-      <c r="P27" s="209"/>
-      <c r="Q27" s="210"/>
-      <c r="R27" s="211"/>
-      <c r="S27" s="211"/>
-      <c r="T27" s="211"/>
-      <c r="U27" s="211"/>
-      <c r="V27" s="211"/>
-      <c r="W27" s="211"/>
-      <c r="X27" s="211"/>
-      <c r="Y27" s="211"/>
-      <c r="Z27" s="211"/>
-      <c r="AA27" s="211"/>
-      <c r="AB27" s="211"/>
-      <c r="AC27" s="211"/>
-      <c r="AD27" s="211"/>
-      <c r="AE27" s="212"/>
-      <c r="AF27" s="207"/>
-      <c r="AG27" s="208"/>
-      <c r="AH27" s="208"/>
-      <c r="AI27" s="209"/>
+      <c r="B27" s="163"/>
+      <c r="C27" s="164"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="168"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="169"/>
+      <c r="K27" s="170"/>
+      <c r="L27" s="170"/>
+      <c r="M27" s="170"/>
+      <c r="N27" s="170"/>
+      <c r="O27" s="170"/>
+      <c r="P27" s="171"/>
+      <c r="Q27" s="172"/>
+      <c r="R27" s="173"/>
+      <c r="S27" s="173"/>
+      <c r="T27" s="173"/>
+      <c r="U27" s="173"/>
+      <c r="V27" s="173"/>
+      <c r="W27" s="173"/>
+      <c r="X27" s="173"/>
+      <c r="Y27" s="173"/>
+      <c r="Z27" s="173"/>
+      <c r="AA27" s="173"/>
+      <c r="AB27" s="173"/>
+      <c r="AC27" s="173"/>
+      <c r="AD27" s="173"/>
+      <c r="AE27" s="174"/>
+      <c r="AF27" s="169"/>
+      <c r="AG27" s="170"/>
+      <c r="AH27" s="170"/>
+      <c r="AI27" s="171"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="34"/>
-      <c r="B28" s="201"/>
-      <c r="C28" s="202"/>
-      <c r="D28" s="203"/>
-      <c r="E28" s="204"/>
-      <c r="F28" s="205"/>
-      <c r="G28" s="201"/>
-      <c r="H28" s="206"/>
-      <c r="I28" s="202"/>
-      <c r="J28" s="207"/>
-      <c r="K28" s="208"/>
-      <c r="L28" s="208"/>
-      <c r="M28" s="208"/>
-      <c r="N28" s="208"/>
-      <c r="O28" s="208"/>
-      <c r="P28" s="209"/>
-      <c r="Q28" s="210"/>
-      <c r="R28" s="211"/>
-      <c r="S28" s="211"/>
-      <c r="T28" s="211"/>
-      <c r="U28" s="211"/>
-      <c r="V28" s="211"/>
-      <c r="W28" s="211"/>
-      <c r="X28" s="211"/>
-      <c r="Y28" s="211"/>
-      <c r="Z28" s="211"/>
-      <c r="AA28" s="211"/>
-      <c r="AB28" s="211"/>
-      <c r="AC28" s="211"/>
-      <c r="AD28" s="211"/>
-      <c r="AE28" s="212"/>
-      <c r="AF28" s="207"/>
-      <c r="AG28" s="208"/>
-      <c r="AH28" s="208"/>
-      <c r="AI28" s="209"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="168"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="169"/>
+      <c r="K28" s="170"/>
+      <c r="L28" s="170"/>
+      <c r="M28" s="170"/>
+      <c r="N28" s="170"/>
+      <c r="O28" s="170"/>
+      <c r="P28" s="171"/>
+      <c r="Q28" s="172"/>
+      <c r="R28" s="173"/>
+      <c r="S28" s="173"/>
+      <c r="T28" s="173"/>
+      <c r="U28" s="173"/>
+      <c r="V28" s="173"/>
+      <c r="W28" s="173"/>
+      <c r="X28" s="173"/>
+      <c r="Y28" s="173"/>
+      <c r="Z28" s="173"/>
+      <c r="AA28" s="173"/>
+      <c r="AB28" s="173"/>
+      <c r="AC28" s="173"/>
+      <c r="AD28" s="173"/>
+      <c r="AE28" s="174"/>
+      <c r="AF28" s="169"/>
+      <c r="AG28" s="170"/>
+      <c r="AH28" s="170"/>
+      <c r="AI28" s="171"/>
     </row>
     <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="34"/>
-      <c r="B29" s="201"/>
-      <c r="C29" s="202"/>
-      <c r="D29" s="203"/>
-      <c r="E29" s="204"/>
-      <c r="F29" s="205"/>
-      <c r="G29" s="201"/>
-      <c r="H29" s="206"/>
-      <c r="I29" s="202"/>
-      <c r="J29" s="207"/>
-      <c r="K29" s="208"/>
-      <c r="L29" s="208"/>
-      <c r="M29" s="208"/>
-      <c r="N29" s="208"/>
-      <c r="O29" s="208"/>
-      <c r="P29" s="209"/>
-      <c r="Q29" s="210"/>
-      <c r="R29" s="211"/>
-      <c r="S29" s="211"/>
-      <c r="T29" s="211"/>
-      <c r="U29" s="211"/>
-      <c r="V29" s="211"/>
-      <c r="W29" s="211"/>
-      <c r="X29" s="211"/>
-      <c r="Y29" s="211"/>
-      <c r="Z29" s="211"/>
-      <c r="AA29" s="211"/>
-      <c r="AB29" s="211"/>
-      <c r="AC29" s="211"/>
-      <c r="AD29" s="211"/>
-      <c r="AE29" s="212"/>
-      <c r="AF29" s="207"/>
-      <c r="AG29" s="208"/>
-      <c r="AH29" s="208"/>
-      <c r="AI29" s="209"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="166"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="163"/>
+      <c r="H29" s="168"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="169"/>
+      <c r="K29" s="170"/>
+      <c r="L29" s="170"/>
+      <c r="M29" s="170"/>
+      <c r="N29" s="170"/>
+      <c r="O29" s="170"/>
+      <c r="P29" s="171"/>
+      <c r="Q29" s="172"/>
+      <c r="R29" s="173"/>
+      <c r="S29" s="173"/>
+      <c r="T29" s="173"/>
+      <c r="U29" s="173"/>
+      <c r="V29" s="173"/>
+      <c r="W29" s="173"/>
+      <c r="X29" s="173"/>
+      <c r="Y29" s="173"/>
+      <c r="Z29" s="173"/>
+      <c r="AA29" s="173"/>
+      <c r="AB29" s="173"/>
+      <c r="AC29" s="173"/>
+      <c r="AD29" s="173"/>
+      <c r="AE29" s="174"/>
+      <c r="AF29" s="169"/>
+      <c r="AG29" s="170"/>
+      <c r="AH29" s="170"/>
+      <c r="AI29" s="171"/>
     </row>
     <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="34"/>
-      <c r="B30" s="201"/>
-      <c r="C30" s="202"/>
-      <c r="D30" s="203"/>
-      <c r="E30" s="204"/>
-      <c r="F30" s="205"/>
-      <c r="G30" s="201"/>
-      <c r="H30" s="206"/>
-      <c r="I30" s="202"/>
-      <c r="J30" s="207"/>
-      <c r="K30" s="208"/>
-      <c r="L30" s="208"/>
-      <c r="M30" s="208"/>
-      <c r="N30" s="208"/>
-      <c r="O30" s="208"/>
-      <c r="P30" s="209"/>
-      <c r="Q30" s="210"/>
-      <c r="R30" s="211"/>
-      <c r="S30" s="211"/>
-      <c r="T30" s="211"/>
-      <c r="U30" s="211"/>
-      <c r="V30" s="211"/>
-      <c r="W30" s="211"/>
-      <c r="X30" s="211"/>
-      <c r="Y30" s="211"/>
-      <c r="Z30" s="211"/>
-      <c r="AA30" s="211"/>
-      <c r="AB30" s="211"/>
-      <c r="AC30" s="211"/>
-      <c r="AD30" s="211"/>
-      <c r="AE30" s="212"/>
-      <c r="AF30" s="207"/>
-      <c r="AG30" s="208"/>
-      <c r="AH30" s="208"/>
-      <c r="AI30" s="209"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="166"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="163"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="164"/>
+      <c r="J30" s="169"/>
+      <c r="K30" s="170"/>
+      <c r="L30" s="170"/>
+      <c r="M30" s="170"/>
+      <c r="N30" s="170"/>
+      <c r="O30" s="170"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="172"/>
+      <c r="R30" s="173"/>
+      <c r="S30" s="173"/>
+      <c r="T30" s="173"/>
+      <c r="U30" s="173"/>
+      <c r="V30" s="173"/>
+      <c r="W30" s="173"/>
+      <c r="X30" s="173"/>
+      <c r="Y30" s="173"/>
+      <c r="Z30" s="173"/>
+      <c r="AA30" s="173"/>
+      <c r="AB30" s="173"/>
+      <c r="AC30" s="173"/>
+      <c r="AD30" s="173"/>
+      <c r="AE30" s="174"/>
+      <c r="AF30" s="169"/>
+      <c r="AG30" s="170"/>
+      <c r="AH30" s="170"/>
+      <c r="AI30" s="171"/>
     </row>
     <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="34"/>
-      <c r="B31" s="201"/>
-      <c r="C31" s="202"/>
-      <c r="D31" s="203"/>
-      <c r="E31" s="204"/>
-      <c r="F31" s="205"/>
-      <c r="G31" s="201"/>
-      <c r="H31" s="206"/>
-      <c r="I31" s="202"/>
-      <c r="J31" s="207"/>
-      <c r="K31" s="208"/>
-      <c r="L31" s="208"/>
-      <c r="M31" s="208"/>
-      <c r="N31" s="208"/>
-      <c r="O31" s="208"/>
-      <c r="P31" s="209"/>
-      <c r="Q31" s="210"/>
-      <c r="R31" s="211"/>
-      <c r="S31" s="211"/>
-      <c r="T31" s="211"/>
-      <c r="U31" s="211"/>
-      <c r="V31" s="211"/>
-      <c r="W31" s="211"/>
-      <c r="X31" s="211"/>
-      <c r="Y31" s="211"/>
-      <c r="Z31" s="211"/>
-      <c r="AA31" s="211"/>
-      <c r="AB31" s="211"/>
-      <c r="AC31" s="211"/>
-      <c r="AD31" s="211"/>
-      <c r="AE31" s="212"/>
-      <c r="AF31" s="207"/>
-      <c r="AG31" s="208"/>
-      <c r="AH31" s="208"/>
-      <c r="AI31" s="209"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="166"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="163"/>
+      <c r="H31" s="168"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="169"/>
+      <c r="K31" s="170"/>
+      <c r="L31" s="170"/>
+      <c r="M31" s="170"/>
+      <c r="N31" s="170"/>
+      <c r="O31" s="170"/>
+      <c r="P31" s="171"/>
+      <c r="Q31" s="172"/>
+      <c r="R31" s="173"/>
+      <c r="S31" s="173"/>
+      <c r="T31" s="173"/>
+      <c r="U31" s="173"/>
+      <c r="V31" s="173"/>
+      <c r="W31" s="173"/>
+      <c r="X31" s="173"/>
+      <c r="Y31" s="173"/>
+      <c r="Z31" s="173"/>
+      <c r="AA31" s="173"/>
+      <c r="AB31" s="173"/>
+      <c r="AC31" s="173"/>
+      <c r="AD31" s="173"/>
+      <c r="AE31" s="174"/>
+      <c r="AF31" s="169"/>
+      <c r="AG31" s="170"/>
+      <c r="AH31" s="170"/>
+      <c r="AI31" s="171"/>
     </row>
     <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="34"/>
-      <c r="B32" s="201"/>
-      <c r="C32" s="202"/>
-      <c r="D32" s="203"/>
-      <c r="E32" s="204"/>
-      <c r="F32" s="205"/>
-      <c r="G32" s="201"/>
-      <c r="H32" s="206"/>
-      <c r="I32" s="202"/>
-      <c r="J32" s="207"/>
-      <c r="K32" s="227"/>
-      <c r="L32" s="208"/>
-      <c r="M32" s="208"/>
-      <c r="N32" s="208"/>
-      <c r="O32" s="208"/>
-      <c r="P32" s="209"/>
-      <c r="Q32" s="210"/>
-      <c r="R32" s="211"/>
-      <c r="S32" s="211"/>
-      <c r="T32" s="211"/>
-      <c r="U32" s="211"/>
-      <c r="V32" s="211"/>
-      <c r="W32" s="211"/>
-      <c r="X32" s="211"/>
-      <c r="Y32" s="211"/>
-      <c r="Z32" s="211"/>
-      <c r="AA32" s="211"/>
-      <c r="AB32" s="211"/>
-      <c r="AC32" s="211"/>
-      <c r="AD32" s="211"/>
-      <c r="AE32" s="212"/>
-      <c r="AF32" s="207"/>
-      <c r="AG32" s="208"/>
-      <c r="AH32" s="208"/>
-      <c r="AI32" s="209"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="168"/>
+      <c r="I32" s="164"/>
+      <c r="J32" s="169"/>
+      <c r="K32" s="175"/>
+      <c r="L32" s="170"/>
+      <c r="M32" s="170"/>
+      <c r="N32" s="170"/>
+      <c r="O32" s="170"/>
+      <c r="P32" s="171"/>
+      <c r="Q32" s="172"/>
+      <c r="R32" s="173"/>
+      <c r="S32" s="173"/>
+      <c r="T32" s="173"/>
+      <c r="U32" s="173"/>
+      <c r="V32" s="173"/>
+      <c r="W32" s="173"/>
+      <c r="X32" s="173"/>
+      <c r="Y32" s="173"/>
+      <c r="Z32" s="173"/>
+      <c r="AA32" s="173"/>
+      <c r="AB32" s="173"/>
+      <c r="AC32" s="173"/>
+      <c r="AD32" s="173"/>
+      <c r="AE32" s="174"/>
+      <c r="AF32" s="169"/>
+      <c r="AG32" s="170"/>
+      <c r="AH32" s="170"/>
+      <c r="AI32" s="171"/>
     </row>
     <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="34"/>
-      <c r="B33" s="201"/>
-      <c r="C33" s="202"/>
-      <c r="D33" s="203"/>
-      <c r="E33" s="204"/>
-      <c r="F33" s="205"/>
-      <c r="G33" s="201"/>
-      <c r="H33" s="206"/>
-      <c r="I33" s="202"/>
-      <c r="J33" s="207"/>
-      <c r="K33" s="208"/>
-      <c r="L33" s="208"/>
-      <c r="M33" s="208"/>
-      <c r="N33" s="208"/>
-      <c r="O33" s="208"/>
-      <c r="P33" s="209"/>
-      <c r="Q33" s="210"/>
-      <c r="R33" s="211"/>
-      <c r="S33" s="211"/>
-      <c r="T33" s="211"/>
-      <c r="U33" s="211"/>
-      <c r="V33" s="211"/>
-      <c r="W33" s="211"/>
-      <c r="X33" s="211"/>
-      <c r="Y33" s="211"/>
-      <c r="Z33" s="211"/>
-      <c r="AA33" s="211"/>
-      <c r="AB33" s="211"/>
-      <c r="AC33" s="211"/>
-      <c r="AD33" s="211"/>
-      <c r="AE33" s="212"/>
-      <c r="AF33" s="207"/>
-      <c r="AG33" s="208"/>
-      <c r="AH33" s="208"/>
-      <c r="AI33" s="209"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="164"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="163"/>
+      <c r="H33" s="168"/>
+      <c r="I33" s="164"/>
+      <c r="J33" s="169"/>
+      <c r="K33" s="170"/>
+      <c r="L33" s="170"/>
+      <c r="M33" s="170"/>
+      <c r="N33" s="170"/>
+      <c r="O33" s="170"/>
+      <c r="P33" s="171"/>
+      <c r="Q33" s="172"/>
+      <c r="R33" s="173"/>
+      <c r="S33" s="173"/>
+      <c r="T33" s="173"/>
+      <c r="U33" s="173"/>
+      <c r="V33" s="173"/>
+      <c r="W33" s="173"/>
+      <c r="X33" s="173"/>
+      <c r="Y33" s="173"/>
+      <c r="Z33" s="173"/>
+      <c r="AA33" s="173"/>
+      <c r="AB33" s="173"/>
+      <c r="AC33" s="173"/>
+      <c r="AD33" s="173"/>
+      <c r="AE33" s="174"/>
+      <c r="AF33" s="169"/>
+      <c r="AG33" s="170"/>
+      <c r="AH33" s="170"/>
+      <c r="AI33" s="171"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -7669,6 +7528,162 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7824,157 +7839,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="246" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="240" t="str">
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="241"/>
-      <c r="K1" s="241"/>
-      <c r="L1" s="241"/>
-      <c r="M1" s="241"/>
-      <c r="N1" s="242"/>
-      <c r="O1" s="231" t="s">
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="249" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="232"/>
-      <c r="Q1" s="232"/>
-      <c r="R1" s="233"/>
-      <c r="S1" s="249" t="str">
+      <c r="P1" s="250"/>
+      <c r="Q1" s="250"/>
+      <c r="R1" s="251"/>
+      <c r="S1" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="250"/>
-      <c r="U1" s="250"/>
-      <c r="V1" s="250"/>
-      <c r="W1" s="250"/>
-      <c r="X1" s="250"/>
-      <c r="Y1" s="250"/>
-      <c r="Z1" s="251"/>
-      <c r="AA1" s="228" t="s">
+      <c r="T1" s="238"/>
+      <c r="U1" s="238"/>
+      <c r="V1" s="238"/>
+      <c r="W1" s="238"/>
+      <c r="X1" s="238"/>
+      <c r="Y1" s="238"/>
+      <c r="Z1" s="239"/>
+      <c r="AA1" s="246" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="230"/>
-      <c r="AC1" s="243" t="str">
+      <c r="AB1" s="248"/>
+      <c r="AC1" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="244"/>
-      <c r="AE1" s="244"/>
-      <c r="AF1" s="245"/>
-      <c r="AG1" s="246">
+      <c r="AD1" s="229"/>
+      <c r="AE1" s="229"/>
+      <c r="AF1" s="230"/>
+      <c r="AG1" s="231">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="247"/>
-      <c r="AI1" s="248"/>
+      <c r="AH1" s="232"/>
+      <c r="AI1" s="233"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="240" t="str">
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="248"/>
+      <c r="E2" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="241"/>
-      <c r="G2" s="241"/>
-      <c r="H2" s="241"/>
-      <c r="I2" s="241"/>
-      <c r="J2" s="241"/>
-      <c r="K2" s="241"/>
-      <c r="L2" s="241"/>
-      <c r="M2" s="241"/>
-      <c r="N2" s="242"/>
-      <c r="O2" s="234"/>
-      <c r="P2" s="235"/>
-      <c r="Q2" s="235"/>
-      <c r="R2" s="236"/>
-      <c r="S2" s="252"/>
-      <c r="T2" s="253"/>
-      <c r="U2" s="253"/>
-      <c r="V2" s="253"/>
-      <c r="W2" s="253"/>
-      <c r="X2" s="253"/>
-      <c r="Y2" s="253"/>
-      <c r="Z2" s="254"/>
-      <c r="AA2" s="228" t="s">
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="236"/>
+      <c r="O2" s="252"/>
+      <c r="P2" s="253"/>
+      <c r="Q2" s="253"/>
+      <c r="R2" s="254"/>
+      <c r="S2" s="240"/>
+      <c r="T2" s="241"/>
+      <c r="U2" s="241"/>
+      <c r="V2" s="241"/>
+      <c r="W2" s="241"/>
+      <c r="X2" s="241"/>
+      <c r="Y2" s="241"/>
+      <c r="Z2" s="242"/>
+      <c r="AA2" s="246" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="230"/>
-      <c r="AC2" s="243" t="str">
+      <c r="AB2" s="248"/>
+      <c r="AC2" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="244"/>
-      <c r="AE2" s="244"/>
-      <c r="AF2" s="245"/>
-      <c r="AG2" s="246" t="str">
+      <c r="AD2" s="229"/>
+      <c r="AE2" s="229"/>
+      <c r="AF2" s="230"/>
+      <c r="AG2" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="247"/>
-      <c r="AI2" s="248"/>
+      <c r="AH2" s="232"/>
+      <c r="AI2" s="233"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="228" t="s">
+      <c r="A3" s="246" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="229"/>
-      <c r="C3" s="229"/>
-      <c r="D3" s="230"/>
-      <c r="E3" s="240" t="str">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="241"/>
-      <c r="G3" s="241"/>
-      <c r="H3" s="241"/>
-      <c r="I3" s="241"/>
-      <c r="J3" s="241"/>
-      <c r="K3" s="241"/>
-      <c r="L3" s="241"/>
-      <c r="M3" s="241"/>
-      <c r="N3" s="242"/>
-      <c r="O3" s="237"/>
-      <c r="P3" s="238"/>
-      <c r="Q3" s="238"/>
-      <c r="R3" s="239"/>
-      <c r="S3" s="255"/>
-      <c r="T3" s="256"/>
-      <c r="U3" s="256"/>
-      <c r="V3" s="256"/>
-      <c r="W3" s="256"/>
-      <c r="X3" s="256"/>
-      <c r="Y3" s="256"/>
-      <c r="Z3" s="257"/>
-      <c r="AA3" s="228"/>
-      <c r="AB3" s="230"/>
-      <c r="AC3" s="243" t="str">
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="236"/>
+      <c r="O3" s="255"/>
+      <c r="P3" s="256"/>
+      <c r="Q3" s="256"/>
+      <c r="R3" s="257"/>
+      <c r="S3" s="243"/>
+      <c r="T3" s="244"/>
+      <c r="U3" s="244"/>
+      <c r="V3" s="244"/>
+      <c r="W3" s="244"/>
+      <c r="X3" s="244"/>
+      <c r="Y3" s="244"/>
+      <c r="Z3" s="245"/>
+      <c r="AA3" s="246"/>
+      <c r="AB3" s="248"/>
+      <c r="AC3" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="244"/>
-      <c r="AE3" s="244"/>
-      <c r="AF3" s="245"/>
-      <c r="AG3" s="246" t="str">
+      <c r="AD3" s="229"/>
+      <c r="AE3" s="229"/>
+      <c r="AF3" s="230"/>
+      <c r="AG3" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="247"/>
-      <c r="AI3" s="248"/>
+      <c r="AH3" s="232"/>
+      <c r="AI3" s="233"/>
     </row>
     <row r="4" spans="1:35" s="107" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="105"/>
@@ -8031,7 +8046,7 @@
       <c r="O5" s="105"/>
       <c r="P5" s="105"/>
       <c r="Q5" s="108" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="R5" s="105"/>
       <c r="S5" s="105"/>
@@ -8092,7 +8107,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="69"/>
       <c r="B7" s="83" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C7" s="83"/>
       <c r="D7" s="109"/>
@@ -8132,7 +8147,7 @@
       <c r="A8" s="69"/>
       <c r="B8" s="83"/>
       <c r="C8" s="83" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" s="109"/>
       <c r="E8" s="109"/>
@@ -8171,7 +8186,7 @@
       <c r="A9" s="69"/>
       <c r="B9" s="109"/>
       <c r="C9" s="83" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="D9" s="109"/>
       <c r="E9" s="109"/>
@@ -8246,7 +8261,7 @@
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="69"/>
       <c r="B11" s="54" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="C11" s="109"/>
       <c r="D11" s="69"/>
@@ -9441,6 +9456,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -9450,14 +9473,6 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9485,157 +9500,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="145" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="272" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="240" t="str">
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="241"/>
-      <c r="K1" s="241"/>
-      <c r="L1" s="241"/>
-      <c r="M1" s="241"/>
-      <c r="N1" s="242"/>
-      <c r="O1" s="261" t="s">
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="275" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="262"/>
-      <c r="Q1" s="262"/>
-      <c r="R1" s="263"/>
-      <c r="S1" s="249" t="str">
+      <c r="P1" s="276"/>
+      <c r="Q1" s="276"/>
+      <c r="R1" s="277"/>
+      <c r="S1" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="250"/>
-      <c r="U1" s="250"/>
-      <c r="V1" s="250"/>
-      <c r="W1" s="250"/>
-      <c r="X1" s="250"/>
-      <c r="Y1" s="250"/>
-      <c r="Z1" s="251"/>
-      <c r="AA1" s="258" t="s">
+      <c r="T1" s="238"/>
+      <c r="U1" s="238"/>
+      <c r="V1" s="238"/>
+      <c r="W1" s="238"/>
+      <c r="X1" s="238"/>
+      <c r="Y1" s="238"/>
+      <c r="Z1" s="239"/>
+      <c r="AA1" s="272" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="260"/>
-      <c r="AC1" s="243" t="str">
+      <c r="AB1" s="274"/>
+      <c r="AC1" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="244"/>
-      <c r="AE1" s="244"/>
-      <c r="AF1" s="245"/>
-      <c r="AG1" s="271">
+      <c r="AD1" s="229"/>
+      <c r="AE1" s="229"/>
+      <c r="AF1" s="230"/>
+      <c r="AG1" s="268">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="272"/>
-      <c r="AI1" s="273"/>
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="270"/>
     </row>
     <row r="2" spans="1:38" s="145" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="272" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="259"/>
-      <c r="C2" s="259"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="240" t="str">
+      <c r="B2" s="273"/>
+      <c r="C2" s="273"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="241"/>
-      <c r="G2" s="241"/>
-      <c r="H2" s="241"/>
-      <c r="I2" s="241"/>
-      <c r="J2" s="241"/>
-      <c r="K2" s="241"/>
-      <c r="L2" s="241"/>
-      <c r="M2" s="241"/>
-      <c r="N2" s="242"/>
-      <c r="O2" s="264"/>
-      <c r="P2" s="265"/>
-      <c r="Q2" s="265"/>
-      <c r="R2" s="266"/>
-      <c r="S2" s="252"/>
-      <c r="T2" s="253"/>
-      <c r="U2" s="253"/>
-      <c r="V2" s="253"/>
-      <c r="W2" s="253"/>
-      <c r="X2" s="253"/>
-      <c r="Y2" s="253"/>
-      <c r="Z2" s="254"/>
-      <c r="AA2" s="258" t="s">
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="236"/>
+      <c r="O2" s="278"/>
+      <c r="P2" s="279"/>
+      <c r="Q2" s="279"/>
+      <c r="R2" s="280"/>
+      <c r="S2" s="240"/>
+      <c r="T2" s="241"/>
+      <c r="U2" s="241"/>
+      <c r="V2" s="241"/>
+      <c r="W2" s="241"/>
+      <c r="X2" s="241"/>
+      <c r="Y2" s="241"/>
+      <c r="Z2" s="242"/>
+      <c r="AA2" s="272" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="260"/>
-      <c r="AC2" s="243" t="str">
+      <c r="AB2" s="274"/>
+      <c r="AC2" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="244"/>
-      <c r="AE2" s="244"/>
-      <c r="AF2" s="245"/>
-      <c r="AG2" s="271" t="str">
+      <c r="AD2" s="229"/>
+      <c r="AE2" s="229"/>
+      <c r="AF2" s="230"/>
+      <c r="AG2" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="272"/>
-      <c r="AI2" s="273"/>
+      <c r="AH2" s="269"/>
+      <c r="AI2" s="270"/>
     </row>
     <row r="3" spans="1:38" s="145" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="258" t="s">
+      <c r="A3" s="272" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="259"/>
-      <c r="C3" s="259"/>
-      <c r="D3" s="260"/>
-      <c r="E3" s="240" t="str">
+      <c r="B3" s="273"/>
+      <c r="C3" s="273"/>
+      <c r="D3" s="274"/>
+      <c r="E3" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="241"/>
-      <c r="G3" s="241"/>
-      <c r="H3" s="241"/>
-      <c r="I3" s="241"/>
-      <c r="J3" s="241"/>
-      <c r="K3" s="241"/>
-      <c r="L3" s="241"/>
-      <c r="M3" s="241"/>
-      <c r="N3" s="242"/>
-      <c r="O3" s="267"/>
-      <c r="P3" s="268"/>
-      <c r="Q3" s="268"/>
-      <c r="R3" s="269"/>
-      <c r="S3" s="255"/>
-      <c r="T3" s="256"/>
-      <c r="U3" s="256"/>
-      <c r="V3" s="256"/>
-      <c r="W3" s="256"/>
-      <c r="X3" s="256"/>
-      <c r="Y3" s="256"/>
-      <c r="Z3" s="257"/>
-      <c r="AA3" s="258"/>
-      <c r="AB3" s="260"/>
-      <c r="AC3" s="243" t="str">
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="236"/>
+      <c r="O3" s="281"/>
+      <c r="P3" s="282"/>
+      <c r="Q3" s="282"/>
+      <c r="R3" s="283"/>
+      <c r="S3" s="243"/>
+      <c r="T3" s="244"/>
+      <c r="U3" s="244"/>
+      <c r="V3" s="244"/>
+      <c r="W3" s="244"/>
+      <c r="X3" s="244"/>
+      <c r="Y3" s="244"/>
+      <c r="Z3" s="245"/>
+      <c r="AA3" s="272"/>
+      <c r="AB3" s="274"/>
+      <c r="AC3" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="244"/>
-      <c r="AE3" s="244"/>
-      <c r="AF3" s="245"/>
-      <c r="AG3" s="271" t="str">
+      <c r="AD3" s="229"/>
+      <c r="AE3" s="229"/>
+      <c r="AF3" s="230"/>
+      <c r="AG3" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="272"/>
-      <c r="AI3" s="273"/>
+      <c r="AH3" s="269"/>
+      <c r="AI3" s="270"/>
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
@@ -9677,7 +9692,7 @@
     <row r="5" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39"/>
       <c r="B5" s="146" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
@@ -9717,7 +9732,7 @@
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="146" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" s="39"/>
       <c r="E6" s="39"/>
@@ -9791,94 +9806,94 @@
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
-      <c r="D8" s="275" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="276"/>
-      <c r="F8" s="276"/>
-      <c r="G8" s="277"/>
-      <c r="H8" s="274" t="s">
-        <v>133</v>
-      </c>
-      <c r="I8" s="274"/>
-      <c r="J8" s="274"/>
-      <c r="K8" s="274"/>
-      <c r="L8" s="274"/>
-      <c r="M8" s="274"/>
-      <c r="N8" s="274"/>
-      <c r="O8" s="274"/>
-      <c r="P8" s="274"/>
-      <c r="Q8" s="274"/>
-      <c r="R8" s="274"/>
-      <c r="S8" s="274"/>
-      <c r="T8" s="274"/>
-      <c r="U8" s="274"/>
-      <c r="V8" s="274"/>
-      <c r="W8" s="274"/>
-      <c r="X8" s="274"/>
-      <c r="Y8" s="274"/>
-      <c r="Z8" s="274"/>
-      <c r="AA8" s="274"/>
-      <c r="AB8" s="274"/>
-      <c r="AC8" s="274"/>
-      <c r="AD8" s="274"/>
-      <c r="AE8" s="274"/>
-      <c r="AF8" s="274"/>
-      <c r="AG8" s="274"/>
-      <c r="AH8" s="274"/>
+      <c r="D8" s="261" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="262"/>
+      <c r="F8" s="262"/>
+      <c r="G8" s="263"/>
+      <c r="H8" s="271" t="s">
+        <v>132</v>
+      </c>
+      <c r="I8" s="271"/>
+      <c r="J8" s="271"/>
+      <c r="K8" s="271"/>
+      <c r="L8" s="271"/>
+      <c r="M8" s="271"/>
+      <c r="N8" s="271"/>
+      <c r="O8" s="271"/>
+      <c r="P8" s="271"/>
+      <c r="Q8" s="271"/>
+      <c r="R8" s="271"/>
+      <c r="S8" s="271"/>
+      <c r="T8" s="271"/>
+      <c r="U8" s="271"/>
+      <c r="V8" s="271"/>
+      <c r="W8" s="271"/>
+      <c r="X8" s="271"/>
+      <c r="Y8" s="271"/>
+      <c r="Z8" s="271"/>
+      <c r="AA8" s="271"/>
+      <c r="AB8" s="271"/>
+      <c r="AC8" s="271"/>
+      <c r="AD8" s="271"/>
+      <c r="AE8" s="271"/>
+      <c r="AF8" s="271"/>
+      <c r="AG8" s="271"/>
+      <c r="AH8" s="271"/>
     </row>
     <row r="9" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
-      <c r="D9" s="275" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="276"/>
-      <c r="F9" s="276"/>
-      <c r="G9" s="277"/>
-      <c r="H9" s="270" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9" s="270"/>
-      <c r="J9" s="270"/>
-      <c r="K9" s="270"/>
-      <c r="L9" s="270"/>
-      <c r="M9" s="270"/>
-      <c r="N9" s="270"/>
-      <c r="O9" s="270"/>
-      <c r="P9" s="270"/>
-      <c r="Q9" s="270"/>
-      <c r="R9" s="270"/>
-      <c r="S9" s="270"/>
-      <c r="T9" s="270"/>
-      <c r="U9" s="270"/>
-      <c r="V9" s="270"/>
-      <c r="W9" s="270"/>
-      <c r="X9" s="270"/>
-      <c r="Y9" s="270"/>
-      <c r="Z9" s="270"/>
-      <c r="AA9" s="270"/>
-      <c r="AB9" s="270"/>
-      <c r="AC9" s="270"/>
-      <c r="AD9" s="270"/>
-      <c r="AE9" s="270"/>
-      <c r="AF9" s="270"/>
-      <c r="AG9" s="270"/>
-      <c r="AH9" s="270"/>
+      <c r="D9" s="261" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="262"/>
+      <c r="F9" s="262"/>
+      <c r="G9" s="263"/>
+      <c r="H9" s="267" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" s="267"/>
+      <c r="J9" s="267"/>
+      <c r="K9" s="267"/>
+      <c r="L9" s="267"/>
+      <c r="M9" s="267"/>
+      <c r="N9" s="267"/>
+      <c r="O9" s="267"/>
+      <c r="P9" s="267"/>
+      <c r="Q9" s="267"/>
+      <c r="R9" s="267"/>
+      <c r="S9" s="267"/>
+      <c r="T9" s="267"/>
+      <c r="U9" s="267"/>
+      <c r="V9" s="267"/>
+      <c r="W9" s="267"/>
+      <c r="X9" s="267"/>
+      <c r="Y9" s="267"/>
+      <c r="Z9" s="267"/>
+      <c r="AA9" s="267"/>
+      <c r="AB9" s="267"/>
+      <c r="AC9" s="267"/>
+      <c r="AD9" s="267"/>
+      <c r="AE9" s="267"/>
+      <c r="AF9" s="267"/>
+      <c r="AG9" s="267"/>
+      <c r="AH9" s="267"/>
     </row>
     <row r="10" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
-      <c r="D10" s="278" t="s">
-        <v>154</v>
-      </c>
-      <c r="E10" s="279"/>
-      <c r="F10" s="279"/>
-      <c r="G10" s="280"/>
+      <c r="D10" s="258" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="259"/>
+      <c r="F10" s="259"/>
+      <c r="G10" s="260"/>
       <c r="H10" s="147" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I10" s="148"/>
       <c r="J10" s="148"/>
@@ -9911,174 +9926,174 @@
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
-      <c r="D11" s="275" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="276"/>
-      <c r="F11" s="276"/>
-      <c r="G11" s="277"/>
-      <c r="H11" s="274" t="s">
-        <v>133</v>
-      </c>
-      <c r="I11" s="274"/>
-      <c r="J11" s="274"/>
-      <c r="K11" s="274"/>
-      <c r="L11" s="274"/>
-      <c r="M11" s="274"/>
-      <c r="N11" s="274"/>
-      <c r="O11" s="274"/>
-      <c r="P11" s="274"/>
-      <c r="Q11" s="274"/>
-      <c r="R11" s="274"/>
-      <c r="S11" s="274"/>
-      <c r="T11" s="274"/>
-      <c r="U11" s="274"/>
-      <c r="V11" s="274"/>
-      <c r="W11" s="274"/>
-      <c r="X11" s="274"/>
-      <c r="Y11" s="274"/>
-      <c r="Z11" s="274"/>
-      <c r="AA11" s="274"/>
-      <c r="AB11" s="274"/>
-      <c r="AC11" s="274"/>
-      <c r="AD11" s="274"/>
-      <c r="AE11" s="274"/>
-      <c r="AF11" s="274"/>
-      <c r="AG11" s="274"/>
-      <c r="AH11" s="274"/>
+      <c r="D11" s="261" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="262"/>
+      <c r="F11" s="262"/>
+      <c r="G11" s="263"/>
+      <c r="H11" s="271" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" s="271"/>
+      <c r="J11" s="271"/>
+      <c r="K11" s="271"/>
+      <c r="L11" s="271"/>
+      <c r="M11" s="271"/>
+      <c r="N11" s="271"/>
+      <c r="O11" s="271"/>
+      <c r="P11" s="271"/>
+      <c r="Q11" s="271"/>
+      <c r="R11" s="271"/>
+      <c r="S11" s="271"/>
+      <c r="T11" s="271"/>
+      <c r="U11" s="271"/>
+      <c r="V11" s="271"/>
+      <c r="W11" s="271"/>
+      <c r="X11" s="271"/>
+      <c r="Y11" s="271"/>
+      <c r="Z11" s="271"/>
+      <c r="AA11" s="271"/>
+      <c r="AB11" s="271"/>
+      <c r="AC11" s="271"/>
+      <c r="AD11" s="271"/>
+      <c r="AE11" s="271"/>
+      <c r="AF11" s="271"/>
+      <c r="AG11" s="271"/>
+      <c r="AH11" s="271"/>
     </row>
     <row r="12" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
-      <c r="D12" s="275" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="276"/>
-      <c r="F12" s="276"/>
-      <c r="G12" s="277"/>
-      <c r="H12" s="270" t="s">
-        <v>134</v>
-      </c>
-      <c r="I12" s="270"/>
-      <c r="J12" s="270"/>
-      <c r="K12" s="270"/>
-      <c r="L12" s="270"/>
-      <c r="M12" s="270"/>
-      <c r="N12" s="270"/>
-      <c r="O12" s="270"/>
-      <c r="P12" s="270"/>
-      <c r="Q12" s="270"/>
-      <c r="R12" s="270"/>
-      <c r="S12" s="270"/>
-      <c r="T12" s="270"/>
-      <c r="U12" s="270"/>
-      <c r="V12" s="270"/>
-      <c r="W12" s="270"/>
-      <c r="X12" s="270"/>
-      <c r="Y12" s="270"/>
-      <c r="Z12" s="270"/>
-      <c r="AA12" s="270"/>
-      <c r="AB12" s="270"/>
-      <c r="AC12" s="270"/>
-      <c r="AD12" s="270"/>
-      <c r="AE12" s="270"/>
-      <c r="AF12" s="270"/>
-      <c r="AG12" s="270"/>
-      <c r="AH12" s="270"/>
+      <c r="D12" s="261" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="262"/>
+      <c r="F12" s="262"/>
+      <c r="G12" s="263"/>
+      <c r="H12" s="267" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12" s="267"/>
+      <c r="J12" s="267"/>
+      <c r="K12" s="267"/>
+      <c r="L12" s="267"/>
+      <c r="M12" s="267"/>
+      <c r="N12" s="267"/>
+      <c r="O12" s="267"/>
+      <c r="P12" s="267"/>
+      <c r="Q12" s="267"/>
+      <c r="R12" s="267"/>
+      <c r="S12" s="267"/>
+      <c r="T12" s="267"/>
+      <c r="U12" s="267"/>
+      <c r="V12" s="267"/>
+      <c r="W12" s="267"/>
+      <c r="X12" s="267"/>
+      <c r="Y12" s="267"/>
+      <c r="Z12" s="267"/>
+      <c r="AA12" s="267"/>
+      <c r="AB12" s="267"/>
+      <c r="AC12" s="267"/>
+      <c r="AD12" s="267"/>
+      <c r="AE12" s="267"/>
+      <c r="AF12" s="267"/>
+      <c r="AG12" s="267"/>
+      <c r="AH12" s="267"/>
     </row>
     <row r="13" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
-      <c r="D13" s="275" t="s">
+      <c r="D13" s="261" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="262"/>
+      <c r="F13" s="262"/>
+      <c r="G13" s="263"/>
+      <c r="H13" s="267" t="s">
         <v>138</v>
       </c>
-      <c r="E13" s="276"/>
-      <c r="F13" s="276"/>
-      <c r="G13" s="277"/>
-      <c r="H13" s="270" t="s">
-        <v>139</v>
-      </c>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
-      <c r="K13" s="270"/>
-      <c r="L13" s="270"/>
-      <c r="M13" s="270"/>
-      <c r="N13" s="270"/>
-      <c r="O13" s="270"/>
-      <c r="P13" s="270"/>
-      <c r="Q13" s="270"/>
-      <c r="R13" s="270"/>
-      <c r="S13" s="270"/>
-      <c r="T13" s="270"/>
-      <c r="U13" s="270"/>
-      <c r="V13" s="270"/>
-      <c r="W13" s="270"/>
-      <c r="X13" s="270"/>
-      <c r="Y13" s="270"/>
-      <c r="Z13" s="270"/>
-      <c r="AA13" s="270"/>
-      <c r="AB13" s="270"/>
-      <c r="AC13" s="270"/>
-      <c r="AD13" s="270"/>
-      <c r="AE13" s="270"/>
-      <c r="AF13" s="270"/>
-      <c r="AG13" s="270"/>
-      <c r="AH13" s="270"/>
+      <c r="I13" s="267"/>
+      <c r="J13" s="267"/>
+      <c r="K13" s="267"/>
+      <c r="L13" s="267"/>
+      <c r="M13" s="267"/>
+      <c r="N13" s="267"/>
+      <c r="O13" s="267"/>
+      <c r="P13" s="267"/>
+      <c r="Q13" s="267"/>
+      <c r="R13" s="267"/>
+      <c r="S13" s="267"/>
+      <c r="T13" s="267"/>
+      <c r="U13" s="267"/>
+      <c r="V13" s="267"/>
+      <c r="W13" s="267"/>
+      <c r="X13" s="267"/>
+      <c r="Y13" s="267"/>
+      <c r="Z13" s="267"/>
+      <c r="AA13" s="267"/>
+      <c r="AB13" s="267"/>
+      <c r="AC13" s="267"/>
+      <c r="AD13" s="267"/>
+      <c r="AE13" s="267"/>
+      <c r="AF13" s="267"/>
+      <c r="AG13" s="267"/>
+      <c r="AH13" s="267"/>
     </row>
     <row r="14" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
-      <c r="D14" s="275" t="s">
+      <c r="D14" s="261" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="262"/>
+      <c r="F14" s="262"/>
+      <c r="G14" s="263"/>
+      <c r="H14" s="267" t="s">
         <v>140</v>
       </c>
-      <c r="E14" s="276"/>
-      <c r="F14" s="276"/>
-      <c r="G14" s="277"/>
-      <c r="H14" s="270" t="s">
-        <v>141</v>
-      </c>
-      <c r="I14" s="270"/>
-      <c r="J14" s="270"/>
-      <c r="K14" s="270"/>
-      <c r="L14" s="270"/>
-      <c r="M14" s="270"/>
-      <c r="N14" s="270"/>
-      <c r="O14" s="270"/>
-      <c r="P14" s="270"/>
-      <c r="Q14" s="270"/>
-      <c r="R14" s="270"/>
-      <c r="S14" s="270"/>
-      <c r="T14" s="270"/>
-      <c r="U14" s="270"/>
-      <c r="V14" s="270"/>
-      <c r="W14" s="270"/>
-      <c r="X14" s="270"/>
-      <c r="Y14" s="270"/>
-      <c r="Z14" s="270"/>
-      <c r="AA14" s="270"/>
-      <c r="AB14" s="270"/>
-      <c r="AC14" s="270"/>
-      <c r="AD14" s="270"/>
-      <c r="AE14" s="270"/>
-      <c r="AF14" s="270"/>
-      <c r="AG14" s="270"/>
-      <c r="AH14" s="270"/>
+      <c r="I14" s="267"/>
+      <c r="J14" s="267"/>
+      <c r="K14" s="267"/>
+      <c r="L14" s="267"/>
+      <c r="M14" s="267"/>
+      <c r="N14" s="267"/>
+      <c r="O14" s="267"/>
+      <c r="P14" s="267"/>
+      <c r="Q14" s="267"/>
+      <c r="R14" s="267"/>
+      <c r="S14" s="267"/>
+      <c r="T14" s="267"/>
+      <c r="U14" s="267"/>
+      <c r="V14" s="267"/>
+      <c r="W14" s="267"/>
+      <c r="X14" s="267"/>
+      <c r="Y14" s="267"/>
+      <c r="Z14" s="267"/>
+      <c r="AA14" s="267"/>
+      <c r="AB14" s="267"/>
+      <c r="AC14" s="267"/>
+      <c r="AD14" s="267"/>
+      <c r="AE14" s="267"/>
+      <c r="AF14" s="267"/>
+      <c r="AG14" s="267"/>
+      <c r="AH14" s="267"/>
     </row>
     <row r="15" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
-      <c r="D15" s="275" t="s">
+      <c r="D15" s="261" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="262"/>
+      <c r="F15" s="262"/>
+      <c r="G15" s="263"/>
+      <c r="H15" s="150" t="s">
         <v>142</v>
-      </c>
-      <c r="E15" s="276"/>
-      <c r="F15" s="276"/>
-      <c r="G15" s="277"/>
-      <c r="H15" s="150" t="s">
-        <v>143</v>
       </c>
       <c r="I15" s="151"/>
       <c r="J15" s="151"/>
@@ -10228,30 +10243,30 @@
       <c r="D19" s="156"/>
       <c r="E19" s="156"/>
       <c r="F19" s="156"/>
-      <c r="G19" s="283"/>
-      <c r="H19" s="283"/>
-      <c r="I19" s="283"/>
-      <c r="J19" s="283"/>
-      <c r="K19" s="283"/>
-      <c r="L19" s="283"/>
-      <c r="M19" s="283"/>
-      <c r="N19" s="283"/>
-      <c r="O19" s="281"/>
-      <c r="P19" s="282"/>
-      <c r="Q19" s="282"/>
-      <c r="R19" s="282"/>
-      <c r="S19" s="282"/>
-      <c r="T19" s="282"/>
-      <c r="U19" s="282"/>
-      <c r="V19" s="282"/>
-      <c r="W19" s="282"/>
-      <c r="X19" s="282"/>
-      <c r="Y19" s="282"/>
-      <c r="Z19" s="282"/>
-      <c r="AA19" s="282"/>
-      <c r="AB19" s="282"/>
-      <c r="AC19" s="282"/>
-      <c r="AD19" s="282"/>
+      <c r="G19" s="266"/>
+      <c r="H19" s="266"/>
+      <c r="I19" s="266"/>
+      <c r="J19" s="266"/>
+      <c r="K19" s="266"/>
+      <c r="L19" s="266"/>
+      <c r="M19" s="266"/>
+      <c r="N19" s="266"/>
+      <c r="O19" s="264"/>
+      <c r="P19" s="265"/>
+      <c r="Q19" s="265"/>
+      <c r="R19" s="265"/>
+      <c r="S19" s="265"/>
+      <c r="T19" s="265"/>
+      <c r="U19" s="265"/>
+      <c r="V19" s="265"/>
+      <c r="W19" s="265"/>
+      <c r="X19" s="265"/>
+      <c r="Y19" s="265"/>
+      <c r="Z19" s="265"/>
+      <c r="AA19" s="265"/>
+      <c r="AB19" s="265"/>
+      <c r="AC19" s="265"/>
+      <c r="AD19" s="265"/>
       <c r="AE19" s="157"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -10703,15 +10718,14 @@
     <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="O19:AD19"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="H12:AH12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AC3:AF3"/>
@@ -10728,14 +10742,15 @@
     <mergeCell ref="H11:AH11"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="O19:AD19"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="H12:AH12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10764,178 +10779,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="272" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="240" t="str">
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="241"/>
-      <c r="K1" s="241"/>
-      <c r="L1" s="241"/>
-      <c r="M1" s="241"/>
-      <c r="N1" s="242"/>
-      <c r="O1" s="261" t="s">
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="275" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="262"/>
-      <c r="Q1" s="262"/>
-      <c r="R1" s="263"/>
-      <c r="S1" s="249" t="str">
+      <c r="P1" s="276"/>
+      <c r="Q1" s="276"/>
+      <c r="R1" s="277"/>
+      <c r="S1" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="250"/>
-      <c r="U1" s="250"/>
-      <c r="V1" s="250"/>
-      <c r="W1" s="250"/>
-      <c r="X1" s="250"/>
-      <c r="Y1" s="250"/>
-      <c r="Z1" s="251"/>
-      <c r="AA1" s="258" t="s">
+      <c r="T1" s="238"/>
+      <c r="U1" s="238"/>
+      <c r="V1" s="238"/>
+      <c r="W1" s="238"/>
+      <c r="X1" s="238"/>
+      <c r="Y1" s="238"/>
+      <c r="Z1" s="239"/>
+      <c r="AA1" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="260"/>
-      <c r="AC1" s="243" t="str">
+      <c r="AB1" s="274"/>
+      <c r="AC1" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="244"/>
-      <c r="AE1" s="244"/>
-      <c r="AF1" s="245"/>
-      <c r="AG1" s="271">
+      <c r="AD1" s="229"/>
+      <c r="AE1" s="229"/>
+      <c r="AF1" s="230"/>
+      <c r="AG1" s="268">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="272"/>
-      <c r="AI1" s="273"/>
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="270"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="272" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="259"/>
-      <c r="C2" s="259"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="240" t="str">
+      <c r="B2" s="273"/>
+      <c r="C2" s="273"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="241"/>
-      <c r="G2" s="241"/>
-      <c r="H2" s="241"/>
-      <c r="I2" s="241"/>
-      <c r="J2" s="241"/>
-      <c r="K2" s="241"/>
-      <c r="L2" s="241"/>
-      <c r="M2" s="241"/>
-      <c r="N2" s="242"/>
-      <c r="O2" s="264"/>
-      <c r="P2" s="265"/>
-      <c r="Q2" s="265"/>
-      <c r="R2" s="266"/>
-      <c r="S2" s="252"/>
-      <c r="T2" s="253"/>
-      <c r="U2" s="253"/>
-      <c r="V2" s="253"/>
-      <c r="W2" s="253"/>
-      <c r="X2" s="253"/>
-      <c r="Y2" s="253"/>
-      <c r="Z2" s="254"/>
-      <c r="AA2" s="258" t="s">
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="236"/>
+      <c r="O2" s="278"/>
+      <c r="P2" s="279"/>
+      <c r="Q2" s="279"/>
+      <c r="R2" s="280"/>
+      <c r="S2" s="240"/>
+      <c r="T2" s="241"/>
+      <c r="U2" s="241"/>
+      <c r="V2" s="241"/>
+      <c r="W2" s="241"/>
+      <c r="X2" s="241"/>
+      <c r="Y2" s="241"/>
+      <c r="Z2" s="242"/>
+      <c r="AA2" s="272" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="260"/>
-      <c r="AC2" s="243" t="str">
+      <c r="AB2" s="274"/>
+      <c r="AC2" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="244"/>
-      <c r="AE2" s="244"/>
-      <c r="AF2" s="245"/>
-      <c r="AG2" s="271" t="str">
+      <c r="AD2" s="229"/>
+      <c r="AE2" s="229"/>
+      <c r="AF2" s="230"/>
+      <c r="AG2" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="272"/>
-      <c r="AI2" s="273"/>
+      <c r="AH2" s="269"/>
+      <c r="AI2" s="270"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="258" t="s">
+      <c r="A3" s="272" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="259"/>
-      <c r="C3" s="259"/>
-      <c r="D3" s="260"/>
-      <c r="E3" s="240" t="str">
+      <c r="B3" s="273"/>
+      <c r="C3" s="273"/>
+      <c r="D3" s="274"/>
+      <c r="E3" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="241"/>
-      <c r="G3" s="241"/>
-      <c r="H3" s="241"/>
-      <c r="I3" s="241"/>
-      <c r="J3" s="241"/>
-      <c r="K3" s="241"/>
-      <c r="L3" s="241"/>
-      <c r="M3" s="241"/>
-      <c r="N3" s="242"/>
-      <c r="O3" s="267"/>
-      <c r="P3" s="268"/>
-      <c r="Q3" s="268"/>
-      <c r="R3" s="269"/>
-      <c r="S3" s="255"/>
-      <c r="T3" s="256"/>
-      <c r="U3" s="256"/>
-      <c r="V3" s="256"/>
-      <c r="W3" s="256"/>
-      <c r="X3" s="256"/>
-      <c r="Y3" s="256"/>
-      <c r="Z3" s="257"/>
-      <c r="AA3" s="258"/>
-      <c r="AB3" s="260"/>
-      <c r="AC3" s="243" t="str">
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="236"/>
+      <c r="O3" s="281"/>
+      <c r="P3" s="282"/>
+      <c r="Q3" s="282"/>
+      <c r="R3" s="283"/>
+      <c r="S3" s="243"/>
+      <c r="T3" s="244"/>
+      <c r="U3" s="244"/>
+      <c r="V3" s="244"/>
+      <c r="W3" s="244"/>
+      <c r="X3" s="244"/>
+      <c r="Y3" s="244"/>
+      <c r="Z3" s="245"/>
+      <c r="AA3" s="272"/>
+      <c r="AB3" s="274"/>
+      <c r="AC3" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="244"/>
-      <c r="AE3" s="244"/>
-      <c r="AF3" s="245"/>
-      <c r="AG3" s="271" t="str">
+      <c r="AD3" s="229"/>
+      <c r="AE3" s="229"/>
+      <c r="AF3" s="230"/>
+      <c r="AG3" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="272"/>
-      <c r="AI3" s="273"/>
+      <c r="AH3" s="269"/>
+      <c r="AI3" s="270"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="I14" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -10947,6 +10956,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10976,163 +10991,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="272" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="240" t="str">
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="241"/>
-      <c r="K1" s="241"/>
-      <c r="L1" s="241"/>
-      <c r="M1" s="241"/>
-      <c r="N1" s="242"/>
-      <c r="O1" s="261" t="s">
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="275" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="262"/>
-      <c r="Q1" s="262"/>
-      <c r="R1" s="263"/>
-      <c r="S1" s="249" t="str">
+      <c r="P1" s="276"/>
+      <c r="Q1" s="276"/>
+      <c r="R1" s="277"/>
+      <c r="S1" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="250"/>
-      <c r="U1" s="250"/>
-      <c r="V1" s="250"/>
-      <c r="W1" s="250"/>
-      <c r="X1" s="250"/>
-      <c r="Y1" s="250"/>
-      <c r="Z1" s="251"/>
-      <c r="AA1" s="258" t="s">
+      <c r="T1" s="238"/>
+      <c r="U1" s="238"/>
+      <c r="V1" s="238"/>
+      <c r="W1" s="238"/>
+      <c r="X1" s="238"/>
+      <c r="Y1" s="238"/>
+      <c r="Z1" s="239"/>
+      <c r="AA1" s="272" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="260"/>
-      <c r="AC1" s="243" t="str">
+      <c r="AB1" s="274"/>
+      <c r="AC1" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="244"/>
-      <c r="AE1" s="244"/>
-      <c r="AF1" s="245"/>
-      <c r="AG1" s="271">
+      <c r="AD1" s="229"/>
+      <c r="AE1" s="229"/>
+      <c r="AF1" s="230"/>
+      <c r="AG1" s="268">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="272"/>
-      <c r="AI1" s="273"/>
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="270"/>
       <c r="AJ1" s="35"/>
       <c r="AK1" s="35"/>
       <c r="AL1" s="36"/>
     </row>
     <row r="2" spans="1:38" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="272" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="259"/>
-      <c r="C2" s="259"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="240" t="str">
+      <c r="B2" s="273"/>
+      <c r="C2" s="273"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="241"/>
-      <c r="G2" s="241"/>
-      <c r="H2" s="241"/>
-      <c r="I2" s="241"/>
-      <c r="J2" s="241"/>
-      <c r="K2" s="241"/>
-      <c r="L2" s="241"/>
-      <c r="M2" s="241"/>
-      <c r="N2" s="242"/>
-      <c r="O2" s="264"/>
-      <c r="P2" s="265"/>
-      <c r="Q2" s="265"/>
-      <c r="R2" s="266"/>
-      <c r="S2" s="252"/>
-      <c r="T2" s="253"/>
-      <c r="U2" s="253"/>
-      <c r="V2" s="253"/>
-      <c r="W2" s="253"/>
-      <c r="X2" s="253"/>
-      <c r="Y2" s="253"/>
-      <c r="Z2" s="254"/>
-      <c r="AA2" s="258" t="s">
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="236"/>
+      <c r="O2" s="278"/>
+      <c r="P2" s="279"/>
+      <c r="Q2" s="279"/>
+      <c r="R2" s="280"/>
+      <c r="S2" s="240"/>
+      <c r="T2" s="241"/>
+      <c r="U2" s="241"/>
+      <c r="V2" s="241"/>
+      <c r="W2" s="241"/>
+      <c r="X2" s="241"/>
+      <c r="Y2" s="241"/>
+      <c r="Z2" s="242"/>
+      <c r="AA2" s="272" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="260"/>
-      <c r="AC2" s="243" t="str">
+      <c r="AB2" s="274"/>
+      <c r="AC2" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="244"/>
-      <c r="AE2" s="244"/>
-      <c r="AF2" s="245"/>
-      <c r="AG2" s="271" t="str">
+      <c r="AD2" s="229"/>
+      <c r="AE2" s="229"/>
+      <c r="AF2" s="230"/>
+      <c r="AG2" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="272"/>
-      <c r="AI2" s="273"/>
+      <c r="AH2" s="269"/>
+      <c r="AI2" s="270"/>
       <c r="AJ2" s="35"/>
       <c r="AK2" s="35"/>
       <c r="AL2" s="35"/>
     </row>
     <row r="3" spans="1:38" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="258" t="s">
+      <c r="A3" s="272" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="259"/>
-      <c r="C3" s="259"/>
-      <c r="D3" s="260"/>
-      <c r="E3" s="240" t="str">
+      <c r="B3" s="273"/>
+      <c r="C3" s="273"/>
+      <c r="D3" s="274"/>
+      <c r="E3" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="241"/>
-      <c r="G3" s="241"/>
-      <c r="H3" s="241"/>
-      <c r="I3" s="241"/>
-      <c r="J3" s="241"/>
-      <c r="K3" s="241"/>
-      <c r="L3" s="241"/>
-      <c r="M3" s="241"/>
-      <c r="N3" s="242"/>
-      <c r="O3" s="267"/>
-      <c r="P3" s="268"/>
-      <c r="Q3" s="268"/>
-      <c r="R3" s="269"/>
-      <c r="S3" s="255"/>
-      <c r="T3" s="256"/>
-      <c r="U3" s="256"/>
-      <c r="V3" s="256"/>
-      <c r="W3" s="256"/>
-      <c r="X3" s="256"/>
-      <c r="Y3" s="256"/>
-      <c r="Z3" s="257"/>
-      <c r="AA3" s="258"/>
-      <c r="AB3" s="260"/>
-      <c r="AC3" s="243" t="str">
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="236"/>
+      <c r="O3" s="281"/>
+      <c r="P3" s="282"/>
+      <c r="Q3" s="282"/>
+      <c r="R3" s="283"/>
+      <c r="S3" s="243"/>
+      <c r="T3" s="244"/>
+      <c r="U3" s="244"/>
+      <c r="V3" s="244"/>
+      <c r="W3" s="244"/>
+      <c r="X3" s="244"/>
+      <c r="Y3" s="244"/>
+      <c r="Z3" s="245"/>
+      <c r="AA3" s="272"/>
+      <c r="AB3" s="274"/>
+      <c r="AC3" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="244"/>
-      <c r="AE3" s="244"/>
-      <c r="AF3" s="245"/>
-      <c r="AG3" s="271" t="str">
+      <c r="AD3" s="229"/>
+      <c r="AE3" s="229"/>
+      <c r="AF3" s="230"/>
+      <c r="AG3" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="272"/>
-      <c r="AI3" s="273"/>
+      <c r="AH3" s="269"/>
+      <c r="AI3" s="270"/>
       <c r="AJ3" s="35"/>
       <c r="AK3" s="35"/>
       <c r="AL3" s="35"/>
@@ -11250,65 +11265,65 @@
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
-      <c r="D8" s="303" t="s">
+      <c r="D8" s="349" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="305" t="s">
+      <c r="E8" s="351" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="306"/>
-      <c r="G8" s="306"/>
-      <c r="H8" s="306"/>
-      <c r="I8" s="306"/>
-      <c r="J8" s="307"/>
-      <c r="K8" s="305" t="s">
+      <c r="F8" s="352"/>
+      <c r="G8" s="352"/>
+      <c r="H8" s="352"/>
+      <c r="I8" s="352"/>
+      <c r="J8" s="353"/>
+      <c r="K8" s="351" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="306"/>
-      <c r="M8" s="306"/>
-      <c r="N8" s="307"/>
-      <c r="O8" s="311" t="s">
+      <c r="L8" s="352"/>
+      <c r="M8" s="352"/>
+      <c r="N8" s="353"/>
+      <c r="O8" s="357" t="s">
         <v>51</v>
       </c>
-      <c r="P8" s="316" t="s">
+      <c r="P8" s="362" t="s">
         <v>52</v>
       </c>
-      <c r="Q8" s="317"/>
-      <c r="R8" s="317"/>
-      <c r="S8" s="317"/>
-      <c r="T8" s="317"/>
-      <c r="U8" s="318"/>
-      <c r="V8" s="313" t="s">
+      <c r="Q8" s="363"/>
+      <c r="R8" s="363"/>
+      <c r="S8" s="363"/>
+      <c r="T8" s="363"/>
+      <c r="U8" s="364"/>
+      <c r="V8" s="359" t="s">
         <v>53</v>
       </c>
-      <c r="W8" s="313"/>
-      <c r="X8" s="313"/>
-      <c r="Y8" s="313"/>
-      <c r="Z8" s="313"/>
-      <c r="AA8" s="313"/>
-      <c r="AB8" s="313"/>
-      <c r="AC8" s="313"/>
-      <c r="AD8" s="313"/>
-      <c r="AE8" s="313"/>
-      <c r="AF8" s="313"/>
-      <c r="AG8" s="313"/>
-      <c r="AH8" s="313"/>
+      <c r="W8" s="359"/>
+      <c r="X8" s="359"/>
+      <c r="Y8" s="359"/>
+      <c r="Z8" s="359"/>
+      <c r="AA8" s="359"/>
+      <c r="AB8" s="359"/>
+      <c r="AC8" s="359"/>
+      <c r="AD8" s="359"/>
+      <c r="AE8" s="359"/>
+      <c r="AF8" s="359"/>
+      <c r="AG8" s="359"/>
+      <c r="AH8" s="359"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
-      <c r="D9" s="304"/>
-      <c r="E9" s="308"/>
-      <c r="F9" s="309"/>
-      <c r="G9" s="309"/>
-      <c r="H9" s="309"/>
-      <c r="I9" s="309"/>
-      <c r="J9" s="310"/>
-      <c r="K9" s="308"/>
-      <c r="L9" s="309"/>
-      <c r="M9" s="309"/>
-      <c r="N9" s="310"/>
-      <c r="O9" s="312"/>
+      <c r="D9" s="350"/>
+      <c r="E9" s="354"/>
+      <c r="F9" s="355"/>
+      <c r="G9" s="355"/>
+      <c r="H9" s="355"/>
+      <c r="I9" s="355"/>
+      <c r="J9" s="356"/>
+      <c r="K9" s="354"/>
+      <c r="L9" s="355"/>
+      <c r="M9" s="355"/>
+      <c r="N9" s="356"/>
+      <c r="O9" s="358"/>
       <c r="P9" s="41" t="s">
         <v>54</v>
       </c>
@@ -11321,23 +11336,23 @@
       <c r="S9" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="T9" s="314" t="s">
+      <c r="T9" s="360" t="s">
         <v>58</v>
       </c>
-      <c r="U9" s="315"/>
-      <c r="V9" s="313"/>
-      <c r="W9" s="313"/>
-      <c r="X9" s="313"/>
-      <c r="Y9" s="313"/>
-      <c r="Z9" s="313"/>
-      <c r="AA9" s="313"/>
-      <c r="AB9" s="313"/>
-      <c r="AC9" s="313"/>
-      <c r="AD9" s="313"/>
-      <c r="AE9" s="313"/>
-      <c r="AF9" s="313"/>
-      <c r="AG9" s="313"/>
-      <c r="AH9" s="313"/>
+      <c r="U9" s="361"/>
+      <c r="V9" s="359"/>
+      <c r="W9" s="359"/>
+      <c r="X9" s="359"/>
+      <c r="Y9" s="359"/>
+      <c r="Z9" s="359"/>
+      <c r="AA9" s="359"/>
+      <c r="AB9" s="359"/>
+      <c r="AC9" s="359"/>
+      <c r="AD9" s="359"/>
+      <c r="AE9" s="359"/>
+      <c r="AF9" s="359"/>
+      <c r="AG9" s="359"/>
+      <c r="AH9" s="359"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B10" s="39"/>
@@ -11345,20 +11360,20 @@
       <c r="D10" s="42">
         <v>1</v>
       </c>
-      <c r="E10" s="292" t="s">
+      <c r="E10" s="294" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="293"/>
-      <c r="G10" s="293"/>
-      <c r="H10" s="293"/>
-      <c r="I10" s="293"/>
-      <c r="J10" s="294"/>
-      <c r="K10" s="292" t="s">
+      <c r="F10" s="295"/>
+      <c r="G10" s="295"/>
+      <c r="H10" s="295"/>
+      <c r="I10" s="295"/>
+      <c r="J10" s="296"/>
+      <c r="K10" s="294" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="293"/>
-      <c r="M10" s="293"/>
-      <c r="N10" s="294"/>
+      <c r="L10" s="295"/>
+      <c r="M10" s="295"/>
+      <c r="N10" s="296"/>
       <c r="O10" s="43" t="s">
         <v>61</v>
       </c>
@@ -11374,23 +11389,23 @@
       <c r="S10" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="T10" s="287" t="s">
+      <c r="T10" s="298" t="s">
         <v>62</v>
       </c>
-      <c r="U10" s="288"/>
-      <c r="V10" s="292"/>
-      <c r="W10" s="293"/>
-      <c r="X10" s="293"/>
-      <c r="Y10" s="293"/>
-      <c r="Z10" s="293"/>
-      <c r="AA10" s="293"/>
-      <c r="AB10" s="293"/>
-      <c r="AC10" s="293"/>
-      <c r="AD10" s="293"/>
-      <c r="AE10" s="293"/>
-      <c r="AF10" s="293"/>
-      <c r="AG10" s="293"/>
-      <c r="AH10" s="294"/>
+      <c r="U10" s="299"/>
+      <c r="V10" s="294"/>
+      <c r="W10" s="295"/>
+      <c r="X10" s="295"/>
+      <c r="Y10" s="295"/>
+      <c r="Z10" s="295"/>
+      <c r="AA10" s="295"/>
+      <c r="AB10" s="295"/>
+      <c r="AC10" s="295"/>
+      <c r="AD10" s="295"/>
+      <c r="AE10" s="295"/>
+      <c r="AF10" s="295"/>
+      <c r="AG10" s="295"/>
+      <c r="AH10" s="296"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B11" s="39"/>
@@ -11398,20 +11413,20 @@
       <c r="D11" s="42">
         <v>2</v>
       </c>
-      <c r="E11" s="292" t="s">
+      <c r="E11" s="294" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="293"/>
-      <c r="G11" s="293"/>
-      <c r="H11" s="293"/>
-      <c r="I11" s="293"/>
-      <c r="J11" s="294"/>
-      <c r="K11" s="292" t="s">
+      <c r="F11" s="295"/>
+      <c r="G11" s="295"/>
+      <c r="H11" s="295"/>
+      <c r="I11" s="295"/>
+      <c r="J11" s="296"/>
+      <c r="K11" s="294" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="293"/>
-      <c r="M11" s="293"/>
-      <c r="N11" s="294"/>
+      <c r="L11" s="295"/>
+      <c r="M11" s="295"/>
+      <c r="N11" s="296"/>
       <c r="O11" s="45" t="s">
         <v>61</v>
       </c>
@@ -11427,23 +11442,23 @@
       <c r="S11" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="T11" s="287" t="s">
+      <c r="T11" s="298" t="s">
         <v>62</v>
       </c>
-      <c r="U11" s="288"/>
-      <c r="V11" s="292"/>
-      <c r="W11" s="293"/>
-      <c r="X11" s="293"/>
-      <c r="Y11" s="293"/>
-      <c r="Z11" s="293"/>
-      <c r="AA11" s="293"/>
-      <c r="AB11" s="293"/>
-      <c r="AC11" s="293"/>
-      <c r="AD11" s="293"/>
-      <c r="AE11" s="293"/>
-      <c r="AF11" s="293"/>
-      <c r="AG11" s="293"/>
-      <c r="AH11" s="294"/>
+      <c r="U11" s="299"/>
+      <c r="V11" s="294"/>
+      <c r="W11" s="295"/>
+      <c r="X11" s="295"/>
+      <c r="Y11" s="295"/>
+      <c r="Z11" s="295"/>
+      <c r="AA11" s="295"/>
+      <c r="AB11" s="295"/>
+      <c r="AC11" s="295"/>
+      <c r="AD11" s="295"/>
+      <c r="AE11" s="295"/>
+      <c r="AF11" s="295"/>
+      <c r="AG11" s="295"/>
+      <c r="AH11" s="296"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B12" s="39"/>
@@ -11451,20 +11466,20 @@
       <c r="D12" s="42">
         <v>3</v>
       </c>
-      <c r="E12" s="292" t="s">
+      <c r="E12" s="294" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="293"/>
-      <c r="G12" s="293"/>
-      <c r="H12" s="293"/>
-      <c r="I12" s="293"/>
-      <c r="J12" s="294"/>
-      <c r="K12" s="292" t="s">
+      <c r="F12" s="295"/>
+      <c r="G12" s="295"/>
+      <c r="H12" s="295"/>
+      <c r="I12" s="295"/>
+      <c r="J12" s="296"/>
+      <c r="K12" s="294" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="293"/>
-      <c r="M12" s="293"/>
-      <c r="N12" s="294"/>
+      <c r="L12" s="295"/>
+      <c r="M12" s="295"/>
+      <c r="N12" s="296"/>
       <c r="O12" s="45" t="s">
         <v>67</v>
       </c>
@@ -11480,23 +11495,23 @@
       <c r="S12" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="T12" s="287" t="s">
+      <c r="T12" s="298" t="s">
         <v>62</v>
       </c>
-      <c r="U12" s="288"/>
-      <c r="V12" s="292"/>
-      <c r="W12" s="293"/>
-      <c r="X12" s="293"/>
-      <c r="Y12" s="293"/>
-      <c r="Z12" s="293"/>
-      <c r="AA12" s="293"/>
-      <c r="AB12" s="293"/>
-      <c r="AC12" s="293"/>
-      <c r="AD12" s="293"/>
-      <c r="AE12" s="293"/>
-      <c r="AF12" s="293"/>
-      <c r="AG12" s="293"/>
-      <c r="AH12" s="294"/>
+      <c r="U12" s="299"/>
+      <c r="V12" s="294"/>
+      <c r="W12" s="295"/>
+      <c r="X12" s="295"/>
+      <c r="Y12" s="295"/>
+      <c r="Z12" s="295"/>
+      <c r="AA12" s="295"/>
+      <c r="AB12" s="295"/>
+      <c r="AC12" s="295"/>
+      <c r="AD12" s="295"/>
+      <c r="AE12" s="295"/>
+      <c r="AF12" s="295"/>
+      <c r="AG12" s="295"/>
+      <c r="AH12" s="296"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B13" s="39"/>
@@ -11646,40 +11661,40 @@
       <c r="D17" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="375" t="s">
+      <c r="E17" s="323" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="376"/>
-      <c r="G17" s="377"/>
-      <c r="H17" s="289" t="s">
+      <c r="F17" s="324"/>
+      <c r="G17" s="325"/>
+      <c r="H17" s="375" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="290"/>
-      <c r="J17" s="290"/>
-      <c r="K17" s="290"/>
-      <c r="L17" s="290"/>
-      <c r="M17" s="290"/>
-      <c r="N17" s="290"/>
-      <c r="O17" s="290"/>
-      <c r="P17" s="290"/>
-      <c r="Q17" s="290"/>
-      <c r="R17" s="290"/>
-      <c r="S17" s="290"/>
-      <c r="T17" s="290"/>
-      <c r="U17" s="290"/>
-      <c r="V17" s="290"/>
-      <c r="W17" s="290"/>
-      <c r="X17" s="290"/>
-      <c r="Y17" s="290"/>
-      <c r="Z17" s="290"/>
-      <c r="AA17" s="290"/>
-      <c r="AB17" s="290"/>
-      <c r="AC17" s="290"/>
-      <c r="AD17" s="290"/>
-      <c r="AE17" s="290"/>
-      <c r="AF17" s="290"/>
-      <c r="AG17" s="290"/>
-      <c r="AH17" s="291"/>
+      <c r="I17" s="376"/>
+      <c r="J17" s="376"/>
+      <c r="K17" s="376"/>
+      <c r="L17" s="376"/>
+      <c r="M17" s="376"/>
+      <c r="N17" s="376"/>
+      <c r="O17" s="376"/>
+      <c r="P17" s="376"/>
+      <c r="Q17" s="376"/>
+      <c r="R17" s="376"/>
+      <c r="S17" s="376"/>
+      <c r="T17" s="376"/>
+      <c r="U17" s="376"/>
+      <c r="V17" s="376"/>
+      <c r="W17" s="376"/>
+      <c r="X17" s="376"/>
+      <c r="Y17" s="376"/>
+      <c r="Z17" s="376"/>
+      <c r="AA17" s="376"/>
+      <c r="AB17" s="376"/>
+      <c r="AC17" s="376"/>
+      <c r="AD17" s="376"/>
+      <c r="AE17" s="376"/>
+      <c r="AF17" s="376"/>
+      <c r="AG17" s="376"/>
+      <c r="AH17" s="377"/>
     </row>
     <row r="18" spans="1:35" s="52" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="39"/>
@@ -11687,40 +11702,40 @@
       <c r="D18" s="42">
         <v>1</v>
       </c>
-      <c r="E18" s="292" t="s">
+      <c r="E18" s="294" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="293"/>
-      <c r="G18" s="294"/>
-      <c r="H18" s="292" t="s">
+      <c r="F18" s="295"/>
+      <c r="G18" s="296"/>
+      <c r="H18" s="294" t="s">
         <v>72</v>
       </c>
-      <c r="I18" s="293"/>
-      <c r="J18" s="293"/>
-      <c r="K18" s="293"/>
-      <c r="L18" s="293"/>
-      <c r="M18" s="293"/>
-      <c r="N18" s="293"/>
-      <c r="O18" s="293"/>
-      <c r="P18" s="293"/>
-      <c r="Q18" s="293"/>
-      <c r="R18" s="293"/>
-      <c r="S18" s="293"/>
-      <c r="T18" s="293"/>
-      <c r="U18" s="293"/>
-      <c r="V18" s="293"/>
-      <c r="W18" s="293"/>
-      <c r="X18" s="293"/>
-      <c r="Y18" s="293"/>
-      <c r="Z18" s="293"/>
-      <c r="AA18" s="293"/>
-      <c r="AB18" s="293"/>
-      <c r="AC18" s="293"/>
-      <c r="AD18" s="293"/>
-      <c r="AE18" s="293"/>
-      <c r="AF18" s="293"/>
-      <c r="AG18" s="293"/>
-      <c r="AH18" s="294"/>
+      <c r="I18" s="295"/>
+      <c r="J18" s="295"/>
+      <c r="K18" s="295"/>
+      <c r="L18" s="295"/>
+      <c r="M18" s="295"/>
+      <c r="N18" s="295"/>
+      <c r="O18" s="295"/>
+      <c r="P18" s="295"/>
+      <c r="Q18" s="295"/>
+      <c r="R18" s="295"/>
+      <c r="S18" s="295"/>
+      <c r="T18" s="295"/>
+      <c r="U18" s="295"/>
+      <c r="V18" s="295"/>
+      <c r="W18" s="295"/>
+      <c r="X18" s="295"/>
+      <c r="Y18" s="295"/>
+      <c r="Z18" s="295"/>
+      <c r="AA18" s="295"/>
+      <c r="AB18" s="295"/>
+      <c r="AC18" s="295"/>
+      <c r="AD18" s="295"/>
+      <c r="AE18" s="295"/>
+      <c r="AF18" s="295"/>
+      <c r="AG18" s="295"/>
+      <c r="AH18" s="296"/>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="54"/>
@@ -11728,40 +11743,40 @@
       <c r="D19" s="42">
         <v>2</v>
       </c>
-      <c r="E19" s="292" t="s">
+      <c r="E19" s="294" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="293"/>
-      <c r="G19" s="294"/>
-      <c r="H19" s="292" t="s">
+      <c r="F19" s="295"/>
+      <c r="G19" s="296"/>
+      <c r="H19" s="294" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="293"/>
-      <c r="J19" s="293"/>
-      <c r="K19" s="293"/>
-      <c r="L19" s="293"/>
-      <c r="M19" s="293"/>
-      <c r="N19" s="293"/>
-      <c r="O19" s="293"/>
-      <c r="P19" s="293"/>
-      <c r="Q19" s="293"/>
-      <c r="R19" s="293"/>
-      <c r="S19" s="293"/>
-      <c r="T19" s="293"/>
-      <c r="U19" s="293"/>
-      <c r="V19" s="293"/>
-      <c r="W19" s="293"/>
-      <c r="X19" s="293"/>
-      <c r="Y19" s="293"/>
-      <c r="Z19" s="293"/>
-      <c r="AA19" s="293"/>
-      <c r="AB19" s="293"/>
-      <c r="AC19" s="293"/>
-      <c r="AD19" s="293"/>
-      <c r="AE19" s="293"/>
-      <c r="AF19" s="293"/>
-      <c r="AG19" s="293"/>
-      <c r="AH19" s="294"/>
+      <c r="I19" s="295"/>
+      <c r="J19" s="295"/>
+      <c r="K19" s="295"/>
+      <c r="L19" s="295"/>
+      <c r="M19" s="295"/>
+      <c r="N19" s="295"/>
+      <c r="O19" s="295"/>
+      <c r="P19" s="295"/>
+      <c r="Q19" s="295"/>
+      <c r="R19" s="295"/>
+      <c r="S19" s="295"/>
+      <c r="T19" s="295"/>
+      <c r="U19" s="295"/>
+      <c r="V19" s="295"/>
+      <c r="W19" s="295"/>
+      <c r="X19" s="295"/>
+      <c r="Y19" s="295"/>
+      <c r="Z19" s="295"/>
+      <c r="AA19" s="295"/>
+      <c r="AB19" s="295"/>
+      <c r="AC19" s="295"/>
+      <c r="AD19" s="295"/>
+      <c r="AE19" s="295"/>
+      <c r="AF19" s="295"/>
+      <c r="AG19" s="295"/>
+      <c r="AH19" s="296"/>
     </row>
     <row r="20" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="54"/>
@@ -11769,40 +11784,40 @@
       <c r="D20" s="42">
         <v>3</v>
       </c>
-      <c r="E20" s="292" t="s">
+      <c r="E20" s="294" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="293"/>
-      <c r="G20" s="294"/>
-      <c r="H20" s="292" t="s">
+      <c r="F20" s="295"/>
+      <c r="G20" s="296"/>
+      <c r="H20" s="294" t="s">
         <v>75</v>
       </c>
-      <c r="I20" s="293"/>
-      <c r="J20" s="293"/>
-      <c r="K20" s="293"/>
-      <c r="L20" s="293"/>
-      <c r="M20" s="293"/>
-      <c r="N20" s="293"/>
-      <c r="O20" s="293"/>
-      <c r="P20" s="293"/>
-      <c r="Q20" s="293"/>
-      <c r="R20" s="293"/>
-      <c r="S20" s="293"/>
-      <c r="T20" s="293"/>
-      <c r="U20" s="293"/>
-      <c r="V20" s="293"/>
-      <c r="W20" s="293"/>
-      <c r="X20" s="293"/>
-      <c r="Y20" s="293"/>
-      <c r="Z20" s="293"/>
-      <c r="AA20" s="293"/>
-      <c r="AB20" s="293"/>
-      <c r="AC20" s="293"/>
-      <c r="AD20" s="293"/>
-      <c r="AE20" s="293"/>
-      <c r="AF20" s="293"/>
-      <c r="AG20" s="293"/>
-      <c r="AH20" s="294"/>
+      <c r="I20" s="295"/>
+      <c r="J20" s="295"/>
+      <c r="K20" s="295"/>
+      <c r="L20" s="295"/>
+      <c r="M20" s="295"/>
+      <c r="N20" s="295"/>
+      <c r="O20" s="295"/>
+      <c r="P20" s="295"/>
+      <c r="Q20" s="295"/>
+      <c r="R20" s="295"/>
+      <c r="S20" s="295"/>
+      <c r="T20" s="295"/>
+      <c r="U20" s="295"/>
+      <c r="V20" s="295"/>
+      <c r="W20" s="295"/>
+      <c r="X20" s="295"/>
+      <c r="Y20" s="295"/>
+      <c r="Z20" s="295"/>
+      <c r="AA20" s="295"/>
+      <c r="AB20" s="295"/>
+      <c r="AC20" s="295"/>
+      <c r="AD20" s="295"/>
+      <c r="AE20" s="295"/>
+      <c r="AF20" s="295"/>
+      <c r="AG20" s="295"/>
+      <c r="AH20" s="296"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B21" s="55"/>
@@ -12010,7 +12025,7 @@
       <c r="T26" s="64"/>
       <c r="U26" s="65"/>
       <c r="V26" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="W26" s="63" t="s">
         <v>80</v>
@@ -12313,43 +12328,43 @@
       <c r="E36" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="319" t="s">
+      <c r="F36" s="326" t="s">
         <v>87</v>
       </c>
-      <c r="G36" s="320"/>
-      <c r="H36" s="320"/>
-      <c r="I36" s="320"/>
-      <c r="J36" s="320"/>
-      <c r="K36" s="321"/>
-      <c r="L36" s="319" t="s">
+      <c r="G36" s="327"/>
+      <c r="H36" s="327"/>
+      <c r="I36" s="327"/>
+      <c r="J36" s="327"/>
+      <c r="K36" s="328"/>
+      <c r="L36" s="326" t="s">
         <v>88</v>
       </c>
-      <c r="M36" s="320"/>
-      <c r="N36" s="320"/>
-      <c r="O36" s="320"/>
-      <c r="P36" s="320"/>
-      <c r="Q36" s="320"/>
-      <c r="R36" s="320"/>
-      <c r="S36" s="320"/>
-      <c r="T36" s="320"/>
-      <c r="U36" s="321"/>
-      <c r="V36" s="322" t="s">
+      <c r="M36" s="327"/>
+      <c r="N36" s="327"/>
+      <c r="O36" s="327"/>
+      <c r="P36" s="327"/>
+      <c r="Q36" s="327"/>
+      <c r="R36" s="327"/>
+      <c r="S36" s="327"/>
+      <c r="T36" s="327"/>
+      <c r="U36" s="328"/>
+      <c r="V36" s="290" t="s">
         <v>89</v>
       </c>
-      <c r="W36" s="323"/>
-      <c r="X36" s="324"/>
-      <c r="Y36" s="322" t="s">
+      <c r="W36" s="291"/>
+      <c r="X36" s="292"/>
+      <c r="Y36" s="290" t="s">
         <v>90</v>
       </c>
-      <c r="Z36" s="323"/>
-      <c r="AA36" s="323"/>
-      <c r="AB36" s="324"/>
-      <c r="AC36" s="325" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD36" s="326"/>
-      <c r="AE36" s="326"/>
-      <c r="AF36" s="327"/>
+      <c r="Z36" s="291"/>
+      <c r="AA36" s="291"/>
+      <c r="AB36" s="292"/>
+      <c r="AC36" s="329" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD36" s="330"/>
+      <c r="AE36" s="330"/>
+      <c r="AF36" s="331"/>
       <c r="AG36" s="69"/>
       <c r="AH36" s="69"/>
       <c r="AI36" s="69"/>
@@ -12362,43 +12377,43 @@
       <c r="E37" s="85">
         <v>1</v>
       </c>
-      <c r="F37" s="335" t="s">
+      <c r="F37" s="284" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="336"/>
-      <c r="H37" s="336"/>
-      <c r="I37" s="336"/>
-      <c r="J37" s="336"/>
-      <c r="K37" s="337"/>
-      <c r="L37" s="335" t="s">
+      <c r="G37" s="285"/>
+      <c r="H37" s="285"/>
+      <c r="I37" s="285"/>
+      <c r="J37" s="285"/>
+      <c r="K37" s="286"/>
+      <c r="L37" s="284" t="s">
         <v>92</v>
       </c>
-      <c r="M37" s="336"/>
-      <c r="N37" s="336"/>
-      <c r="O37" s="336"/>
-      <c r="P37" s="336"/>
-      <c r="Q37" s="336"/>
-      <c r="R37" s="336"/>
-      <c r="S37" s="336"/>
-      <c r="T37" s="336"/>
-      <c r="U37" s="337"/>
-      <c r="V37" s="345" t="s">
+      <c r="M37" s="285"/>
+      <c r="N37" s="285"/>
+      <c r="O37" s="285"/>
+      <c r="P37" s="285"/>
+      <c r="Q37" s="285"/>
+      <c r="R37" s="285"/>
+      <c r="S37" s="285"/>
+      <c r="T37" s="285"/>
+      <c r="U37" s="286"/>
+      <c r="V37" s="343" t="s">
         <v>93</v>
       </c>
-      <c r="W37" s="346"/>
-      <c r="X37" s="347"/>
-      <c r="Y37" s="342" t="s">
+      <c r="W37" s="344"/>
+      <c r="X37" s="345"/>
+      <c r="Y37" s="340" t="s">
         <v>93</v>
       </c>
-      <c r="Z37" s="343"/>
-      <c r="AA37" s="343"/>
-      <c r="AB37" s="344"/>
-      <c r="AC37" s="335" t="s">
+      <c r="Z37" s="341"/>
+      <c r="AA37" s="341"/>
+      <c r="AB37" s="342"/>
+      <c r="AC37" s="284" t="s">
         <v>62</v>
       </c>
-      <c r="AD37" s="336"/>
-      <c r="AE37" s="336"/>
-      <c r="AF37" s="337"/>
+      <c r="AD37" s="285"/>
+      <c r="AE37" s="285"/>
+      <c r="AF37" s="286"/>
       <c r="AG37" s="69"/>
       <c r="AH37" s="69"/>
       <c r="AI37" s="69"/>
@@ -12461,79 +12476,79 @@
       <c r="A40" s="69"/>
       <c r="B40" s="69"/>
       <c r="C40" s="69"/>
-      <c r="E40" s="338" t="s">
+      <c r="E40" s="287" t="s">
         <v>69</v>
       </c>
-      <c r="F40" s="339"/>
-      <c r="G40" s="339"/>
-      <c r="H40" s="339"/>
-      <c r="I40" s="339"/>
-      <c r="J40" s="302" t="s">
+      <c r="F40" s="288"/>
+      <c r="G40" s="288"/>
+      <c r="H40" s="288"/>
+      <c r="I40" s="288"/>
+      <c r="J40" s="289" t="s">
         <v>95</v>
       </c>
-      <c r="K40" s="302"/>
-      <c r="L40" s="302"/>
-      <c r="M40" s="322" t="s">
+      <c r="K40" s="289"/>
+      <c r="L40" s="289"/>
+      <c r="M40" s="290" t="s">
         <v>89</v>
       </c>
-      <c r="N40" s="323"/>
-      <c r="O40" s="323"/>
-      <c r="P40" s="323"/>
-      <c r="Q40" s="323"/>
-      <c r="R40" s="323"/>
-      <c r="S40" s="324"/>
-      <c r="T40" s="322" t="s">
+      <c r="N40" s="291"/>
+      <c r="O40" s="291"/>
+      <c r="P40" s="291"/>
+      <c r="Q40" s="291"/>
+      <c r="R40" s="291"/>
+      <c r="S40" s="292"/>
+      <c r="T40" s="290" t="s">
         <v>90</v>
       </c>
-      <c r="U40" s="323"/>
-      <c r="V40" s="323"/>
-      <c r="W40" s="323"/>
-      <c r="X40" s="323"/>
-      <c r="Y40" s="323"/>
-      <c r="Z40" s="323"/>
-      <c r="AA40" s="323"/>
-      <c r="AB40" s="323"/>
-      <c r="AC40" s="323"/>
-      <c r="AD40" s="324"/>
+      <c r="U40" s="291"/>
+      <c r="V40" s="291"/>
+      <c r="W40" s="291"/>
+      <c r="X40" s="291"/>
+      <c r="Y40" s="291"/>
+      <c r="Z40" s="291"/>
+      <c r="AA40" s="291"/>
+      <c r="AB40" s="291"/>
+      <c r="AC40" s="291"/>
+      <c r="AD40" s="292"/>
     </row>
     <row r="41" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="69"/>
       <c r="B41" s="69"/>
       <c r="C41" s="69"/>
-      <c r="E41" s="335" t="s">
+      <c r="E41" s="284" t="s">
         <v>96</v>
       </c>
-      <c r="F41" s="336"/>
-      <c r="G41" s="336"/>
-      <c r="H41" s="336"/>
-      <c r="I41" s="336"/>
-      <c r="J41" s="351" t="s">
+      <c r="F41" s="285"/>
+      <c r="G41" s="285"/>
+      <c r="H41" s="285"/>
+      <c r="I41" s="285"/>
+      <c r="J41" s="293" t="s">
         <v>97</v>
       </c>
-      <c r="K41" s="351"/>
-      <c r="L41" s="351"/>
-      <c r="M41" s="335" t="s">
+      <c r="K41" s="293"/>
+      <c r="L41" s="293"/>
+      <c r="M41" s="284" t="s">
         <v>93</v>
       </c>
-      <c r="N41" s="336"/>
-      <c r="O41" s="336"/>
-      <c r="P41" s="336"/>
-      <c r="Q41" s="336"/>
-      <c r="R41" s="336"/>
-      <c r="S41" s="337"/>
-      <c r="T41" s="335" t="s">
+      <c r="N41" s="285"/>
+      <c r="O41" s="285"/>
+      <c r="P41" s="285"/>
+      <c r="Q41" s="285"/>
+      <c r="R41" s="285"/>
+      <c r="S41" s="286"/>
+      <c r="T41" s="284" t="s">
         <v>93</v>
       </c>
-      <c r="U41" s="336"/>
-      <c r="V41" s="336"/>
-      <c r="W41" s="336"/>
-      <c r="X41" s="336"/>
-      <c r="Y41" s="336"/>
-      <c r="Z41" s="336"/>
-      <c r="AA41" s="336"/>
-      <c r="AB41" s="336"/>
-      <c r="AC41" s="336"/>
-      <c r="AD41" s="337"/>
+      <c r="U41" s="285"/>
+      <c r="V41" s="285"/>
+      <c r="W41" s="285"/>
+      <c r="X41" s="285"/>
+      <c r="Y41" s="285"/>
+      <c r="Z41" s="285"/>
+      <c r="AA41" s="285"/>
+      <c r="AB41" s="285"/>
+      <c r="AC41" s="285"/>
+      <c r="AD41" s="286"/>
     </row>
     <row r="42" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="69"/>
@@ -12774,79 +12789,79 @@
       <c r="A49" s="69"/>
       <c r="B49" s="69"/>
       <c r="C49" s="69"/>
-      <c r="E49" s="338" t="s">
+      <c r="E49" s="287" t="s">
         <v>69</v>
       </c>
-      <c r="F49" s="339"/>
-      <c r="G49" s="339"/>
-      <c r="H49" s="339"/>
-      <c r="I49" s="339"/>
-      <c r="J49" s="302" t="s">
+      <c r="F49" s="288"/>
+      <c r="G49" s="288"/>
+      <c r="H49" s="288"/>
+      <c r="I49" s="288"/>
+      <c r="J49" s="289" t="s">
         <v>95</v>
       </c>
-      <c r="K49" s="302"/>
-      <c r="L49" s="302"/>
-      <c r="M49" s="322" t="s">
+      <c r="K49" s="289"/>
+      <c r="L49" s="289"/>
+      <c r="M49" s="290" t="s">
         <v>89</v>
       </c>
-      <c r="N49" s="323"/>
-      <c r="O49" s="323"/>
-      <c r="P49" s="323"/>
-      <c r="Q49" s="323"/>
-      <c r="R49" s="323"/>
-      <c r="S49" s="324"/>
-      <c r="T49" s="322" t="s">
+      <c r="N49" s="291"/>
+      <c r="O49" s="291"/>
+      <c r="P49" s="291"/>
+      <c r="Q49" s="291"/>
+      <c r="R49" s="291"/>
+      <c r="S49" s="292"/>
+      <c r="T49" s="290" t="s">
         <v>90</v>
       </c>
-      <c r="U49" s="323"/>
-      <c r="V49" s="323"/>
-      <c r="W49" s="323"/>
-      <c r="X49" s="323"/>
-      <c r="Y49" s="323"/>
-      <c r="Z49" s="323"/>
-      <c r="AA49" s="323"/>
-      <c r="AB49" s="323"/>
-      <c r="AC49" s="323"/>
-      <c r="AD49" s="324"/>
+      <c r="U49" s="291"/>
+      <c r="V49" s="291"/>
+      <c r="W49" s="291"/>
+      <c r="X49" s="291"/>
+      <c r="Y49" s="291"/>
+      <c r="Z49" s="291"/>
+      <c r="AA49" s="291"/>
+      <c r="AB49" s="291"/>
+      <c r="AC49" s="291"/>
+      <c r="AD49" s="292"/>
     </row>
     <row r="50" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="69"/>
       <c r="B50" s="69"/>
       <c r="C50" s="69"/>
-      <c r="E50" s="335" t="s">
+      <c r="E50" s="284" t="s">
         <v>96</v>
       </c>
-      <c r="F50" s="336"/>
-      <c r="G50" s="336"/>
-      <c r="H50" s="336"/>
-      <c r="I50" s="336"/>
-      <c r="J50" s="351" t="s">
+      <c r="F50" s="285"/>
+      <c r="G50" s="285"/>
+      <c r="H50" s="285"/>
+      <c r="I50" s="285"/>
+      <c r="J50" s="293" t="s">
         <v>101</v>
       </c>
-      <c r="K50" s="351"/>
-      <c r="L50" s="351"/>
-      <c r="M50" s="335" t="s">
+      <c r="K50" s="293"/>
+      <c r="L50" s="293"/>
+      <c r="M50" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="N50" s="336"/>
-      <c r="O50" s="336"/>
-      <c r="P50" s="336"/>
-      <c r="Q50" s="336"/>
-      <c r="R50" s="336"/>
-      <c r="S50" s="337"/>
-      <c r="T50" s="335" t="s">
+      <c r="N50" s="285"/>
+      <c r="O50" s="285"/>
+      <c r="P50" s="285"/>
+      <c r="Q50" s="285"/>
+      <c r="R50" s="285"/>
+      <c r="S50" s="286"/>
+      <c r="T50" s="284" t="s">
         <v>103</v>
       </c>
-      <c r="U50" s="336"/>
-      <c r="V50" s="336"/>
-      <c r="W50" s="336"/>
-      <c r="X50" s="336"/>
-      <c r="Y50" s="336"/>
-      <c r="Z50" s="336"/>
-      <c r="AA50" s="336"/>
-      <c r="AB50" s="336"/>
-      <c r="AC50" s="336"/>
-      <c r="AD50" s="337"/>
+      <c r="U50" s="285"/>
+      <c r="V50" s="285"/>
+      <c r="W50" s="285"/>
+      <c r="X50" s="285"/>
+      <c r="Y50" s="285"/>
+      <c r="Z50" s="285"/>
+      <c r="AA50" s="285"/>
+      <c r="AB50" s="285"/>
+      <c r="AC50" s="285"/>
+      <c r="AD50" s="286"/>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="69"/>
@@ -13003,30 +13018,30 @@
       <c r="B55" s="69"/>
       <c r="C55" s="69"/>
       <c r="D55" s="69"/>
-      <c r="E55" s="367" t="s">
+      <c r="E55" s="315" t="s">
         <v>105</v>
       </c>
-      <c r="F55" s="368"/>
-      <c r="G55" s="368"/>
-      <c r="H55" s="368"/>
-      <c r="I55" s="368"/>
-      <c r="J55" s="368"/>
-      <c r="K55" s="368"/>
-      <c r="L55" s="368"/>
-      <c r="M55" s="368"/>
-      <c r="N55" s="369"/>
-      <c r="O55" s="370" t="s">
+      <c r="F55" s="316"/>
+      <c r="G55" s="316"/>
+      <c r="H55" s="316"/>
+      <c r="I55" s="316"/>
+      <c r="J55" s="316"/>
+      <c r="K55" s="316"/>
+      <c r="L55" s="316"/>
+      <c r="M55" s="316"/>
+      <c r="N55" s="317"/>
+      <c r="O55" s="318" t="s">
         <v>106</v>
       </c>
-      <c r="P55" s="371"/>
-      <c r="Q55" s="371"/>
-      <c r="R55" s="371"/>
-      <c r="S55" s="371"/>
-      <c r="T55" s="371"/>
-      <c r="U55" s="371"/>
-      <c r="V55" s="371"/>
-      <c r="W55" s="371"/>
-      <c r="X55" s="372"/>
+      <c r="P55" s="319"/>
+      <c r="Q55" s="319"/>
+      <c r="R55" s="319"/>
+      <c r="S55" s="319"/>
+      <c r="T55" s="319"/>
+      <c r="U55" s="319"/>
+      <c r="V55" s="319"/>
+      <c r="W55" s="319"/>
+      <c r="X55" s="320"/>
       <c r="Y55" s="69"/>
       <c r="Z55" s="69"/>
       <c r="AA55" s="69"/>
@@ -13044,30 +13059,30 @@
       <c r="B56" s="69"/>
       <c r="C56" s="69"/>
       <c r="D56" s="69"/>
-      <c r="E56" s="355" t="s">
+      <c r="E56" s="303" t="s">
         <v>63</v>
       </c>
-      <c r="F56" s="356"/>
-      <c r="G56" s="356"/>
-      <c r="H56" s="356"/>
-      <c r="I56" s="356"/>
-      <c r="J56" s="356"/>
-      <c r="K56" s="356"/>
-      <c r="L56" s="356"/>
-      <c r="M56" s="356"/>
-      <c r="N56" s="357"/>
-      <c r="O56" s="373" t="s">
+      <c r="F56" s="304"/>
+      <c r="G56" s="304"/>
+      <c r="H56" s="304"/>
+      <c r="I56" s="304"/>
+      <c r="J56" s="304"/>
+      <c r="K56" s="304"/>
+      <c r="L56" s="304"/>
+      <c r="M56" s="304"/>
+      <c r="N56" s="305"/>
+      <c r="O56" s="321" t="s">
         <v>107</v>
       </c>
-      <c r="P56" s="373"/>
-      <c r="Q56" s="373"/>
-      <c r="R56" s="373"/>
-      <c r="S56" s="373"/>
-      <c r="T56" s="373"/>
-      <c r="U56" s="373"/>
-      <c r="V56" s="373"/>
-      <c r="W56" s="373"/>
-      <c r="X56" s="374"/>
+      <c r="P56" s="321"/>
+      <c r="Q56" s="321"/>
+      <c r="R56" s="321"/>
+      <c r="S56" s="321"/>
+      <c r="T56" s="321"/>
+      <c r="U56" s="321"/>
+      <c r="V56" s="321"/>
+      <c r="W56" s="321"/>
+      <c r="X56" s="322"/>
       <c r="Y56" s="69"/>
       <c r="Z56" s="69"/>
       <c r="AA56" s="69"/>
@@ -13085,28 +13100,28 @@
       <c r="B57" s="69"/>
       <c r="C57" s="69"/>
       <c r="D57" s="69"/>
-      <c r="E57" s="358"/>
-      <c r="F57" s="359"/>
-      <c r="G57" s="359"/>
-      <c r="H57" s="359"/>
-      <c r="I57" s="359"/>
-      <c r="J57" s="359"/>
-      <c r="K57" s="359"/>
-      <c r="L57" s="359"/>
-      <c r="M57" s="359"/>
-      <c r="N57" s="360"/>
-      <c r="O57" s="373" t="s">
+      <c r="E57" s="306"/>
+      <c r="F57" s="307"/>
+      <c r="G57" s="307"/>
+      <c r="H57" s="307"/>
+      <c r="I57" s="307"/>
+      <c r="J57" s="307"/>
+      <c r="K57" s="307"/>
+      <c r="L57" s="307"/>
+      <c r="M57" s="307"/>
+      <c r="N57" s="308"/>
+      <c r="O57" s="321" t="s">
         <v>82</v>
       </c>
-      <c r="P57" s="373"/>
-      <c r="Q57" s="373"/>
-      <c r="R57" s="373"/>
-      <c r="S57" s="373"/>
-      <c r="T57" s="373"/>
-      <c r="U57" s="373"/>
-      <c r="V57" s="373"/>
-      <c r="W57" s="373"/>
-      <c r="X57" s="374"/>
+      <c r="P57" s="321"/>
+      <c r="Q57" s="321"/>
+      <c r="R57" s="321"/>
+      <c r="S57" s="321"/>
+      <c r="T57" s="321"/>
+      <c r="U57" s="321"/>
+      <c r="V57" s="321"/>
+      <c r="W57" s="321"/>
+      <c r="X57" s="322"/>
       <c r="Y57" s="69"/>
       <c r="Z57" s="69"/>
       <c r="AA57" s="69"/>
@@ -13124,28 +13139,28 @@
       <c r="B58" s="69"/>
       <c r="C58" s="69"/>
       <c r="D58" s="69"/>
-      <c r="E58" s="361"/>
-      <c r="F58" s="362"/>
-      <c r="G58" s="362"/>
-      <c r="H58" s="362"/>
-      <c r="I58" s="362"/>
-      <c r="J58" s="362"/>
-      <c r="K58" s="362"/>
-      <c r="L58" s="362"/>
-      <c r="M58" s="362"/>
-      <c r="N58" s="363"/>
-      <c r="O58" s="364" t="s">
+      <c r="E58" s="309"/>
+      <c r="F58" s="310"/>
+      <c r="G58" s="310"/>
+      <c r="H58" s="310"/>
+      <c r="I58" s="310"/>
+      <c r="J58" s="310"/>
+      <c r="K58" s="310"/>
+      <c r="L58" s="310"/>
+      <c r="M58" s="310"/>
+      <c r="N58" s="311"/>
+      <c r="O58" s="312" t="s">
         <v>84</v>
       </c>
-      <c r="P58" s="365"/>
-      <c r="Q58" s="365"/>
-      <c r="R58" s="365"/>
-      <c r="S58" s="365"/>
-      <c r="T58" s="365"/>
-      <c r="U58" s="365"/>
-      <c r="V58" s="365"/>
-      <c r="W58" s="365"/>
-      <c r="X58" s="366"/>
+      <c r="P58" s="313"/>
+      <c r="Q58" s="313"/>
+      <c r="R58" s="313"/>
+      <c r="S58" s="313"/>
+      <c r="T58" s="313"/>
+      <c r="U58" s="313"/>
+      <c r="V58" s="313"/>
+      <c r="W58" s="313"/>
+      <c r="X58" s="314"/>
       <c r="Y58" s="69"/>
       <c r="Z58" s="69"/>
       <c r="AA58" s="69"/>
@@ -13163,28 +13178,28 @@
       <c r="B59" s="69"/>
       <c r="C59" s="69"/>
       <c r="D59" s="69"/>
-      <c r="E59" s="352" t="s">
+      <c r="E59" s="300" t="s">
         <v>108</v>
       </c>
-      <c r="F59" s="353"/>
-      <c r="G59" s="353"/>
-      <c r="H59" s="353"/>
-      <c r="I59" s="353"/>
-      <c r="J59" s="353"/>
-      <c r="K59" s="353"/>
-      <c r="L59" s="353"/>
-      <c r="M59" s="353"/>
-      <c r="N59" s="353"/>
-      <c r="O59" s="353"/>
-      <c r="P59" s="353"/>
-      <c r="Q59" s="353"/>
-      <c r="R59" s="353"/>
-      <c r="S59" s="353"/>
-      <c r="T59" s="353"/>
-      <c r="U59" s="353"/>
-      <c r="V59" s="353"/>
-      <c r="W59" s="353"/>
-      <c r="X59" s="354"/>
+      <c r="F59" s="301"/>
+      <c r="G59" s="301"/>
+      <c r="H59" s="301"/>
+      <c r="I59" s="301"/>
+      <c r="J59" s="301"/>
+      <c r="K59" s="301"/>
+      <c r="L59" s="301"/>
+      <c r="M59" s="301"/>
+      <c r="N59" s="301"/>
+      <c r="O59" s="301"/>
+      <c r="P59" s="301"/>
+      <c r="Q59" s="301"/>
+      <c r="R59" s="301"/>
+      <c r="S59" s="301"/>
+      <c r="T59" s="301"/>
+      <c r="U59" s="301"/>
+      <c r="V59" s="301"/>
+      <c r="W59" s="301"/>
+      <c r="X59" s="302"/>
       <c r="Y59" s="69"/>
       <c r="Z59" s="69"/>
       <c r="AA59" s="69"/>
@@ -13903,44 +13918,44 @@
     <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C80" s="39"/>
       <c r="D80" s="39"/>
-      <c r="E80" s="328" t="s">
+      <c r="E80" s="297" t="s">
         <v>89</v>
       </c>
-      <c r="F80" s="328"/>
-      <c r="G80" s="348" t="s">
+      <c r="F80" s="297"/>
+      <c r="G80" s="346" t="s">
         <v>122</v>
       </c>
-      <c r="H80" s="349"/>
-      <c r="I80" s="349"/>
-      <c r="J80" s="349"/>
-      <c r="K80" s="349"/>
-      <c r="L80" s="350"/>
-      <c r="M80" s="328" t="s">
+      <c r="H80" s="347"/>
+      <c r="I80" s="347"/>
+      <c r="J80" s="347"/>
+      <c r="K80" s="347"/>
+      <c r="L80" s="348"/>
+      <c r="M80" s="297" t="s">
         <v>123</v>
       </c>
-      <c r="N80" s="328"/>
-      <c r="O80" s="348" t="s">
+      <c r="N80" s="297"/>
+      <c r="O80" s="346" t="s">
         <v>66</v>
       </c>
-      <c r="P80" s="349"/>
-      <c r="Q80" s="349"/>
-      <c r="R80" s="349"/>
-      <c r="S80" s="349"/>
-      <c r="T80" s="349"/>
-      <c r="U80" s="349"/>
-      <c r="V80" s="349"/>
-      <c r="W80" s="349"/>
-      <c r="X80" s="349"/>
-      <c r="Y80" s="349"/>
-      <c r="Z80" s="349"/>
-      <c r="AA80" s="349"/>
-      <c r="AB80" s="349"/>
-      <c r="AC80" s="349"/>
-      <c r="AD80" s="349"/>
-      <c r="AE80" s="349"/>
-      <c r="AF80" s="349"/>
-      <c r="AG80" s="349"/>
-      <c r="AH80" s="350"/>
+      <c r="P80" s="347"/>
+      <c r="Q80" s="347"/>
+      <c r="R80" s="347"/>
+      <c r="S80" s="347"/>
+      <c r="T80" s="347"/>
+      <c r="U80" s="347"/>
+      <c r="V80" s="347"/>
+      <c r="W80" s="347"/>
+      <c r="X80" s="347"/>
+      <c r="Y80" s="347"/>
+      <c r="Z80" s="347"/>
+      <c r="AA80" s="347"/>
+      <c r="AB80" s="347"/>
+      <c r="AC80" s="347"/>
+      <c r="AD80" s="347"/>
+      <c r="AE80" s="347"/>
+      <c r="AF80" s="347"/>
+      <c r="AG80" s="347"/>
+      <c r="AH80" s="348"/>
     </row>
     <row r="81" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C81" s="39"/>
@@ -14075,86 +14090,86 @@
     <row r="85" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C85" s="39"/>
       <c r="D85" s="39"/>
-      <c r="E85" s="340" t="s">
+      <c r="E85" s="338" t="s">
         <v>37</v>
       </c>
-      <c r="F85" s="329" t="s">
+      <c r="F85" s="332" t="s">
         <v>125</v>
       </c>
-      <c r="G85" s="330"/>
-      <c r="H85" s="330"/>
-      <c r="I85" s="331"/>
-      <c r="J85" s="329" t="s">
+      <c r="G85" s="333"/>
+      <c r="H85" s="333"/>
+      <c r="I85" s="334"/>
+      <c r="J85" s="332" t="s">
         <v>126</v>
       </c>
-      <c r="K85" s="330"/>
-      <c r="L85" s="330"/>
-      <c r="M85" s="331"/>
-      <c r="N85" s="301" t="s">
+      <c r="K85" s="333"/>
+      <c r="L85" s="333"/>
+      <c r="M85" s="334"/>
+      <c r="N85" s="371" t="s">
         <v>127</v>
       </c>
-      <c r="O85" s="301"/>
-      <c r="P85" s="301"/>
-      <c r="Q85" s="301"/>
-      <c r="R85" s="301"/>
-      <c r="S85" s="301"/>
-      <c r="T85" s="301"/>
-      <c r="U85" s="301"/>
-      <c r="V85" s="301"/>
-      <c r="W85" s="329" t="s">
+      <c r="O85" s="371"/>
+      <c r="P85" s="371"/>
+      <c r="Q85" s="371"/>
+      <c r="R85" s="371"/>
+      <c r="S85" s="371"/>
+      <c r="T85" s="371"/>
+      <c r="U85" s="371"/>
+      <c r="V85" s="371"/>
+      <c r="W85" s="332" t="s">
         <v>128</v>
       </c>
-      <c r="X85" s="330"/>
-      <c r="Y85" s="330"/>
-      <c r="Z85" s="330"/>
-      <c r="AA85" s="330"/>
-      <c r="AB85" s="330"/>
-      <c r="AC85" s="331"/>
-      <c r="AD85" s="329" t="s">
+      <c r="X85" s="333"/>
+      <c r="Y85" s="333"/>
+      <c r="Z85" s="333"/>
+      <c r="AA85" s="333"/>
+      <c r="AB85" s="333"/>
+      <c r="AC85" s="334"/>
+      <c r="AD85" s="332" t="s">
         <v>53</v>
       </c>
-      <c r="AE85" s="330"/>
-      <c r="AF85" s="330"/>
-      <c r="AG85" s="330"/>
-      <c r="AH85" s="331"/>
+      <c r="AE85" s="333"/>
+      <c r="AF85" s="333"/>
+      <c r="AG85" s="333"/>
+      <c r="AH85" s="334"/>
     </row>
     <row r="86" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C86" s="39"/>
       <c r="D86" s="54"/>
-      <c r="E86" s="341"/>
-      <c r="F86" s="332"/>
-      <c r="G86" s="333"/>
-      <c r="H86" s="333"/>
-      <c r="I86" s="334"/>
-      <c r="J86" s="332"/>
-      <c r="K86" s="333"/>
-      <c r="L86" s="333"/>
-      <c r="M86" s="334"/>
-      <c r="N86" s="301" t="s">
+      <c r="E86" s="339"/>
+      <c r="F86" s="335"/>
+      <c r="G86" s="336"/>
+      <c r="H86" s="336"/>
+      <c r="I86" s="337"/>
+      <c r="J86" s="335"/>
+      <c r="K86" s="336"/>
+      <c r="L86" s="336"/>
+      <c r="M86" s="337"/>
+      <c r="N86" s="371" t="s">
         <v>129</v>
       </c>
-      <c r="O86" s="301"/>
-      <c r="P86" s="301"/>
-      <c r="Q86" s="301"/>
-      <c r="R86" s="301"/>
-      <c r="S86" s="302" t="s">
+      <c r="O86" s="371"/>
+      <c r="P86" s="371"/>
+      <c r="Q86" s="371"/>
+      <c r="R86" s="371"/>
+      <c r="S86" s="289" t="s">
         <v>126</v>
       </c>
-      <c r="T86" s="302"/>
-      <c r="U86" s="302"/>
-      <c r="V86" s="302"/>
-      <c r="W86" s="332"/>
-      <c r="X86" s="333"/>
-      <c r="Y86" s="333"/>
-      <c r="Z86" s="333"/>
-      <c r="AA86" s="333"/>
-      <c r="AB86" s="333"/>
-      <c r="AC86" s="334"/>
-      <c r="AD86" s="332"/>
-      <c r="AE86" s="333"/>
-      <c r="AF86" s="333"/>
-      <c r="AG86" s="333"/>
-      <c r="AH86" s="334"/>
+      <c r="T86" s="289"/>
+      <c r="U86" s="289"/>
+      <c r="V86" s="289"/>
+      <c r="W86" s="335"/>
+      <c r="X86" s="336"/>
+      <c r="Y86" s="336"/>
+      <c r="Z86" s="336"/>
+      <c r="AA86" s="336"/>
+      <c r="AB86" s="336"/>
+      <c r="AC86" s="337"/>
+      <c r="AD86" s="335"/>
+      <c r="AE86" s="336"/>
+      <c r="AF86" s="336"/>
+      <c r="AG86" s="336"/>
+      <c r="AH86" s="337"/>
     </row>
     <row r="87" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C87" s="39"/>
@@ -14162,43 +14177,43 @@
       <c r="E87" s="104">
         <v>1</v>
       </c>
-      <c r="F87" s="298" t="s">
+      <c r="F87" s="365" t="s">
         <v>130</v>
       </c>
-      <c r="G87" s="299"/>
-      <c r="H87" s="299"/>
-      <c r="I87" s="300"/>
-      <c r="J87" s="298" t="s">
+      <c r="G87" s="366"/>
+      <c r="H87" s="366"/>
+      <c r="I87" s="367"/>
+      <c r="J87" s="365" t="s">
         <v>107</v>
       </c>
-      <c r="K87" s="299"/>
-      <c r="L87" s="299"/>
-      <c r="M87" s="300"/>
-      <c r="N87" s="295" t="s">
+      <c r="K87" s="366"/>
+      <c r="L87" s="366"/>
+      <c r="M87" s="367"/>
+      <c r="N87" s="372" t="s">
         <v>63</v>
       </c>
-      <c r="O87" s="296"/>
-      <c r="P87" s="296"/>
-      <c r="Q87" s="296"/>
-      <c r="R87" s="296"/>
-      <c r="S87" s="297" t="s">
+      <c r="O87" s="373"/>
+      <c r="P87" s="373"/>
+      <c r="Q87" s="373"/>
+      <c r="R87" s="373"/>
+      <c r="S87" s="374" t="s">
         <v>107</v>
       </c>
-      <c r="T87" s="297"/>
-      <c r="U87" s="297"/>
-      <c r="V87" s="297"/>
-      <c r="W87" s="284"/>
-      <c r="X87" s="285"/>
-      <c r="Y87" s="285"/>
-      <c r="Z87" s="285"/>
-      <c r="AA87" s="285"/>
-      <c r="AB87" s="285"/>
-      <c r="AC87" s="286"/>
-      <c r="AD87" s="284"/>
-      <c r="AE87" s="285"/>
-      <c r="AF87" s="285"/>
-      <c r="AG87" s="285"/>
-      <c r="AH87" s="286"/>
+      <c r="T87" s="374"/>
+      <c r="U87" s="374"/>
+      <c r="V87" s="374"/>
+      <c r="W87" s="368"/>
+      <c r="X87" s="369"/>
+      <c r="Y87" s="369"/>
+      <c r="Z87" s="369"/>
+      <c r="AA87" s="369"/>
+      <c r="AB87" s="369"/>
+      <c r="AC87" s="370"/>
+      <c r="AD87" s="368"/>
+      <c r="AE87" s="369"/>
+      <c r="AF87" s="369"/>
+      <c r="AG87" s="369"/>
+      <c r="AH87" s="370"/>
     </row>
     <row r="88" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C88" s="39"/>
@@ -14206,43 +14221,43 @@
       <c r="E88" s="104">
         <v>2</v>
       </c>
-      <c r="F88" s="298" t="s">
+      <c r="F88" s="365" t="s">
         <v>81</v>
       </c>
-      <c r="G88" s="299"/>
-      <c r="H88" s="299"/>
-      <c r="I88" s="300"/>
-      <c r="J88" s="298" t="s">
+      <c r="G88" s="366"/>
+      <c r="H88" s="366"/>
+      <c r="I88" s="367"/>
+      <c r="J88" s="365" t="s">
         <v>82</v>
       </c>
-      <c r="K88" s="299"/>
-      <c r="L88" s="299"/>
-      <c r="M88" s="300"/>
-      <c r="N88" s="295" t="s">
+      <c r="K88" s="366"/>
+      <c r="L88" s="366"/>
+      <c r="M88" s="367"/>
+      <c r="N88" s="372" t="s">
         <v>63</v>
       </c>
-      <c r="O88" s="296"/>
-      <c r="P88" s="296"/>
-      <c r="Q88" s="296"/>
-      <c r="R88" s="296"/>
-      <c r="S88" s="297" t="s">
+      <c r="O88" s="373"/>
+      <c r="P88" s="373"/>
+      <c r="Q88" s="373"/>
+      <c r="R88" s="373"/>
+      <c r="S88" s="374" t="s">
         <v>82</v>
       </c>
-      <c r="T88" s="297"/>
-      <c r="U88" s="297"/>
-      <c r="V88" s="297"/>
-      <c r="W88" s="284"/>
-      <c r="X88" s="285"/>
-      <c r="Y88" s="285"/>
-      <c r="Z88" s="285"/>
-      <c r="AA88" s="285"/>
-      <c r="AB88" s="285"/>
-      <c r="AC88" s="286"/>
-      <c r="AD88" s="284"/>
-      <c r="AE88" s="285"/>
-      <c r="AF88" s="285"/>
-      <c r="AG88" s="285"/>
-      <c r="AH88" s="286"/>
+      <c r="T88" s="374"/>
+      <c r="U88" s="374"/>
+      <c r="V88" s="374"/>
+      <c r="W88" s="368"/>
+      <c r="X88" s="369"/>
+      <c r="Y88" s="369"/>
+      <c r="Z88" s="369"/>
+      <c r="AA88" s="369"/>
+      <c r="AB88" s="369"/>
+      <c r="AC88" s="370"/>
+      <c r="AD88" s="368"/>
+      <c r="AE88" s="369"/>
+      <c r="AF88" s="369"/>
+      <c r="AG88" s="369"/>
+      <c r="AH88" s="370"/>
     </row>
     <row r="89" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C89" s="39"/>
@@ -14250,43 +14265,43 @@
       <c r="E89" s="104">
         <v>3</v>
       </c>
-      <c r="F89" s="298" t="s">
+      <c r="F89" s="365" t="s">
         <v>83</v>
       </c>
-      <c r="G89" s="299"/>
-      <c r="H89" s="299"/>
-      <c r="I89" s="300"/>
-      <c r="J89" s="298" t="s">
+      <c r="G89" s="366"/>
+      <c r="H89" s="366"/>
+      <c r="I89" s="367"/>
+      <c r="J89" s="365" t="s">
         <v>84</v>
       </c>
-      <c r="K89" s="299"/>
-      <c r="L89" s="299"/>
-      <c r="M89" s="300"/>
-      <c r="N89" s="295" t="s">
+      <c r="K89" s="366"/>
+      <c r="L89" s="366"/>
+      <c r="M89" s="367"/>
+      <c r="N89" s="372" t="s">
         <v>63</v>
       </c>
-      <c r="O89" s="296"/>
-      <c r="P89" s="296"/>
-      <c r="Q89" s="296"/>
-      <c r="R89" s="296"/>
-      <c r="S89" s="297" t="s">
+      <c r="O89" s="373"/>
+      <c r="P89" s="373"/>
+      <c r="Q89" s="373"/>
+      <c r="R89" s="373"/>
+      <c r="S89" s="374" t="s">
         <v>84</v>
       </c>
-      <c r="T89" s="297"/>
-      <c r="U89" s="297"/>
-      <c r="V89" s="297"/>
-      <c r="W89" s="284"/>
-      <c r="X89" s="285"/>
-      <c r="Y89" s="285"/>
-      <c r="Z89" s="285"/>
-      <c r="AA89" s="285"/>
-      <c r="AB89" s="285"/>
-      <c r="AC89" s="286"/>
-      <c r="AD89" s="284"/>
-      <c r="AE89" s="285"/>
-      <c r="AF89" s="285"/>
-      <c r="AG89" s="285"/>
-      <c r="AH89" s="286"/>
+      <c r="T89" s="374"/>
+      <c r="U89" s="374"/>
+      <c r="V89" s="374"/>
+      <c r="W89" s="368"/>
+      <c r="X89" s="369"/>
+      <c r="Y89" s="369"/>
+      <c r="Z89" s="369"/>
+      <c r="AA89" s="369"/>
+      <c r="AB89" s="369"/>
+      <c r="AC89" s="370"/>
+      <c r="AD89" s="368"/>
+      <c r="AE89" s="369"/>
+      <c r="AF89" s="369"/>
+      <c r="AG89" s="369"/>
+      <c r="AH89" s="370"/>
     </row>
     <row r="90" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C90" s="39"/>
@@ -14294,35 +14309,35 @@
       <c r="E90" s="104">
         <v>4</v>
       </c>
-      <c r="F90" s="298"/>
-      <c r="G90" s="299"/>
-      <c r="H90" s="299"/>
-      <c r="I90" s="300"/>
-      <c r="J90" s="298"/>
-      <c r="K90" s="299"/>
-      <c r="L90" s="299"/>
-      <c r="M90" s="300"/>
-      <c r="N90" s="295"/>
-      <c r="O90" s="296"/>
-      <c r="P90" s="296"/>
-      <c r="Q90" s="296"/>
-      <c r="R90" s="296"/>
-      <c r="S90" s="297"/>
-      <c r="T90" s="297"/>
-      <c r="U90" s="297"/>
-      <c r="V90" s="297"/>
-      <c r="W90" s="284"/>
-      <c r="X90" s="285"/>
-      <c r="Y90" s="285"/>
-      <c r="Z90" s="285"/>
-      <c r="AA90" s="285"/>
-      <c r="AB90" s="285"/>
-      <c r="AC90" s="286"/>
-      <c r="AD90" s="284"/>
-      <c r="AE90" s="285"/>
-      <c r="AF90" s="285"/>
-      <c r="AG90" s="285"/>
-      <c r="AH90" s="286"/>
+      <c r="F90" s="365"/>
+      <c r="G90" s="366"/>
+      <c r="H90" s="366"/>
+      <c r="I90" s="367"/>
+      <c r="J90" s="365"/>
+      <c r="K90" s="366"/>
+      <c r="L90" s="366"/>
+      <c r="M90" s="367"/>
+      <c r="N90" s="372"/>
+      <c r="O90" s="373"/>
+      <c r="P90" s="373"/>
+      <c r="Q90" s="373"/>
+      <c r="R90" s="373"/>
+      <c r="S90" s="374"/>
+      <c r="T90" s="374"/>
+      <c r="U90" s="374"/>
+      <c r="V90" s="374"/>
+      <c r="W90" s="368"/>
+      <c r="X90" s="369"/>
+      <c r="Y90" s="369"/>
+      <c r="Z90" s="369"/>
+      <c r="AA90" s="369"/>
+      <c r="AB90" s="369"/>
+      <c r="AC90" s="370"/>
+      <c r="AD90" s="368"/>
+      <c r="AE90" s="369"/>
+      <c r="AF90" s="369"/>
+      <c r="AG90" s="369"/>
+      <c r="AH90" s="370"/>
     </row>
     <row r="91" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C91" s="39"/>
@@ -14330,47 +14345,124 @@
       <c r="E91" s="104">
         <v>5</v>
       </c>
-      <c r="F91" s="298"/>
-      <c r="G91" s="299"/>
-      <c r="H91" s="299"/>
-      <c r="I91" s="300"/>
-      <c r="J91" s="298"/>
-      <c r="K91" s="299"/>
-      <c r="L91" s="299"/>
-      <c r="M91" s="300"/>
-      <c r="N91" s="295"/>
-      <c r="O91" s="296"/>
-      <c r="P91" s="296"/>
-      <c r="Q91" s="296"/>
-      <c r="R91" s="296"/>
-      <c r="S91" s="297"/>
-      <c r="T91" s="297"/>
-      <c r="U91" s="297"/>
-      <c r="V91" s="297"/>
-      <c r="W91" s="284"/>
-      <c r="X91" s="285"/>
-      <c r="Y91" s="285"/>
-      <c r="Z91" s="285"/>
-      <c r="AA91" s="285"/>
-      <c r="AB91" s="285"/>
-      <c r="AC91" s="286"/>
-      <c r="AD91" s="284"/>
-      <c r="AE91" s="285"/>
-      <c r="AF91" s="285"/>
-      <c r="AG91" s="285"/>
-      <c r="AH91" s="286"/>
+      <c r="F91" s="365"/>
+      <c r="G91" s="366"/>
+      <c r="H91" s="366"/>
+      <c r="I91" s="367"/>
+      <c r="J91" s="365"/>
+      <c r="K91" s="366"/>
+      <c r="L91" s="366"/>
+      <c r="M91" s="367"/>
+      <c r="N91" s="372"/>
+      <c r="O91" s="373"/>
+      <c r="P91" s="373"/>
+      <c r="Q91" s="373"/>
+      <c r="R91" s="373"/>
+      <c r="S91" s="374"/>
+      <c r="T91" s="374"/>
+      <c r="U91" s="374"/>
+      <c r="V91" s="374"/>
+      <c r="W91" s="368"/>
+      <c r="X91" s="369"/>
+      <c r="Y91" s="369"/>
+      <c r="Z91" s="369"/>
+      <c r="AA91" s="369"/>
+      <c r="AB91" s="369"/>
+      <c r="AC91" s="370"/>
+      <c r="AD91" s="368"/>
+      <c r="AE91" s="369"/>
+      <c r="AF91" s="369"/>
+      <c r="AG91" s="369"/>
+      <c r="AH91" s="370"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="T50:AD50"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:S40"/>
-    <mergeCell ref="T40:AD40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:S41"/>
-    <mergeCell ref="T41:AD41"/>
+    <mergeCell ref="AD87:AH87"/>
+    <mergeCell ref="AD88:AH88"/>
+    <mergeCell ref="AD89:AH89"/>
+    <mergeCell ref="W87:AC87"/>
+    <mergeCell ref="W88:AC88"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="AD90:AH90"/>
+    <mergeCell ref="AD91:AH91"/>
+    <mergeCell ref="H17:AH17"/>
+    <mergeCell ref="H18:AH18"/>
+    <mergeCell ref="H19:AH19"/>
+    <mergeCell ref="H20:AH20"/>
+    <mergeCell ref="N91:R91"/>
+    <mergeCell ref="S91:V91"/>
+    <mergeCell ref="N90:R90"/>
+    <mergeCell ref="S90:V90"/>
+    <mergeCell ref="N89:R89"/>
+    <mergeCell ref="S89:V89"/>
+    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="J90:M90"/>
+    <mergeCell ref="J91:M91"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="F89:I89"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="W89:AC89"/>
+    <mergeCell ref="W90:AC90"/>
+    <mergeCell ref="W91:AC91"/>
+    <mergeCell ref="N85:V85"/>
+    <mergeCell ref="N86:R86"/>
+    <mergeCell ref="S86:V86"/>
+    <mergeCell ref="N88:R88"/>
+    <mergeCell ref="S88:V88"/>
+    <mergeCell ref="N87:R87"/>
+    <mergeCell ref="S87:V87"/>
+    <mergeCell ref="J87:M87"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E8:J9"/>
+    <mergeCell ref="K8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="V8:AH9"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="L36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="J85:M86"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:S49"/>
+    <mergeCell ref="F85:I86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="L37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="O80:AH80"/>
+    <mergeCell ref="W85:AC86"/>
+    <mergeCell ref="AD85:AH86"/>
+    <mergeCell ref="T49:AD49"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:S50"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="V12:AH12"/>
@@ -14395,92 +14487,15 @@
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E19:G19"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="L36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="J85:M86"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:S49"/>
-    <mergeCell ref="F85:I86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="Y37:AB37"/>
-    <mergeCell ref="L37:U37"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="O80:AH80"/>
-    <mergeCell ref="W85:AC86"/>
-    <mergeCell ref="AD85:AH86"/>
-    <mergeCell ref="T49:AD49"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:S50"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E8:J9"/>
-    <mergeCell ref="K8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="V8:AH9"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="F91:I91"/>
-    <mergeCell ref="W89:AC89"/>
-    <mergeCell ref="W90:AC90"/>
-    <mergeCell ref="W91:AC91"/>
-    <mergeCell ref="N85:V85"/>
-    <mergeCell ref="N86:R86"/>
-    <mergeCell ref="S86:V86"/>
-    <mergeCell ref="N88:R88"/>
-    <mergeCell ref="S88:V88"/>
-    <mergeCell ref="N87:R87"/>
-    <mergeCell ref="S87:V87"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="AD87:AH87"/>
-    <mergeCell ref="AD88:AH88"/>
-    <mergeCell ref="AD89:AH89"/>
-    <mergeCell ref="W87:AC87"/>
-    <mergeCell ref="W88:AC88"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="AD90:AH90"/>
-    <mergeCell ref="AD91:AH91"/>
-    <mergeCell ref="H17:AH17"/>
-    <mergeCell ref="H18:AH18"/>
-    <mergeCell ref="H19:AH19"/>
-    <mergeCell ref="H20:AH20"/>
-    <mergeCell ref="N91:R91"/>
-    <mergeCell ref="S91:V91"/>
-    <mergeCell ref="N90:R90"/>
-    <mergeCell ref="S90:V90"/>
-    <mergeCell ref="N89:R89"/>
-    <mergeCell ref="S89:V89"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="J91:M91"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="F89:I89"/>
+    <mergeCell ref="T50:AD50"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:S40"/>
+    <mergeCell ref="T40:AD40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:S41"/>
+    <mergeCell ref="T41:AD41"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="3">
@@ -14524,7 +14539,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="159" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -14544,17 +14559,17 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="161" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="161" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="161" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/en/Sample_Project/Design_Document/B1_Customer_Management_System/030_Application_Design/010_System_Functional_Design/System_Function_Design_Document(Web_Services)_B_10101_Search_Customer.xlsx
+++ b/en/Sample_Project/Design_Document/B1_Customer_Management_System/030_Application_Design/010_System_Functional_Design/System_Function_Design_Document(Web_Services)_B_10101_Search_Customer.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EAA1B5-40F4-4E11-AD71-4A0F0C0BDBB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D33B238-7C8C-4977-B15A-F2ABFB4E4A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2970" windowWidth="24000" windowHeight="10575" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2700" windowWidth="25530" windowHeight="9795" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="36" state="hidden" r:id="rId1"/>
@@ -254,9 +254,6 @@
     <t>Table</t>
   </si>
   <si>
-    <t>○</t>
-  </si>
-  <si>
     <t>Client search response message</t>
   </si>
   <si>
@@ -560,6 +557,9 @@
   <si>
     <t>AND client.industry_code</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -1353,9 +1353,114 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1470,86 +1575,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1587,59 +1665,47 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1677,254 +1743,53 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1994,29 +1859,164 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -5699,12 +5699,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="157">
+      <c r="I25" s="165">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43718</v>
       </c>
-      <c r="J25" s="157"/>
-      <c r="K25" s="157"/>
+      <c r="J25" s="165"/>
+      <c r="K25" s="165"/>
       <c r="L25" s="24"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6334,55 +6334,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="169" t="s">
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="204" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="178" t="s">
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="205"/>
+      <c r="K1" s="205"/>
+      <c r="L1" s="205"/>
+      <c r="M1" s="205"/>
+      <c r="N1" s="206"/>
+      <c r="O1" s="213" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="179"/>
-      <c r="Q1" s="179"/>
-      <c r="R1" s="180"/>
-      <c r="S1" s="187" t="s">
+      <c r="P1" s="214"/>
+      <c r="Q1" s="214"/>
+      <c r="R1" s="215"/>
+      <c r="S1" s="222" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="189"/>
-      <c r="AA1" s="175" t="s">
+      <c r="T1" s="223"/>
+      <c r="U1" s="223"/>
+      <c r="V1" s="223"/>
+      <c r="W1" s="223"/>
+      <c r="X1" s="223"/>
+      <c r="Y1" s="223"/>
+      <c r="Z1" s="224"/>
+      <c r="AA1" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="177"/>
-      <c r="AC1" s="158" t="s">
+      <c r="AB1" s="212"/>
+      <c r="AC1" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="159"/>
-      <c r="AE1" s="159"/>
-      <c r="AF1" s="160"/>
-      <c r="AG1" s="162">
+      <c r="AD1" s="194"/>
+      <c r="AE1" s="194"/>
+      <c r="AF1" s="195"/>
+      <c r="AG1" s="197">
         <v>43718</v>
       </c>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="164"/>
+      <c r="AH1" s="198"/>
+      <c r="AI1" s="199"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -6390,53 +6390,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="210" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="169" t="s">
+      <c r="B2" s="211"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="182"/>
-      <c r="Q2" s="182"/>
-      <c r="R2" s="183"/>
-      <c r="S2" s="190"/>
-      <c r="T2" s="191"/>
-      <c r="U2" s="191"/>
-      <c r="V2" s="191"/>
-      <c r="W2" s="191"/>
-      <c r="X2" s="191"/>
-      <c r="Y2" s="191"/>
-      <c r="Z2" s="192"/>
-      <c r="AA2" s="175" t="s">
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="206"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="217"/>
+      <c r="Q2" s="217"/>
+      <c r="R2" s="218"/>
+      <c r="S2" s="225"/>
+      <c r="T2" s="226"/>
+      <c r="U2" s="226"/>
+      <c r="V2" s="226"/>
+      <c r="W2" s="226"/>
+      <c r="X2" s="226"/>
+      <c r="Y2" s="226"/>
+      <c r="Z2" s="227"/>
+      <c r="AA2" s="210" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="177"/>
-      <c r="AC2" s="172" t="str">
+      <c r="AB2" s="212"/>
+      <c r="AC2" s="207" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="173"/>
-      <c r="AE2" s="173"/>
-      <c r="AF2" s="174"/>
-      <c r="AG2" s="162" t="str">
+      <c r="AD2" s="208"/>
+      <c r="AE2" s="208"/>
+      <c r="AF2" s="209"/>
+      <c r="AG2" s="197" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="164"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="199"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -6444,45 +6444,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="210" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="169" t="s">
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="204" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="171"/>
-      <c r="O3" s="184"/>
-      <c r="P3" s="185"/>
-      <c r="Q3" s="185"/>
-      <c r="R3" s="186"/>
-      <c r="S3" s="193"/>
-      <c r="T3" s="194"/>
-      <c r="U3" s="194"/>
-      <c r="V3" s="194"/>
-      <c r="W3" s="194"/>
-      <c r="X3" s="194"/>
-      <c r="Y3" s="194"/>
-      <c r="Z3" s="195"/>
-      <c r="AA3" s="175"/>
-      <c r="AB3" s="177"/>
-      <c r="AC3" s="161"/>
-      <c r="AD3" s="159"/>
-      <c r="AE3" s="159"/>
-      <c r="AF3" s="160"/>
-      <c r="AG3" s="162"/>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="164"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="205"/>
+      <c r="M3" s="205"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="219"/>
+      <c r="P3" s="220"/>
+      <c r="Q3" s="220"/>
+      <c r="R3" s="221"/>
+      <c r="S3" s="228"/>
+      <c r="T3" s="229"/>
+      <c r="U3" s="229"/>
+      <c r="V3" s="229"/>
+      <c r="W3" s="229"/>
+      <c r="X3" s="229"/>
+      <c r="Y3" s="229"/>
+      <c r="Z3" s="230"/>
+      <c r="AA3" s="210"/>
+      <c r="AB3" s="212"/>
+      <c r="AC3" s="196"/>
+      <c r="AD3" s="194"/>
+      <c r="AE3" s="194"/>
+      <c r="AF3" s="195"/>
+      <c r="AG3" s="197"/>
+      <c r="AH3" s="198"/>
+      <c r="AI3" s="199"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -6519,1186 +6519,1030 @@
       <c r="A7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="165" t="s">
+      <c r="B7" s="200" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="166"/>
-      <c r="D7" s="165" t="s">
+      <c r="C7" s="201"/>
+      <c r="D7" s="200" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="167"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="165" t="s">
+      <c r="E7" s="202"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="167"/>
-      <c r="I7" s="166"/>
-      <c r="J7" s="168" t="s">
+      <c r="H7" s="202"/>
+      <c r="I7" s="201"/>
+      <c r="J7" s="203" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="165" t="s">
+      <c r="K7" s="202"/>
+      <c r="L7" s="202"/>
+      <c r="M7" s="202"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="202"/>
+      <c r="P7" s="201"/>
+      <c r="Q7" s="200" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="167"/>
-      <c r="S7" s="167"/>
-      <c r="T7" s="167"/>
-      <c r="U7" s="167"/>
-      <c r="V7" s="167"/>
-      <c r="W7" s="167"/>
-      <c r="X7" s="167"/>
-      <c r="Y7" s="167"/>
-      <c r="Z7" s="167"/>
-      <c r="AA7" s="167"/>
-      <c r="AB7" s="167"/>
-      <c r="AC7" s="167"/>
-      <c r="AD7" s="167"/>
-      <c r="AE7" s="166"/>
-      <c r="AF7" s="168" t="s">
+      <c r="R7" s="202"/>
+      <c r="S7" s="202"/>
+      <c r="T7" s="202"/>
+      <c r="U7" s="202"/>
+      <c r="V7" s="202"/>
+      <c r="W7" s="202"/>
+      <c r="X7" s="202"/>
+      <c r="Y7" s="202"/>
+      <c r="Z7" s="202"/>
+      <c r="AA7" s="202"/>
+      <c r="AB7" s="202"/>
+      <c r="AC7" s="202"/>
+      <c r="AD7" s="202"/>
+      <c r="AE7" s="201"/>
+      <c r="AF7" s="203" t="s">
         <v>43</v>
       </c>
-      <c r="AG7" s="167"/>
-      <c r="AH7" s="167"/>
-      <c r="AI7" s="166"/>
+      <c r="AG7" s="202"/>
+      <c r="AH7" s="202"/>
+      <c r="AI7" s="201"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="33">
         <v>1</v>
       </c>
-      <c r="B8" s="208" t="s">
+      <c r="B8" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="209"/>
-      <c r="D8" s="210">
+      <c r="C8" s="180"/>
+      <c r="D8" s="181">
         <v>43718</v>
       </c>
-      <c r="E8" s="211"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="213" t="s">
+      <c r="E8" s="182"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="184" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="214"/>
-      <c r="I8" s="209"/>
-      <c r="J8" s="215"/>
-      <c r="K8" s="216"/>
-      <c r="L8" s="216"/>
-      <c r="M8" s="216"/>
-      <c r="N8" s="216"/>
-      <c r="O8" s="216"/>
-      <c r="P8" s="217"/>
-      <c r="Q8" s="219"/>
-      <c r="R8" s="220"/>
-      <c r="S8" s="220"/>
-      <c r="T8" s="220"/>
-      <c r="U8" s="220"/>
-      <c r="V8" s="220"/>
-      <c r="W8" s="220"/>
-      <c r="X8" s="220"/>
-      <c r="Y8" s="220"/>
-      <c r="Z8" s="220"/>
-      <c r="AA8" s="220"/>
-      <c r="AB8" s="220"/>
-      <c r="AC8" s="220"/>
-      <c r="AD8" s="220"/>
-      <c r="AE8" s="221"/>
-      <c r="AF8" s="218" t="s">
+      <c r="H8" s="185"/>
+      <c r="I8" s="180"/>
+      <c r="J8" s="186"/>
+      <c r="K8" s="187"/>
+      <c r="L8" s="187"/>
+      <c r="M8" s="187"/>
+      <c r="N8" s="187"/>
+      <c r="O8" s="187"/>
+      <c r="P8" s="188"/>
+      <c r="Q8" s="190"/>
+      <c r="R8" s="191"/>
+      <c r="S8" s="191"/>
+      <c r="T8" s="191"/>
+      <c r="U8" s="191"/>
+      <c r="V8" s="191"/>
+      <c r="W8" s="191"/>
+      <c r="X8" s="191"/>
+      <c r="Y8" s="191"/>
+      <c r="Z8" s="191"/>
+      <c r="AA8" s="191"/>
+      <c r="AB8" s="191"/>
+      <c r="AC8" s="191"/>
+      <c r="AD8" s="191"/>
+      <c r="AE8" s="192"/>
+      <c r="AF8" s="189" t="s">
         <v>46</v>
       </c>
-      <c r="AG8" s="216"/>
-      <c r="AH8" s="216"/>
-      <c r="AI8" s="217"/>
+      <c r="AG8" s="187"/>
+      <c r="AH8" s="187"/>
+      <c r="AI8" s="188"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34"/>
-      <c r="B9" s="196"/>
-      <c r="C9" s="197"/>
-      <c r="D9" s="198"/>
-      <c r="E9" s="199"/>
-      <c r="F9" s="200"/>
-      <c r="G9" s="198"/>
-      <c r="H9" s="201"/>
-      <c r="I9" s="197"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="203"/>
-      <c r="L9" s="203"/>
-      <c r="M9" s="203"/>
-      <c r="N9" s="203"/>
-      <c r="O9" s="203"/>
-      <c r="P9" s="204"/>
-      <c r="Q9" s="205"/>
-      <c r="R9" s="206"/>
-      <c r="S9" s="206"/>
-      <c r="T9" s="206"/>
-      <c r="U9" s="206"/>
-      <c r="V9" s="206"/>
-      <c r="W9" s="206"/>
-      <c r="X9" s="206"/>
-      <c r="Y9" s="206"/>
-      <c r="Z9" s="206"/>
-      <c r="AA9" s="206"/>
-      <c r="AB9" s="206"/>
-      <c r="AC9" s="206"/>
-      <c r="AD9" s="206"/>
-      <c r="AE9" s="207"/>
-      <c r="AF9" s="202"/>
-      <c r="AG9" s="203"/>
-      <c r="AH9" s="203"/>
-      <c r="AI9" s="204"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="173"/>
+      <c r="L9" s="173"/>
+      <c r="M9" s="173"/>
+      <c r="N9" s="173"/>
+      <c r="O9" s="173"/>
+      <c r="P9" s="174"/>
+      <c r="Q9" s="175"/>
+      <c r="R9" s="176"/>
+      <c r="S9" s="176"/>
+      <c r="T9" s="176"/>
+      <c r="U9" s="176"/>
+      <c r="V9" s="176"/>
+      <c r="W9" s="176"/>
+      <c r="X9" s="176"/>
+      <c r="Y9" s="176"/>
+      <c r="Z9" s="176"/>
+      <c r="AA9" s="176"/>
+      <c r="AB9" s="176"/>
+      <c r="AC9" s="176"/>
+      <c r="AD9" s="176"/>
+      <c r="AE9" s="177"/>
+      <c r="AF9" s="172"/>
+      <c r="AG9" s="173"/>
+      <c r="AH9" s="173"/>
+      <c r="AI9" s="174"/>
     </row>
     <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34"/>
-      <c r="B10" s="196"/>
-      <c r="C10" s="197"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="199"/>
-      <c r="F10" s="200"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="201"/>
-      <c r="I10" s="197"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="203"/>
-      <c r="L10" s="203"/>
-      <c r="M10" s="203"/>
-      <c r="N10" s="203"/>
-      <c r="O10" s="203"/>
-      <c r="P10" s="204"/>
-      <c r="Q10" s="205"/>
-      <c r="R10" s="206"/>
-      <c r="S10" s="206"/>
-      <c r="T10" s="206"/>
-      <c r="U10" s="206"/>
-      <c r="V10" s="206"/>
-      <c r="W10" s="206"/>
-      <c r="X10" s="206"/>
-      <c r="Y10" s="206"/>
-      <c r="Z10" s="206"/>
-      <c r="AA10" s="206"/>
-      <c r="AB10" s="206"/>
-      <c r="AC10" s="206"/>
-      <c r="AD10" s="206"/>
-      <c r="AE10" s="207"/>
-      <c r="AF10" s="202"/>
-      <c r="AG10" s="203"/>
-      <c r="AH10" s="203"/>
-      <c r="AI10" s="204"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="166"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="173"/>
+      <c r="L10" s="173"/>
+      <c r="M10" s="173"/>
+      <c r="N10" s="173"/>
+      <c r="O10" s="173"/>
+      <c r="P10" s="174"/>
+      <c r="Q10" s="175"/>
+      <c r="R10" s="176"/>
+      <c r="S10" s="176"/>
+      <c r="T10" s="176"/>
+      <c r="U10" s="176"/>
+      <c r="V10" s="176"/>
+      <c r="W10" s="176"/>
+      <c r="X10" s="176"/>
+      <c r="Y10" s="176"/>
+      <c r="Z10" s="176"/>
+      <c r="AA10" s="176"/>
+      <c r="AB10" s="176"/>
+      <c r="AC10" s="176"/>
+      <c r="AD10" s="176"/>
+      <c r="AE10" s="177"/>
+      <c r="AF10" s="172"/>
+      <c r="AG10" s="173"/>
+      <c r="AH10" s="173"/>
+      <c r="AI10" s="174"/>
     </row>
     <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="34"/>
-      <c r="B11" s="196"/>
-      <c r="C11" s="197"/>
-      <c r="D11" s="198"/>
-      <c r="E11" s="199"/>
-      <c r="F11" s="200"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="197"/>
-      <c r="J11" s="202"/>
-      <c r="K11" s="203"/>
-      <c r="L11" s="203"/>
-      <c r="M11" s="203"/>
-      <c r="N11" s="203"/>
-      <c r="O11" s="203"/>
-      <c r="P11" s="204"/>
-      <c r="Q11" s="205"/>
-      <c r="R11" s="206"/>
-      <c r="S11" s="206"/>
-      <c r="T11" s="206"/>
-      <c r="U11" s="206"/>
-      <c r="V11" s="206"/>
-      <c r="W11" s="206"/>
-      <c r="X11" s="206"/>
-      <c r="Y11" s="206"/>
-      <c r="Z11" s="206"/>
-      <c r="AA11" s="206"/>
-      <c r="AB11" s="206"/>
-      <c r="AC11" s="206"/>
-      <c r="AD11" s="206"/>
-      <c r="AE11" s="207"/>
-      <c r="AF11" s="202"/>
-      <c r="AG11" s="203"/>
-      <c r="AH11" s="203"/>
-      <c r="AI11" s="204"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="167"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="167"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="173"/>
+      <c r="L11" s="173"/>
+      <c r="M11" s="173"/>
+      <c r="N11" s="173"/>
+      <c r="O11" s="173"/>
+      <c r="P11" s="174"/>
+      <c r="Q11" s="175"/>
+      <c r="R11" s="176"/>
+      <c r="S11" s="176"/>
+      <c r="T11" s="176"/>
+      <c r="U11" s="176"/>
+      <c r="V11" s="176"/>
+      <c r="W11" s="176"/>
+      <c r="X11" s="176"/>
+      <c r="Y11" s="176"/>
+      <c r="Z11" s="176"/>
+      <c r="AA11" s="176"/>
+      <c r="AB11" s="176"/>
+      <c r="AC11" s="176"/>
+      <c r="AD11" s="176"/>
+      <c r="AE11" s="177"/>
+      <c r="AF11" s="172"/>
+      <c r="AG11" s="173"/>
+      <c r="AH11" s="173"/>
+      <c r="AI11" s="174"/>
     </row>
     <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="34"/>
-      <c r="B12" s="196"/>
-      <c r="C12" s="197"/>
-      <c r="D12" s="198"/>
-      <c r="E12" s="199"/>
-      <c r="F12" s="200"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="201"/>
-      <c r="I12" s="197"/>
-      <c r="J12" s="202"/>
-      <c r="K12" s="203"/>
-      <c r="L12" s="203"/>
-      <c r="M12" s="203"/>
-      <c r="N12" s="203"/>
-      <c r="O12" s="203"/>
-      <c r="P12" s="204"/>
-      <c r="Q12" s="205"/>
-      <c r="R12" s="206"/>
-      <c r="S12" s="206"/>
-      <c r="T12" s="206"/>
-      <c r="U12" s="206"/>
-      <c r="V12" s="206"/>
-      <c r="W12" s="206"/>
-      <c r="X12" s="206"/>
-      <c r="Y12" s="206"/>
-      <c r="Z12" s="206"/>
-      <c r="AA12" s="206"/>
-      <c r="AB12" s="206"/>
-      <c r="AC12" s="206"/>
-      <c r="AD12" s="206"/>
-      <c r="AE12" s="207"/>
-      <c r="AF12" s="202"/>
-      <c r="AG12" s="203"/>
-      <c r="AH12" s="203"/>
-      <c r="AI12" s="204"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="171"/>
+      <c r="I12" s="167"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="173"/>
+      <c r="L12" s="173"/>
+      <c r="M12" s="173"/>
+      <c r="N12" s="173"/>
+      <c r="O12" s="173"/>
+      <c r="P12" s="174"/>
+      <c r="Q12" s="175"/>
+      <c r="R12" s="176"/>
+      <c r="S12" s="176"/>
+      <c r="T12" s="176"/>
+      <c r="U12" s="176"/>
+      <c r="V12" s="176"/>
+      <c r="W12" s="176"/>
+      <c r="X12" s="176"/>
+      <c r="Y12" s="176"/>
+      <c r="Z12" s="176"/>
+      <c r="AA12" s="176"/>
+      <c r="AB12" s="176"/>
+      <c r="AC12" s="176"/>
+      <c r="AD12" s="176"/>
+      <c r="AE12" s="177"/>
+      <c r="AF12" s="172"/>
+      <c r="AG12" s="173"/>
+      <c r="AH12" s="173"/>
+      <c r="AI12" s="174"/>
     </row>
     <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
-      <c r="B13" s="196"/>
-      <c r="C13" s="197"/>
-      <c r="D13" s="198"/>
-      <c r="E13" s="199"/>
-      <c r="F13" s="200"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="201"/>
-      <c r="I13" s="197"/>
-      <c r="J13" s="202"/>
-      <c r="K13" s="203"/>
-      <c r="L13" s="203"/>
-      <c r="M13" s="203"/>
-      <c r="N13" s="203"/>
-      <c r="O13" s="203"/>
-      <c r="P13" s="204"/>
-      <c r="Q13" s="205"/>
-      <c r="R13" s="206"/>
-      <c r="S13" s="206"/>
-      <c r="T13" s="206"/>
-      <c r="U13" s="206"/>
-      <c r="V13" s="206"/>
-      <c r="W13" s="206"/>
-      <c r="X13" s="206"/>
-      <c r="Y13" s="206"/>
-      <c r="Z13" s="206"/>
-      <c r="AA13" s="206"/>
-      <c r="AB13" s="206"/>
-      <c r="AC13" s="206"/>
-      <c r="AD13" s="206"/>
-      <c r="AE13" s="207"/>
-      <c r="AF13" s="202"/>
-      <c r="AG13" s="203"/>
-      <c r="AH13" s="203"/>
-      <c r="AI13" s="204"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="168"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="171"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="173"/>
+      <c r="L13" s="173"/>
+      <c r="M13" s="173"/>
+      <c r="N13" s="173"/>
+      <c r="O13" s="173"/>
+      <c r="P13" s="174"/>
+      <c r="Q13" s="175"/>
+      <c r="R13" s="176"/>
+      <c r="S13" s="176"/>
+      <c r="T13" s="176"/>
+      <c r="U13" s="176"/>
+      <c r="V13" s="176"/>
+      <c r="W13" s="176"/>
+      <c r="X13" s="176"/>
+      <c r="Y13" s="176"/>
+      <c r="Z13" s="176"/>
+      <c r="AA13" s="176"/>
+      <c r="AB13" s="176"/>
+      <c r="AC13" s="176"/>
+      <c r="AD13" s="176"/>
+      <c r="AE13" s="177"/>
+      <c r="AF13" s="172"/>
+      <c r="AG13" s="173"/>
+      <c r="AH13" s="173"/>
+      <c r="AI13" s="174"/>
     </row>
     <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="34"/>
-      <c r="B14" s="196"/>
-      <c r="C14" s="197"/>
-      <c r="D14" s="198"/>
-      <c r="E14" s="199"/>
-      <c r="F14" s="200"/>
-      <c r="G14" s="196"/>
-      <c r="H14" s="201"/>
-      <c r="I14" s="197"/>
-      <c r="J14" s="202"/>
-      <c r="K14" s="203"/>
-      <c r="L14" s="203"/>
-      <c r="M14" s="203"/>
-      <c r="N14" s="203"/>
-      <c r="O14" s="203"/>
-      <c r="P14" s="204"/>
-      <c r="Q14" s="205"/>
-      <c r="R14" s="206"/>
-      <c r="S14" s="206"/>
-      <c r="T14" s="206"/>
-      <c r="U14" s="206"/>
-      <c r="V14" s="206"/>
-      <c r="W14" s="206"/>
-      <c r="X14" s="206"/>
-      <c r="Y14" s="206"/>
-      <c r="Z14" s="206"/>
-      <c r="AA14" s="206"/>
-      <c r="AB14" s="206"/>
-      <c r="AC14" s="206"/>
-      <c r="AD14" s="206"/>
-      <c r="AE14" s="207"/>
-      <c r="AF14" s="202"/>
-      <c r="AG14" s="203"/>
-      <c r="AH14" s="203"/>
-      <c r="AI14" s="204"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="171"/>
+      <c r="I14" s="167"/>
+      <c r="J14" s="172"/>
+      <c r="K14" s="173"/>
+      <c r="L14" s="173"/>
+      <c r="M14" s="173"/>
+      <c r="N14" s="173"/>
+      <c r="O14" s="173"/>
+      <c r="P14" s="174"/>
+      <c r="Q14" s="175"/>
+      <c r="R14" s="176"/>
+      <c r="S14" s="176"/>
+      <c r="T14" s="176"/>
+      <c r="U14" s="176"/>
+      <c r="V14" s="176"/>
+      <c r="W14" s="176"/>
+      <c r="X14" s="176"/>
+      <c r="Y14" s="176"/>
+      <c r="Z14" s="176"/>
+      <c r="AA14" s="176"/>
+      <c r="AB14" s="176"/>
+      <c r="AC14" s="176"/>
+      <c r="AD14" s="176"/>
+      <c r="AE14" s="177"/>
+      <c r="AF14" s="172"/>
+      <c r="AG14" s="173"/>
+      <c r="AH14" s="173"/>
+      <c r="AI14" s="174"/>
     </row>
     <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="196"/>
-      <c r="C15" s="197"/>
-      <c r="D15" s="198"/>
-      <c r="E15" s="199"/>
-      <c r="F15" s="200"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="201"/>
-      <c r="I15" s="197"/>
-      <c r="J15" s="202"/>
-      <c r="K15" s="203"/>
-      <c r="L15" s="203"/>
-      <c r="M15" s="203"/>
-      <c r="N15" s="203"/>
-      <c r="O15" s="203"/>
-      <c r="P15" s="204"/>
-      <c r="Q15" s="205"/>
-      <c r="R15" s="206"/>
-      <c r="S15" s="206"/>
-      <c r="T15" s="206"/>
-      <c r="U15" s="206"/>
-      <c r="V15" s="206"/>
-      <c r="W15" s="206"/>
-      <c r="X15" s="206"/>
-      <c r="Y15" s="206"/>
-      <c r="Z15" s="206"/>
-      <c r="AA15" s="206"/>
-      <c r="AB15" s="206"/>
-      <c r="AC15" s="206"/>
-      <c r="AD15" s="206"/>
-      <c r="AE15" s="207"/>
-      <c r="AF15" s="202"/>
-      <c r="AG15" s="203"/>
-      <c r="AH15" s="203"/>
-      <c r="AI15" s="204"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="171"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="172"/>
+      <c r="K15" s="173"/>
+      <c r="L15" s="173"/>
+      <c r="M15" s="173"/>
+      <c r="N15" s="173"/>
+      <c r="O15" s="173"/>
+      <c r="P15" s="174"/>
+      <c r="Q15" s="175"/>
+      <c r="R15" s="176"/>
+      <c r="S15" s="176"/>
+      <c r="T15" s="176"/>
+      <c r="U15" s="176"/>
+      <c r="V15" s="176"/>
+      <c r="W15" s="176"/>
+      <c r="X15" s="176"/>
+      <c r="Y15" s="176"/>
+      <c r="Z15" s="176"/>
+      <c r="AA15" s="176"/>
+      <c r="AB15" s="176"/>
+      <c r="AC15" s="176"/>
+      <c r="AD15" s="176"/>
+      <c r="AE15" s="177"/>
+      <c r="AF15" s="172"/>
+      <c r="AG15" s="173"/>
+      <c r="AH15" s="173"/>
+      <c r="AI15" s="174"/>
     </row>
     <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="34"/>
-      <c r="B16" s="196"/>
-      <c r="C16" s="197"/>
-      <c r="D16" s="198"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="200"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="201"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="202"/>
-      <c r="K16" s="203"/>
-      <c r="L16" s="203"/>
-      <c r="M16" s="203"/>
-      <c r="N16" s="203"/>
-      <c r="O16" s="203"/>
-      <c r="P16" s="204"/>
-      <c r="Q16" s="205"/>
-      <c r="R16" s="206"/>
-      <c r="S16" s="206"/>
-      <c r="T16" s="206"/>
-      <c r="U16" s="206"/>
-      <c r="V16" s="206"/>
-      <c r="W16" s="206"/>
-      <c r="X16" s="206"/>
-      <c r="Y16" s="206"/>
-      <c r="Z16" s="206"/>
-      <c r="AA16" s="206"/>
-      <c r="AB16" s="206"/>
-      <c r="AC16" s="206"/>
-      <c r="AD16" s="206"/>
-      <c r="AE16" s="207"/>
-      <c r="AF16" s="202"/>
-      <c r="AG16" s="203"/>
-      <c r="AH16" s="203"/>
-      <c r="AI16" s="204"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="166"/>
+      <c r="H16" s="171"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="172"/>
+      <c r="K16" s="173"/>
+      <c r="L16" s="173"/>
+      <c r="M16" s="173"/>
+      <c r="N16" s="173"/>
+      <c r="O16" s="173"/>
+      <c r="P16" s="174"/>
+      <c r="Q16" s="175"/>
+      <c r="R16" s="176"/>
+      <c r="S16" s="176"/>
+      <c r="T16" s="176"/>
+      <c r="U16" s="176"/>
+      <c r="V16" s="176"/>
+      <c r="W16" s="176"/>
+      <c r="X16" s="176"/>
+      <c r="Y16" s="176"/>
+      <c r="Z16" s="176"/>
+      <c r="AA16" s="176"/>
+      <c r="AB16" s="176"/>
+      <c r="AC16" s="176"/>
+      <c r="AD16" s="176"/>
+      <c r="AE16" s="177"/>
+      <c r="AF16" s="172"/>
+      <c r="AG16" s="173"/>
+      <c r="AH16" s="173"/>
+      <c r="AI16" s="174"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="34"/>
-      <c r="B17" s="196"/>
-      <c r="C17" s="197"/>
-      <c r="D17" s="198"/>
-      <c r="E17" s="199"/>
-      <c r="F17" s="200"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="201"/>
-      <c r="I17" s="197"/>
-      <c r="J17" s="202"/>
-      <c r="K17" s="203"/>
-      <c r="L17" s="203"/>
-      <c r="M17" s="203"/>
-      <c r="N17" s="203"/>
-      <c r="O17" s="203"/>
-      <c r="P17" s="204"/>
-      <c r="Q17" s="205"/>
-      <c r="R17" s="206"/>
-      <c r="S17" s="206"/>
-      <c r="T17" s="206"/>
-      <c r="U17" s="206"/>
-      <c r="V17" s="206"/>
-      <c r="W17" s="206"/>
-      <c r="X17" s="206"/>
-      <c r="Y17" s="206"/>
-      <c r="Z17" s="206"/>
-      <c r="AA17" s="206"/>
-      <c r="AB17" s="206"/>
-      <c r="AC17" s="206"/>
-      <c r="AD17" s="206"/>
-      <c r="AE17" s="207"/>
-      <c r="AF17" s="202"/>
-      <c r="AG17" s="203"/>
-      <c r="AH17" s="203"/>
-      <c r="AI17" s="204"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="167"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="166"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="167"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="173"/>
+      <c r="L17" s="173"/>
+      <c r="M17" s="173"/>
+      <c r="N17" s="173"/>
+      <c r="O17" s="173"/>
+      <c r="P17" s="174"/>
+      <c r="Q17" s="175"/>
+      <c r="R17" s="176"/>
+      <c r="S17" s="176"/>
+      <c r="T17" s="176"/>
+      <c r="U17" s="176"/>
+      <c r="V17" s="176"/>
+      <c r="W17" s="176"/>
+      <c r="X17" s="176"/>
+      <c r="Y17" s="176"/>
+      <c r="Z17" s="176"/>
+      <c r="AA17" s="176"/>
+      <c r="AB17" s="176"/>
+      <c r="AC17" s="176"/>
+      <c r="AD17" s="176"/>
+      <c r="AE17" s="177"/>
+      <c r="AF17" s="172"/>
+      <c r="AG17" s="173"/>
+      <c r="AH17" s="173"/>
+      <c r="AI17" s="174"/>
     </row>
     <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="34"/>
-      <c r="B18" s="196"/>
-      <c r="C18" s="197"/>
-      <c r="D18" s="198"/>
-      <c r="E18" s="199"/>
-      <c r="F18" s="200"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="201"/>
-      <c r="I18" s="197"/>
-      <c r="J18" s="202"/>
-      <c r="K18" s="203"/>
-      <c r="L18" s="203"/>
-      <c r="M18" s="203"/>
-      <c r="N18" s="203"/>
-      <c r="O18" s="203"/>
-      <c r="P18" s="204"/>
-      <c r="Q18" s="205"/>
-      <c r="R18" s="206"/>
-      <c r="S18" s="206"/>
-      <c r="T18" s="206"/>
-      <c r="U18" s="206"/>
-      <c r="V18" s="206"/>
-      <c r="W18" s="206"/>
-      <c r="X18" s="206"/>
-      <c r="Y18" s="206"/>
-      <c r="Z18" s="206"/>
-      <c r="AA18" s="206"/>
-      <c r="AB18" s="206"/>
-      <c r="AC18" s="206"/>
-      <c r="AD18" s="206"/>
-      <c r="AE18" s="207"/>
-      <c r="AF18" s="202"/>
-      <c r="AG18" s="203"/>
-      <c r="AH18" s="203"/>
-      <c r="AI18" s="204"/>
+      <c r="B18" s="166"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="168"/>
+      <c r="E18" s="169"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="167"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="173"/>
+      <c r="L18" s="173"/>
+      <c r="M18" s="173"/>
+      <c r="N18" s="173"/>
+      <c r="O18" s="173"/>
+      <c r="P18" s="174"/>
+      <c r="Q18" s="175"/>
+      <c r="R18" s="176"/>
+      <c r="S18" s="176"/>
+      <c r="T18" s="176"/>
+      <c r="U18" s="176"/>
+      <c r="V18" s="176"/>
+      <c r="W18" s="176"/>
+      <c r="X18" s="176"/>
+      <c r="Y18" s="176"/>
+      <c r="Z18" s="176"/>
+      <c r="AA18" s="176"/>
+      <c r="AB18" s="176"/>
+      <c r="AC18" s="176"/>
+      <c r="AD18" s="176"/>
+      <c r="AE18" s="177"/>
+      <c r="AF18" s="172"/>
+      <c r="AG18" s="173"/>
+      <c r="AH18" s="173"/>
+      <c r="AI18" s="174"/>
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="34"/>
-      <c r="B19" s="196"/>
-      <c r="C19" s="197"/>
-      <c r="D19" s="198"/>
-      <c r="E19" s="199"/>
-      <c r="F19" s="200"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="201"/>
-      <c r="I19" s="197"/>
-      <c r="J19" s="202"/>
-      <c r="K19" s="203"/>
-      <c r="L19" s="203"/>
-      <c r="M19" s="203"/>
-      <c r="N19" s="203"/>
-      <c r="O19" s="203"/>
-      <c r="P19" s="204"/>
-      <c r="Q19" s="205"/>
-      <c r="R19" s="206"/>
-      <c r="S19" s="206"/>
-      <c r="T19" s="206"/>
-      <c r="U19" s="206"/>
-      <c r="V19" s="206"/>
-      <c r="W19" s="206"/>
-      <c r="X19" s="206"/>
-      <c r="Y19" s="206"/>
-      <c r="Z19" s="206"/>
-      <c r="AA19" s="206"/>
-      <c r="AB19" s="206"/>
-      <c r="AC19" s="206"/>
-      <c r="AD19" s="206"/>
-      <c r="AE19" s="207"/>
-      <c r="AF19" s="202"/>
-      <c r="AG19" s="203"/>
-      <c r="AH19" s="203"/>
-      <c r="AI19" s="204"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="168"/>
+      <c r="E19" s="169"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="167"/>
+      <c r="J19" s="172"/>
+      <c r="K19" s="173"/>
+      <c r="L19" s="173"/>
+      <c r="M19" s="173"/>
+      <c r="N19" s="173"/>
+      <c r="O19" s="173"/>
+      <c r="P19" s="174"/>
+      <c r="Q19" s="175"/>
+      <c r="R19" s="176"/>
+      <c r="S19" s="176"/>
+      <c r="T19" s="176"/>
+      <c r="U19" s="176"/>
+      <c r="V19" s="176"/>
+      <c r="W19" s="176"/>
+      <c r="X19" s="176"/>
+      <c r="Y19" s="176"/>
+      <c r="Z19" s="176"/>
+      <c r="AA19" s="176"/>
+      <c r="AB19" s="176"/>
+      <c r="AC19" s="176"/>
+      <c r="AD19" s="176"/>
+      <c r="AE19" s="177"/>
+      <c r="AF19" s="172"/>
+      <c r="AG19" s="173"/>
+      <c r="AH19" s="173"/>
+      <c r="AI19" s="174"/>
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="34"/>
-      <c r="B20" s="196"/>
-      <c r="C20" s="197"/>
-      <c r="D20" s="198"/>
-      <c r="E20" s="199"/>
-      <c r="F20" s="200"/>
-      <c r="G20" s="196"/>
-      <c r="H20" s="201"/>
-      <c r="I20" s="197"/>
-      <c r="J20" s="202"/>
-      <c r="K20" s="203"/>
-      <c r="L20" s="203"/>
-      <c r="M20" s="203"/>
-      <c r="N20" s="203"/>
-      <c r="O20" s="203"/>
-      <c r="P20" s="204"/>
-      <c r="Q20" s="205"/>
-      <c r="R20" s="206"/>
-      <c r="S20" s="206"/>
-      <c r="T20" s="206"/>
-      <c r="U20" s="206"/>
-      <c r="V20" s="206"/>
-      <c r="W20" s="206"/>
-      <c r="X20" s="206"/>
-      <c r="Y20" s="206"/>
-      <c r="Z20" s="206"/>
-      <c r="AA20" s="206"/>
-      <c r="AB20" s="206"/>
-      <c r="AC20" s="206"/>
-      <c r="AD20" s="206"/>
-      <c r="AE20" s="207"/>
-      <c r="AF20" s="202"/>
-      <c r="AG20" s="203"/>
-      <c r="AH20" s="203"/>
-      <c r="AI20" s="204"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="172"/>
+      <c r="K20" s="173"/>
+      <c r="L20" s="173"/>
+      <c r="M20" s="173"/>
+      <c r="N20" s="173"/>
+      <c r="O20" s="173"/>
+      <c r="P20" s="174"/>
+      <c r="Q20" s="175"/>
+      <c r="R20" s="176"/>
+      <c r="S20" s="176"/>
+      <c r="T20" s="176"/>
+      <c r="U20" s="176"/>
+      <c r="V20" s="176"/>
+      <c r="W20" s="176"/>
+      <c r="X20" s="176"/>
+      <c r="Y20" s="176"/>
+      <c r="Z20" s="176"/>
+      <c r="AA20" s="176"/>
+      <c r="AB20" s="176"/>
+      <c r="AC20" s="176"/>
+      <c r="AD20" s="176"/>
+      <c r="AE20" s="177"/>
+      <c r="AF20" s="172"/>
+      <c r="AG20" s="173"/>
+      <c r="AH20" s="173"/>
+      <c r="AI20" s="174"/>
     </row>
     <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="34"/>
-      <c r="B21" s="196"/>
-      <c r="C21" s="197"/>
-      <c r="D21" s="198"/>
-      <c r="E21" s="199"/>
-      <c r="F21" s="200"/>
-      <c r="G21" s="196"/>
-      <c r="H21" s="201"/>
-      <c r="I21" s="197"/>
-      <c r="J21" s="202"/>
-      <c r="K21" s="203"/>
-      <c r="L21" s="203"/>
-      <c r="M21" s="203"/>
-      <c r="N21" s="203"/>
-      <c r="O21" s="203"/>
-      <c r="P21" s="204"/>
-      <c r="Q21" s="205"/>
-      <c r="R21" s="206"/>
-      <c r="S21" s="206"/>
-      <c r="T21" s="206"/>
-      <c r="U21" s="206"/>
-      <c r="V21" s="206"/>
-      <c r="W21" s="206"/>
-      <c r="X21" s="206"/>
-      <c r="Y21" s="206"/>
-      <c r="Z21" s="206"/>
-      <c r="AA21" s="206"/>
-      <c r="AB21" s="206"/>
-      <c r="AC21" s="206"/>
-      <c r="AD21" s="206"/>
-      <c r="AE21" s="207"/>
-      <c r="AF21" s="202"/>
-      <c r="AG21" s="203"/>
-      <c r="AH21" s="203"/>
-      <c r="AI21" s="204"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="167"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="172"/>
+      <c r="K21" s="173"/>
+      <c r="L21" s="173"/>
+      <c r="M21" s="173"/>
+      <c r="N21" s="173"/>
+      <c r="O21" s="173"/>
+      <c r="P21" s="174"/>
+      <c r="Q21" s="175"/>
+      <c r="R21" s="176"/>
+      <c r="S21" s="176"/>
+      <c r="T21" s="176"/>
+      <c r="U21" s="176"/>
+      <c r="V21" s="176"/>
+      <c r="W21" s="176"/>
+      <c r="X21" s="176"/>
+      <c r="Y21" s="176"/>
+      <c r="Z21" s="176"/>
+      <c r="AA21" s="176"/>
+      <c r="AB21" s="176"/>
+      <c r="AC21" s="176"/>
+      <c r="AD21" s="176"/>
+      <c r="AE21" s="177"/>
+      <c r="AF21" s="172"/>
+      <c r="AG21" s="173"/>
+      <c r="AH21" s="173"/>
+      <c r="AI21" s="174"/>
     </row>
     <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="34"/>
-      <c r="B22" s="196"/>
-      <c r="C22" s="197"/>
-      <c r="D22" s="198"/>
-      <c r="E22" s="199"/>
-      <c r="F22" s="200"/>
-      <c r="G22" s="196"/>
-      <c r="H22" s="201"/>
-      <c r="I22" s="197"/>
-      <c r="J22" s="202"/>
-      <c r="K22" s="203"/>
-      <c r="L22" s="203"/>
-      <c r="M22" s="203"/>
-      <c r="N22" s="203"/>
-      <c r="O22" s="203"/>
-      <c r="P22" s="204"/>
-      <c r="Q22" s="205"/>
-      <c r="R22" s="206"/>
-      <c r="S22" s="206"/>
-      <c r="T22" s="206"/>
-      <c r="U22" s="206"/>
-      <c r="V22" s="206"/>
-      <c r="W22" s="206"/>
-      <c r="X22" s="206"/>
-      <c r="Y22" s="206"/>
-      <c r="Z22" s="206"/>
-      <c r="AA22" s="206"/>
-      <c r="AB22" s="206"/>
-      <c r="AC22" s="206"/>
-      <c r="AD22" s="206"/>
-      <c r="AE22" s="207"/>
-      <c r="AF22" s="202"/>
-      <c r="AG22" s="203"/>
-      <c r="AH22" s="203"/>
-      <c r="AI22" s="204"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="172"/>
+      <c r="K22" s="173"/>
+      <c r="L22" s="173"/>
+      <c r="M22" s="173"/>
+      <c r="N22" s="173"/>
+      <c r="O22" s="173"/>
+      <c r="P22" s="174"/>
+      <c r="Q22" s="175"/>
+      <c r="R22" s="176"/>
+      <c r="S22" s="176"/>
+      <c r="T22" s="176"/>
+      <c r="U22" s="176"/>
+      <c r="V22" s="176"/>
+      <c r="W22" s="176"/>
+      <c r="X22" s="176"/>
+      <c r="Y22" s="176"/>
+      <c r="Z22" s="176"/>
+      <c r="AA22" s="176"/>
+      <c r="AB22" s="176"/>
+      <c r="AC22" s="176"/>
+      <c r="AD22" s="176"/>
+      <c r="AE22" s="177"/>
+      <c r="AF22" s="172"/>
+      <c r="AG22" s="173"/>
+      <c r="AH22" s="173"/>
+      <c r="AI22" s="174"/>
     </row>
     <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="34"/>
-      <c r="B23" s="196"/>
-      <c r="C23" s="197"/>
-      <c r="D23" s="198"/>
-      <c r="E23" s="199"/>
-      <c r="F23" s="200"/>
-      <c r="G23" s="196"/>
-      <c r="H23" s="201"/>
-      <c r="I23" s="197"/>
-      <c r="J23" s="202"/>
-      <c r="K23" s="203"/>
-      <c r="L23" s="203"/>
-      <c r="M23" s="203"/>
-      <c r="N23" s="203"/>
-      <c r="O23" s="203"/>
-      <c r="P23" s="204"/>
-      <c r="Q23" s="205"/>
-      <c r="R23" s="206"/>
-      <c r="S23" s="206"/>
-      <c r="T23" s="206"/>
-      <c r="U23" s="206"/>
-      <c r="V23" s="206"/>
-      <c r="W23" s="206"/>
-      <c r="X23" s="206"/>
-      <c r="Y23" s="206"/>
-      <c r="Z23" s="206"/>
-      <c r="AA23" s="206"/>
-      <c r="AB23" s="206"/>
-      <c r="AC23" s="206"/>
-      <c r="AD23" s="206"/>
-      <c r="AE23" s="207"/>
-      <c r="AF23" s="202"/>
-      <c r="AG23" s="203"/>
-      <c r="AH23" s="203"/>
-      <c r="AI23" s="204"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="166"/>
+      <c r="H23" s="171"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="172"/>
+      <c r="K23" s="173"/>
+      <c r="L23" s="173"/>
+      <c r="M23" s="173"/>
+      <c r="N23" s="173"/>
+      <c r="O23" s="173"/>
+      <c r="P23" s="174"/>
+      <c r="Q23" s="175"/>
+      <c r="R23" s="176"/>
+      <c r="S23" s="176"/>
+      <c r="T23" s="176"/>
+      <c r="U23" s="176"/>
+      <c r="V23" s="176"/>
+      <c r="W23" s="176"/>
+      <c r="X23" s="176"/>
+      <c r="Y23" s="176"/>
+      <c r="Z23" s="176"/>
+      <c r="AA23" s="176"/>
+      <c r="AB23" s="176"/>
+      <c r="AC23" s="176"/>
+      <c r="AD23" s="176"/>
+      <c r="AE23" s="177"/>
+      <c r="AF23" s="172"/>
+      <c r="AG23" s="173"/>
+      <c r="AH23" s="173"/>
+      <c r="AI23" s="174"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="34"/>
-      <c r="B24" s="196"/>
-      <c r="C24" s="197"/>
-      <c r="D24" s="198"/>
-      <c r="E24" s="199"/>
-      <c r="F24" s="200"/>
-      <c r="G24" s="196"/>
-      <c r="H24" s="201"/>
-      <c r="I24" s="197"/>
-      <c r="J24" s="202"/>
-      <c r="K24" s="203"/>
-      <c r="L24" s="203"/>
-      <c r="M24" s="203"/>
-      <c r="N24" s="203"/>
-      <c r="O24" s="203"/>
-      <c r="P24" s="204"/>
-      <c r="Q24" s="205"/>
-      <c r="R24" s="206"/>
-      <c r="S24" s="206"/>
-      <c r="T24" s="206"/>
-      <c r="U24" s="206"/>
-      <c r="V24" s="206"/>
-      <c r="W24" s="206"/>
-      <c r="X24" s="206"/>
-      <c r="Y24" s="206"/>
-      <c r="Z24" s="206"/>
-      <c r="AA24" s="206"/>
-      <c r="AB24" s="206"/>
-      <c r="AC24" s="206"/>
-      <c r="AD24" s="206"/>
-      <c r="AE24" s="207"/>
-      <c r="AF24" s="202"/>
-      <c r="AG24" s="203"/>
-      <c r="AH24" s="203"/>
-      <c r="AI24" s="204"/>
+      <c r="B24" s="166"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="166"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="167"/>
+      <c r="J24" s="172"/>
+      <c r="K24" s="173"/>
+      <c r="L24" s="173"/>
+      <c r="M24" s="173"/>
+      <c r="N24" s="173"/>
+      <c r="O24" s="173"/>
+      <c r="P24" s="174"/>
+      <c r="Q24" s="175"/>
+      <c r="R24" s="176"/>
+      <c r="S24" s="176"/>
+      <c r="T24" s="176"/>
+      <c r="U24" s="176"/>
+      <c r="V24" s="176"/>
+      <c r="W24" s="176"/>
+      <c r="X24" s="176"/>
+      <c r="Y24" s="176"/>
+      <c r="Z24" s="176"/>
+      <c r="AA24" s="176"/>
+      <c r="AB24" s="176"/>
+      <c r="AC24" s="176"/>
+      <c r="AD24" s="176"/>
+      <c r="AE24" s="177"/>
+      <c r="AF24" s="172"/>
+      <c r="AG24" s="173"/>
+      <c r="AH24" s="173"/>
+      <c r="AI24" s="174"/>
     </row>
     <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="34"/>
-      <c r="B25" s="196"/>
-      <c r="C25" s="197"/>
-      <c r="D25" s="198"/>
-      <c r="E25" s="199"/>
-      <c r="F25" s="200"/>
-      <c r="G25" s="196"/>
-      <c r="H25" s="201"/>
-      <c r="I25" s="197"/>
-      <c r="J25" s="202"/>
-      <c r="K25" s="203"/>
-      <c r="L25" s="203"/>
-      <c r="M25" s="203"/>
-      <c r="N25" s="203"/>
-      <c r="O25" s="203"/>
-      <c r="P25" s="204"/>
-      <c r="Q25" s="205"/>
-      <c r="R25" s="206"/>
-      <c r="S25" s="206"/>
-      <c r="T25" s="206"/>
-      <c r="U25" s="206"/>
-      <c r="V25" s="206"/>
-      <c r="W25" s="206"/>
-      <c r="X25" s="206"/>
-      <c r="Y25" s="206"/>
-      <c r="Z25" s="206"/>
-      <c r="AA25" s="206"/>
-      <c r="AB25" s="206"/>
-      <c r="AC25" s="206"/>
-      <c r="AD25" s="206"/>
-      <c r="AE25" s="207"/>
-      <c r="AF25" s="202"/>
-      <c r="AG25" s="203"/>
-      <c r="AH25" s="203"/>
-      <c r="AI25" s="204"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="166"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="167"/>
+      <c r="J25" s="172"/>
+      <c r="K25" s="173"/>
+      <c r="L25" s="173"/>
+      <c r="M25" s="173"/>
+      <c r="N25" s="173"/>
+      <c r="O25" s="173"/>
+      <c r="P25" s="174"/>
+      <c r="Q25" s="175"/>
+      <c r="R25" s="176"/>
+      <c r="S25" s="176"/>
+      <c r="T25" s="176"/>
+      <c r="U25" s="176"/>
+      <c r="V25" s="176"/>
+      <c r="W25" s="176"/>
+      <c r="X25" s="176"/>
+      <c r="Y25" s="176"/>
+      <c r="Z25" s="176"/>
+      <c r="AA25" s="176"/>
+      <c r="AB25" s="176"/>
+      <c r="AC25" s="176"/>
+      <c r="AD25" s="176"/>
+      <c r="AE25" s="177"/>
+      <c r="AF25" s="172"/>
+      <c r="AG25" s="173"/>
+      <c r="AH25" s="173"/>
+      <c r="AI25" s="174"/>
     </row>
     <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="34"/>
-      <c r="B26" s="196"/>
-      <c r="C26" s="197"/>
-      <c r="D26" s="198"/>
-      <c r="E26" s="199"/>
-      <c r="F26" s="200"/>
-      <c r="G26" s="196"/>
-      <c r="H26" s="201"/>
-      <c r="I26" s="197"/>
-      <c r="J26" s="202"/>
-      <c r="K26" s="203"/>
-      <c r="L26" s="203"/>
-      <c r="M26" s="203"/>
-      <c r="N26" s="203"/>
-      <c r="O26" s="203"/>
-      <c r="P26" s="204"/>
-      <c r="Q26" s="205"/>
-      <c r="R26" s="206"/>
-      <c r="S26" s="206"/>
-      <c r="T26" s="206"/>
-      <c r="U26" s="206"/>
-      <c r="V26" s="206"/>
-      <c r="W26" s="206"/>
-      <c r="X26" s="206"/>
-      <c r="Y26" s="206"/>
-      <c r="Z26" s="206"/>
-      <c r="AA26" s="206"/>
-      <c r="AB26" s="206"/>
-      <c r="AC26" s="206"/>
-      <c r="AD26" s="206"/>
-      <c r="AE26" s="207"/>
-      <c r="AF26" s="202"/>
-      <c r="AG26" s="203"/>
-      <c r="AH26" s="203"/>
-      <c r="AI26" s="204"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="167"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="169"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="166"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="172"/>
+      <c r="K26" s="173"/>
+      <c r="L26" s="173"/>
+      <c r="M26" s="173"/>
+      <c r="N26" s="173"/>
+      <c r="O26" s="173"/>
+      <c r="P26" s="174"/>
+      <c r="Q26" s="175"/>
+      <c r="R26" s="176"/>
+      <c r="S26" s="176"/>
+      <c r="T26" s="176"/>
+      <c r="U26" s="176"/>
+      <c r="V26" s="176"/>
+      <c r="W26" s="176"/>
+      <c r="X26" s="176"/>
+      <c r="Y26" s="176"/>
+      <c r="Z26" s="176"/>
+      <c r="AA26" s="176"/>
+      <c r="AB26" s="176"/>
+      <c r="AC26" s="176"/>
+      <c r="AD26" s="176"/>
+      <c r="AE26" s="177"/>
+      <c r="AF26" s="172"/>
+      <c r="AG26" s="173"/>
+      <c r="AH26" s="173"/>
+      <c r="AI26" s="174"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="34"/>
-      <c r="B27" s="196"/>
-      <c r="C27" s="197"/>
-      <c r="D27" s="198"/>
-      <c r="E27" s="199"/>
-      <c r="F27" s="200"/>
-      <c r="G27" s="196"/>
-      <c r="H27" s="201"/>
-      <c r="I27" s="197"/>
-      <c r="J27" s="202"/>
-      <c r="K27" s="203"/>
-      <c r="L27" s="203"/>
-      <c r="M27" s="203"/>
-      <c r="N27" s="203"/>
-      <c r="O27" s="203"/>
-      <c r="P27" s="204"/>
-      <c r="Q27" s="205"/>
-      <c r="R27" s="206"/>
-      <c r="S27" s="206"/>
-      <c r="T27" s="206"/>
-      <c r="U27" s="206"/>
-      <c r="V27" s="206"/>
-      <c r="W27" s="206"/>
-      <c r="X27" s="206"/>
-      <c r="Y27" s="206"/>
-      <c r="Z27" s="206"/>
-      <c r="AA27" s="206"/>
-      <c r="AB27" s="206"/>
-      <c r="AC27" s="206"/>
-      <c r="AD27" s="206"/>
-      <c r="AE27" s="207"/>
-      <c r="AF27" s="202"/>
-      <c r="AG27" s="203"/>
-      <c r="AH27" s="203"/>
-      <c r="AI27" s="204"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="172"/>
+      <c r="K27" s="173"/>
+      <c r="L27" s="173"/>
+      <c r="M27" s="173"/>
+      <c r="N27" s="173"/>
+      <c r="O27" s="173"/>
+      <c r="P27" s="174"/>
+      <c r="Q27" s="175"/>
+      <c r="R27" s="176"/>
+      <c r="S27" s="176"/>
+      <c r="T27" s="176"/>
+      <c r="U27" s="176"/>
+      <c r="V27" s="176"/>
+      <c r="W27" s="176"/>
+      <c r="X27" s="176"/>
+      <c r="Y27" s="176"/>
+      <c r="Z27" s="176"/>
+      <c r="AA27" s="176"/>
+      <c r="AB27" s="176"/>
+      <c r="AC27" s="176"/>
+      <c r="AD27" s="176"/>
+      <c r="AE27" s="177"/>
+      <c r="AF27" s="172"/>
+      <c r="AG27" s="173"/>
+      <c r="AH27" s="173"/>
+      <c r="AI27" s="174"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="34"/>
-      <c r="B28" s="196"/>
-      <c r="C28" s="197"/>
-      <c r="D28" s="198"/>
-      <c r="E28" s="199"/>
-      <c r="F28" s="200"/>
-      <c r="G28" s="196"/>
-      <c r="H28" s="201"/>
-      <c r="I28" s="197"/>
-      <c r="J28" s="202"/>
-      <c r="K28" s="203"/>
-      <c r="L28" s="203"/>
-      <c r="M28" s="203"/>
-      <c r="N28" s="203"/>
-      <c r="O28" s="203"/>
-      <c r="P28" s="204"/>
-      <c r="Q28" s="205"/>
-      <c r="R28" s="206"/>
-      <c r="S28" s="206"/>
-      <c r="T28" s="206"/>
-      <c r="U28" s="206"/>
-      <c r="V28" s="206"/>
-      <c r="W28" s="206"/>
-      <c r="X28" s="206"/>
-      <c r="Y28" s="206"/>
-      <c r="Z28" s="206"/>
-      <c r="AA28" s="206"/>
-      <c r="AB28" s="206"/>
-      <c r="AC28" s="206"/>
-      <c r="AD28" s="206"/>
-      <c r="AE28" s="207"/>
-      <c r="AF28" s="202"/>
-      <c r="AG28" s="203"/>
-      <c r="AH28" s="203"/>
-      <c r="AI28" s="204"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="172"/>
+      <c r="K28" s="173"/>
+      <c r="L28" s="173"/>
+      <c r="M28" s="173"/>
+      <c r="N28" s="173"/>
+      <c r="O28" s="173"/>
+      <c r="P28" s="174"/>
+      <c r="Q28" s="175"/>
+      <c r="R28" s="176"/>
+      <c r="S28" s="176"/>
+      <c r="T28" s="176"/>
+      <c r="U28" s="176"/>
+      <c r="V28" s="176"/>
+      <c r="W28" s="176"/>
+      <c r="X28" s="176"/>
+      <c r="Y28" s="176"/>
+      <c r="Z28" s="176"/>
+      <c r="AA28" s="176"/>
+      <c r="AB28" s="176"/>
+      <c r="AC28" s="176"/>
+      <c r="AD28" s="176"/>
+      <c r="AE28" s="177"/>
+      <c r="AF28" s="172"/>
+      <c r="AG28" s="173"/>
+      <c r="AH28" s="173"/>
+      <c r="AI28" s="174"/>
     </row>
     <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="34"/>
-      <c r="B29" s="196"/>
-      <c r="C29" s="197"/>
-      <c r="D29" s="198"/>
-      <c r="E29" s="199"/>
-      <c r="F29" s="200"/>
-      <c r="G29" s="196"/>
-      <c r="H29" s="201"/>
-      <c r="I29" s="197"/>
-      <c r="J29" s="202"/>
-      <c r="K29" s="203"/>
-      <c r="L29" s="203"/>
-      <c r="M29" s="203"/>
-      <c r="N29" s="203"/>
-      <c r="O29" s="203"/>
-      <c r="P29" s="204"/>
-      <c r="Q29" s="205"/>
-      <c r="R29" s="206"/>
-      <c r="S29" s="206"/>
-      <c r="T29" s="206"/>
-      <c r="U29" s="206"/>
-      <c r="V29" s="206"/>
-      <c r="W29" s="206"/>
-      <c r="X29" s="206"/>
-      <c r="Y29" s="206"/>
-      <c r="Z29" s="206"/>
-      <c r="AA29" s="206"/>
-      <c r="AB29" s="206"/>
-      <c r="AC29" s="206"/>
-      <c r="AD29" s="206"/>
-      <c r="AE29" s="207"/>
-      <c r="AF29" s="202"/>
-      <c r="AG29" s="203"/>
-      <c r="AH29" s="203"/>
-      <c r="AI29" s="204"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="168"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="166"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="172"/>
+      <c r="K29" s="173"/>
+      <c r="L29" s="173"/>
+      <c r="M29" s="173"/>
+      <c r="N29" s="173"/>
+      <c r="O29" s="173"/>
+      <c r="P29" s="174"/>
+      <c r="Q29" s="175"/>
+      <c r="R29" s="176"/>
+      <c r="S29" s="176"/>
+      <c r="T29" s="176"/>
+      <c r="U29" s="176"/>
+      <c r="V29" s="176"/>
+      <c r="W29" s="176"/>
+      <c r="X29" s="176"/>
+      <c r="Y29" s="176"/>
+      <c r="Z29" s="176"/>
+      <c r="AA29" s="176"/>
+      <c r="AB29" s="176"/>
+      <c r="AC29" s="176"/>
+      <c r="AD29" s="176"/>
+      <c r="AE29" s="177"/>
+      <c r="AF29" s="172"/>
+      <c r="AG29" s="173"/>
+      <c r="AH29" s="173"/>
+      <c r="AI29" s="174"/>
     </row>
     <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="34"/>
-      <c r="B30" s="196"/>
-      <c r="C30" s="197"/>
-      <c r="D30" s="198"/>
-      <c r="E30" s="199"/>
-      <c r="F30" s="200"/>
-      <c r="G30" s="196"/>
-      <c r="H30" s="201"/>
-      <c r="I30" s="197"/>
-      <c r="J30" s="202"/>
-      <c r="K30" s="203"/>
-      <c r="L30" s="203"/>
-      <c r="M30" s="203"/>
-      <c r="N30" s="203"/>
-      <c r="O30" s="203"/>
-      <c r="P30" s="204"/>
-      <c r="Q30" s="205"/>
-      <c r="R30" s="206"/>
-      <c r="S30" s="206"/>
-      <c r="T30" s="206"/>
-      <c r="U30" s="206"/>
-      <c r="V30" s="206"/>
-      <c r="W30" s="206"/>
-      <c r="X30" s="206"/>
-      <c r="Y30" s="206"/>
-      <c r="Z30" s="206"/>
-      <c r="AA30" s="206"/>
-      <c r="AB30" s="206"/>
-      <c r="AC30" s="206"/>
-      <c r="AD30" s="206"/>
-      <c r="AE30" s="207"/>
-      <c r="AF30" s="202"/>
-      <c r="AG30" s="203"/>
-      <c r="AH30" s="203"/>
-      <c r="AI30" s="204"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="166"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="172"/>
+      <c r="K30" s="173"/>
+      <c r="L30" s="173"/>
+      <c r="M30" s="173"/>
+      <c r="N30" s="173"/>
+      <c r="O30" s="173"/>
+      <c r="P30" s="174"/>
+      <c r="Q30" s="175"/>
+      <c r="R30" s="176"/>
+      <c r="S30" s="176"/>
+      <c r="T30" s="176"/>
+      <c r="U30" s="176"/>
+      <c r="V30" s="176"/>
+      <c r="W30" s="176"/>
+      <c r="X30" s="176"/>
+      <c r="Y30" s="176"/>
+      <c r="Z30" s="176"/>
+      <c r="AA30" s="176"/>
+      <c r="AB30" s="176"/>
+      <c r="AC30" s="176"/>
+      <c r="AD30" s="176"/>
+      <c r="AE30" s="177"/>
+      <c r="AF30" s="172"/>
+      <c r="AG30" s="173"/>
+      <c r="AH30" s="173"/>
+      <c r="AI30" s="174"/>
     </row>
     <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="34"/>
-      <c r="B31" s="196"/>
-      <c r="C31" s="197"/>
-      <c r="D31" s="198"/>
-      <c r="E31" s="199"/>
-      <c r="F31" s="200"/>
-      <c r="G31" s="196"/>
-      <c r="H31" s="201"/>
-      <c r="I31" s="197"/>
-      <c r="J31" s="202"/>
-      <c r="K31" s="203"/>
-      <c r="L31" s="203"/>
-      <c r="M31" s="203"/>
-      <c r="N31" s="203"/>
-      <c r="O31" s="203"/>
-      <c r="P31" s="204"/>
-      <c r="Q31" s="205"/>
-      <c r="R31" s="206"/>
-      <c r="S31" s="206"/>
-      <c r="T31" s="206"/>
-      <c r="U31" s="206"/>
-      <c r="V31" s="206"/>
-      <c r="W31" s="206"/>
-      <c r="X31" s="206"/>
-      <c r="Y31" s="206"/>
-      <c r="Z31" s="206"/>
-      <c r="AA31" s="206"/>
-      <c r="AB31" s="206"/>
-      <c r="AC31" s="206"/>
-      <c r="AD31" s="206"/>
-      <c r="AE31" s="207"/>
-      <c r="AF31" s="202"/>
-      <c r="AG31" s="203"/>
-      <c r="AH31" s="203"/>
-      <c r="AI31" s="204"/>
+      <c r="B31" s="166"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="169"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="166"/>
+      <c r="H31" s="171"/>
+      <c r="I31" s="167"/>
+      <c r="J31" s="172"/>
+      <c r="K31" s="173"/>
+      <c r="L31" s="173"/>
+      <c r="M31" s="173"/>
+      <c r="N31" s="173"/>
+      <c r="O31" s="173"/>
+      <c r="P31" s="174"/>
+      <c r="Q31" s="175"/>
+      <c r="R31" s="176"/>
+      <c r="S31" s="176"/>
+      <c r="T31" s="176"/>
+      <c r="U31" s="176"/>
+      <c r="V31" s="176"/>
+      <c r="W31" s="176"/>
+      <c r="X31" s="176"/>
+      <c r="Y31" s="176"/>
+      <c r="Z31" s="176"/>
+      <c r="AA31" s="176"/>
+      <c r="AB31" s="176"/>
+      <c r="AC31" s="176"/>
+      <c r="AD31" s="176"/>
+      <c r="AE31" s="177"/>
+      <c r="AF31" s="172"/>
+      <c r="AG31" s="173"/>
+      <c r="AH31" s="173"/>
+      <c r="AI31" s="174"/>
     </row>
     <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="34"/>
-      <c r="B32" s="196"/>
-      <c r="C32" s="197"/>
-      <c r="D32" s="198"/>
-      <c r="E32" s="199"/>
-      <c r="F32" s="200"/>
-      <c r="G32" s="196"/>
-      <c r="H32" s="201"/>
-      <c r="I32" s="197"/>
-      <c r="J32" s="202"/>
-      <c r="K32" s="222"/>
-      <c r="L32" s="203"/>
-      <c r="M32" s="203"/>
-      <c r="N32" s="203"/>
-      <c r="O32" s="203"/>
-      <c r="P32" s="204"/>
-      <c r="Q32" s="205"/>
-      <c r="R32" s="206"/>
-      <c r="S32" s="206"/>
-      <c r="T32" s="206"/>
-      <c r="U32" s="206"/>
-      <c r="V32" s="206"/>
-      <c r="W32" s="206"/>
-      <c r="X32" s="206"/>
-      <c r="Y32" s="206"/>
-      <c r="Z32" s="206"/>
-      <c r="AA32" s="206"/>
-      <c r="AB32" s="206"/>
-      <c r="AC32" s="206"/>
-      <c r="AD32" s="206"/>
-      <c r="AE32" s="207"/>
-      <c r="AF32" s="202"/>
-      <c r="AG32" s="203"/>
-      <c r="AH32" s="203"/>
-      <c r="AI32" s="204"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="169"/>
+      <c r="F32" s="170"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="171"/>
+      <c r="I32" s="167"/>
+      <c r="J32" s="172"/>
+      <c r="K32" s="178"/>
+      <c r="L32" s="173"/>
+      <c r="M32" s="173"/>
+      <c r="N32" s="173"/>
+      <c r="O32" s="173"/>
+      <c r="P32" s="174"/>
+      <c r="Q32" s="175"/>
+      <c r="R32" s="176"/>
+      <c r="S32" s="176"/>
+      <c r="T32" s="176"/>
+      <c r="U32" s="176"/>
+      <c r="V32" s="176"/>
+      <c r="W32" s="176"/>
+      <c r="X32" s="176"/>
+      <c r="Y32" s="176"/>
+      <c r="Z32" s="176"/>
+      <c r="AA32" s="176"/>
+      <c r="AB32" s="176"/>
+      <c r="AC32" s="176"/>
+      <c r="AD32" s="176"/>
+      <c r="AE32" s="177"/>
+      <c r="AF32" s="172"/>
+      <c r="AG32" s="173"/>
+      <c r="AH32" s="173"/>
+      <c r="AI32" s="174"/>
     </row>
     <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="34"/>
-      <c r="B33" s="196"/>
-      <c r="C33" s="197"/>
-      <c r="D33" s="198"/>
-      <c r="E33" s="199"/>
-      <c r="F33" s="200"/>
-      <c r="G33" s="196"/>
-      <c r="H33" s="201"/>
-      <c r="I33" s="197"/>
-      <c r="J33" s="202"/>
-      <c r="K33" s="203"/>
-      <c r="L33" s="203"/>
-      <c r="M33" s="203"/>
-      <c r="N33" s="203"/>
-      <c r="O33" s="203"/>
-      <c r="P33" s="204"/>
-      <c r="Q33" s="205"/>
-      <c r="R33" s="206"/>
-      <c r="S33" s="206"/>
-      <c r="T33" s="206"/>
-      <c r="U33" s="206"/>
-      <c r="V33" s="206"/>
-      <c r="W33" s="206"/>
-      <c r="X33" s="206"/>
-      <c r="Y33" s="206"/>
-      <c r="Z33" s="206"/>
-      <c r="AA33" s="206"/>
-      <c r="AB33" s="206"/>
-      <c r="AC33" s="206"/>
-      <c r="AD33" s="206"/>
-      <c r="AE33" s="207"/>
-      <c r="AF33" s="202"/>
-      <c r="AG33" s="203"/>
-      <c r="AH33" s="203"/>
-      <c r="AI33" s="204"/>
+      <c r="B33" s="166"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="166"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="172"/>
+      <c r="K33" s="173"/>
+      <c r="L33" s="173"/>
+      <c r="M33" s="173"/>
+      <c r="N33" s="173"/>
+      <c r="O33" s="173"/>
+      <c r="P33" s="174"/>
+      <c r="Q33" s="175"/>
+      <c r="R33" s="176"/>
+      <c r="S33" s="176"/>
+      <c r="T33" s="176"/>
+      <c r="U33" s="176"/>
+      <c r="V33" s="176"/>
+      <c r="W33" s="176"/>
+      <c r="X33" s="176"/>
+      <c r="Y33" s="176"/>
+      <c r="Z33" s="176"/>
+      <c r="AA33" s="176"/>
+      <c r="AB33" s="176"/>
+      <c r="AC33" s="176"/>
+      <c r="AD33" s="176"/>
+      <c r="AE33" s="177"/>
+      <c r="AF33" s="172"/>
+      <c r="AG33" s="173"/>
+      <c r="AH33" s="173"/>
+      <c r="AI33" s="174"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -7722,6 +7566,162 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7877,157 +7877,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="223" t="s">
+      <c r="A1" s="249" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="224"/>
-      <c r="C1" s="224"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="235" t="str">
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
-      <c r="N1" s="237"/>
-      <c r="O1" s="226" t="s">
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="239"/>
+      <c r="O1" s="252" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="227"/>
-      <c r="Q1" s="227"/>
-      <c r="R1" s="228"/>
-      <c r="S1" s="244" t="str">
+      <c r="P1" s="253"/>
+      <c r="Q1" s="253"/>
+      <c r="R1" s="254"/>
+      <c r="S1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="245"/>
-      <c r="U1" s="245"/>
-      <c r="V1" s="245"/>
-      <c r="W1" s="245"/>
-      <c r="X1" s="245"/>
-      <c r="Y1" s="245"/>
-      <c r="Z1" s="246"/>
-      <c r="AA1" s="223" t="s">
+      <c r="T1" s="241"/>
+      <c r="U1" s="241"/>
+      <c r="V1" s="241"/>
+      <c r="W1" s="241"/>
+      <c r="X1" s="241"/>
+      <c r="Y1" s="241"/>
+      <c r="Z1" s="242"/>
+      <c r="AA1" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="225"/>
-      <c r="AC1" s="238" t="str">
+      <c r="AB1" s="251"/>
+      <c r="AC1" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="239"/>
-      <c r="AE1" s="239"/>
-      <c r="AF1" s="240"/>
-      <c r="AG1" s="241">
+      <c r="AD1" s="232"/>
+      <c r="AE1" s="232"/>
+      <c r="AF1" s="233"/>
+      <c r="AG1" s="234">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="242"/>
-      <c r="AI1" s="243"/>
+      <c r="AH1" s="235"/>
+      <c r="AI1" s="236"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="223" t="s">
+      <c r="A2" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="224"/>
-      <c r="C2" s="224"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="235" t="str">
+      <c r="B2" s="250"/>
+      <c r="C2" s="250"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="237"/>
-      <c r="O2" s="229"/>
-      <c r="P2" s="230"/>
-      <c r="Q2" s="230"/>
-      <c r="R2" s="231"/>
-      <c r="S2" s="247"/>
-      <c r="T2" s="248"/>
-      <c r="U2" s="248"/>
-      <c r="V2" s="248"/>
-      <c r="W2" s="248"/>
-      <c r="X2" s="248"/>
-      <c r="Y2" s="248"/>
-      <c r="Z2" s="249"/>
-      <c r="AA2" s="223" t="s">
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="238"/>
+      <c r="M2" s="238"/>
+      <c r="N2" s="239"/>
+      <c r="O2" s="255"/>
+      <c r="P2" s="256"/>
+      <c r="Q2" s="256"/>
+      <c r="R2" s="257"/>
+      <c r="S2" s="243"/>
+      <c r="T2" s="244"/>
+      <c r="U2" s="244"/>
+      <c r="V2" s="244"/>
+      <c r="W2" s="244"/>
+      <c r="X2" s="244"/>
+      <c r="Y2" s="244"/>
+      <c r="Z2" s="245"/>
+      <c r="AA2" s="249" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="225"/>
-      <c r="AC2" s="238" t="str">
+      <c r="AB2" s="251"/>
+      <c r="AC2" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="239"/>
-      <c r="AE2" s="239"/>
-      <c r="AF2" s="240"/>
-      <c r="AG2" s="241" t="str">
+      <c r="AD2" s="232"/>
+      <c r="AE2" s="232"/>
+      <c r="AF2" s="233"/>
+      <c r="AG2" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="242"/>
-      <c r="AI2" s="243"/>
+      <c r="AH2" s="235"/>
+      <c r="AI2" s="236"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="223" t="s">
+      <c r="A3" s="249" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="224"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="235" t="str">
+      <c r="B3" s="250"/>
+      <c r="C3" s="250"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="236"/>
-      <c r="L3" s="236"/>
-      <c r="M3" s="236"/>
-      <c r="N3" s="237"/>
-      <c r="O3" s="232"/>
-      <c r="P3" s="233"/>
-      <c r="Q3" s="233"/>
-      <c r="R3" s="234"/>
-      <c r="S3" s="250"/>
-      <c r="T3" s="251"/>
-      <c r="U3" s="251"/>
-      <c r="V3" s="251"/>
-      <c r="W3" s="251"/>
-      <c r="X3" s="251"/>
-      <c r="Y3" s="251"/>
-      <c r="Z3" s="252"/>
-      <c r="AA3" s="223"/>
-      <c r="AB3" s="225"/>
-      <c r="AC3" s="238" t="str">
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="239"/>
+      <c r="O3" s="258"/>
+      <c r="P3" s="259"/>
+      <c r="Q3" s="259"/>
+      <c r="R3" s="260"/>
+      <c r="S3" s="246"/>
+      <c r="T3" s="247"/>
+      <c r="U3" s="247"/>
+      <c r="V3" s="247"/>
+      <c r="W3" s="247"/>
+      <c r="X3" s="247"/>
+      <c r="Y3" s="247"/>
+      <c r="Z3" s="248"/>
+      <c r="AA3" s="249"/>
+      <c r="AB3" s="251"/>
+      <c r="AC3" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="239"/>
-      <c r="AE3" s="239"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="241" t="str">
+      <c r="AD3" s="232"/>
+      <c r="AE3" s="232"/>
+      <c r="AF3" s="233"/>
+      <c r="AG3" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="242"/>
-      <c r="AI3" s="243"/>
+      <c r="AH3" s="235"/>
+      <c r="AI3" s="236"/>
     </row>
     <row r="4" spans="1:35" s="101" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="99"/>
@@ -8084,7 +8084,7 @@
       <c r="O5" s="99"/>
       <c r="P5" s="99"/>
       <c r="Q5" s="102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R5" s="99"/>
       <c r="S5" s="99"/>
@@ -8145,7 +8145,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="63"/>
       <c r="B7" s="77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="77"/>
       <c r="D7" s="103"/>
@@ -8185,7 +8185,7 @@
       <c r="A8" s="63"/>
       <c r="B8" s="77"/>
       <c r="C8" s="77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D8" s="103"/>
       <c r="E8" s="103"/>
@@ -8224,7 +8224,7 @@
       <c r="A9" s="63"/>
       <c r="B9" s="103"/>
       <c r="C9" s="77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D9" s="103"/>
       <c r="E9" s="103"/>
@@ -8299,7 +8299,7 @@
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="63"/>
       <c r="B11" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="103"/>
       <c r="D11" s="63"/>
@@ -8378,7 +8378,7 @@
       <c r="A13" s="63"/>
       <c r="B13" s="103"/>
       <c r="C13" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I13" s="107"/>
       <c r="J13" s="107"/>
@@ -8412,7 +8412,7 @@
       <c r="A14" s="63"/>
       <c r="B14" s="107"/>
       <c r="C14" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="107"/>
       <c r="E14" s="107"/>
@@ -8451,7 +8451,7 @@
       <c r="A15" s="63"/>
       <c r="B15" s="54"/>
       <c r="C15" s="63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="103"/>
       <c r="E15" s="103"/>
@@ -8490,7 +8490,7 @@
       <c r="A16" s="63"/>
       <c r="B16" s="54"/>
       <c r="C16" s="54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H16" s="103"/>
       <c r="I16" s="99"/>
@@ -9494,6 +9494,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -9503,14 +9511,6 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9538,157 +9538,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="139" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="275" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="254"/>
-      <c r="C1" s="254"/>
-      <c r="D1" s="255"/>
-      <c r="E1" s="235" t="str">
+      <c r="B1" s="276"/>
+      <c r="C1" s="276"/>
+      <c r="D1" s="277"/>
+      <c r="E1" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
-      <c r="N1" s="237"/>
-      <c r="O1" s="256" t="s">
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="239"/>
+      <c r="O1" s="278" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="257"/>
-      <c r="Q1" s="257"/>
-      <c r="R1" s="258"/>
-      <c r="S1" s="244" t="str">
+      <c r="P1" s="279"/>
+      <c r="Q1" s="279"/>
+      <c r="R1" s="280"/>
+      <c r="S1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="245"/>
-      <c r="U1" s="245"/>
-      <c r="V1" s="245"/>
-      <c r="W1" s="245"/>
-      <c r="X1" s="245"/>
-      <c r="Y1" s="245"/>
-      <c r="Z1" s="246"/>
-      <c r="AA1" s="253" t="s">
+      <c r="T1" s="241"/>
+      <c r="U1" s="241"/>
+      <c r="V1" s="241"/>
+      <c r="W1" s="241"/>
+      <c r="X1" s="241"/>
+      <c r="Y1" s="241"/>
+      <c r="Z1" s="242"/>
+      <c r="AA1" s="275" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="255"/>
-      <c r="AC1" s="238" t="str">
+      <c r="AB1" s="277"/>
+      <c r="AC1" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="239"/>
-      <c r="AE1" s="239"/>
-      <c r="AF1" s="240"/>
-      <c r="AG1" s="266">
+      <c r="AD1" s="232"/>
+      <c r="AE1" s="232"/>
+      <c r="AF1" s="233"/>
+      <c r="AG1" s="271">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="267"/>
-      <c r="AI1" s="268"/>
+      <c r="AH1" s="272"/>
+      <c r="AI1" s="273"/>
     </row>
     <row r="2" spans="1:38" s="139" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="275" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="254"/>
-      <c r="C2" s="254"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="235" t="str">
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="277"/>
+      <c r="E2" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="237"/>
-      <c r="O2" s="259"/>
-      <c r="P2" s="260"/>
-      <c r="Q2" s="260"/>
-      <c r="R2" s="261"/>
-      <c r="S2" s="247"/>
-      <c r="T2" s="248"/>
-      <c r="U2" s="248"/>
-      <c r="V2" s="248"/>
-      <c r="W2" s="248"/>
-      <c r="X2" s="248"/>
-      <c r="Y2" s="248"/>
-      <c r="Z2" s="249"/>
-      <c r="AA2" s="253" t="s">
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="238"/>
+      <c r="M2" s="238"/>
+      <c r="N2" s="239"/>
+      <c r="O2" s="281"/>
+      <c r="P2" s="282"/>
+      <c r="Q2" s="282"/>
+      <c r="R2" s="283"/>
+      <c r="S2" s="243"/>
+      <c r="T2" s="244"/>
+      <c r="U2" s="244"/>
+      <c r="V2" s="244"/>
+      <c r="W2" s="244"/>
+      <c r="X2" s="244"/>
+      <c r="Y2" s="244"/>
+      <c r="Z2" s="245"/>
+      <c r="AA2" s="275" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="255"/>
-      <c r="AC2" s="238" t="str">
+      <c r="AB2" s="277"/>
+      <c r="AC2" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="239"/>
-      <c r="AE2" s="239"/>
-      <c r="AF2" s="240"/>
-      <c r="AG2" s="266" t="str">
+      <c r="AD2" s="232"/>
+      <c r="AE2" s="232"/>
+      <c r="AF2" s="233"/>
+      <c r="AG2" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="267"/>
-      <c r="AI2" s="268"/>
+      <c r="AH2" s="272"/>
+      <c r="AI2" s="273"/>
     </row>
     <row r="3" spans="1:38" s="139" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="275" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="254"/>
-      <c r="C3" s="254"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="235" t="str">
+      <c r="B3" s="276"/>
+      <c r="C3" s="276"/>
+      <c r="D3" s="277"/>
+      <c r="E3" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="236"/>
-      <c r="L3" s="236"/>
-      <c r="M3" s="236"/>
-      <c r="N3" s="237"/>
-      <c r="O3" s="262"/>
-      <c r="P3" s="263"/>
-      <c r="Q3" s="263"/>
-      <c r="R3" s="264"/>
-      <c r="S3" s="250"/>
-      <c r="T3" s="251"/>
-      <c r="U3" s="251"/>
-      <c r="V3" s="251"/>
-      <c r="W3" s="251"/>
-      <c r="X3" s="251"/>
-      <c r="Y3" s="251"/>
-      <c r="Z3" s="252"/>
-      <c r="AA3" s="253"/>
-      <c r="AB3" s="255"/>
-      <c r="AC3" s="238" t="str">
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="239"/>
+      <c r="O3" s="284"/>
+      <c r="P3" s="285"/>
+      <c r="Q3" s="285"/>
+      <c r="R3" s="286"/>
+      <c r="S3" s="246"/>
+      <c r="T3" s="247"/>
+      <c r="U3" s="247"/>
+      <c r="V3" s="247"/>
+      <c r="W3" s="247"/>
+      <c r="X3" s="247"/>
+      <c r="Y3" s="247"/>
+      <c r="Z3" s="248"/>
+      <c r="AA3" s="275"/>
+      <c r="AB3" s="277"/>
+      <c r="AC3" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="239"/>
-      <c r="AE3" s="239"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="266" t="str">
+      <c r="AD3" s="232"/>
+      <c r="AE3" s="232"/>
+      <c r="AF3" s="233"/>
+      <c r="AG3" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="267"/>
-      <c r="AI3" s="268"/>
+      <c r="AH3" s="272"/>
+      <c r="AI3" s="273"/>
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
@@ -9730,7 +9730,7 @@
     <row r="5" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39"/>
       <c r="B5" s="140" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
@@ -9770,7 +9770,7 @@
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="140" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6" s="39"/>
       <c r="E6" s="39"/>
@@ -9844,94 +9844,94 @@
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
-      <c r="D8" s="270" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="271"/>
-      <c r="F8" s="271"/>
-      <c r="G8" s="272"/>
-      <c r="H8" s="269" t="s">
-        <v>130</v>
-      </c>
-      <c r="I8" s="269"/>
-      <c r="J8" s="269"/>
-      <c r="K8" s="269"/>
-      <c r="L8" s="269"/>
-      <c r="M8" s="269"/>
-      <c r="N8" s="269"/>
-      <c r="O8" s="269"/>
-      <c r="P8" s="269"/>
-      <c r="Q8" s="269"/>
-      <c r="R8" s="269"/>
-      <c r="S8" s="269"/>
-      <c r="T8" s="269"/>
-      <c r="U8" s="269"/>
-      <c r="V8" s="269"/>
-      <c r="W8" s="269"/>
-      <c r="X8" s="269"/>
-      <c r="Y8" s="269"/>
-      <c r="Z8" s="269"/>
-      <c r="AA8" s="269"/>
-      <c r="AB8" s="269"/>
-      <c r="AC8" s="269"/>
-      <c r="AD8" s="269"/>
-      <c r="AE8" s="269"/>
-      <c r="AF8" s="269"/>
-      <c r="AG8" s="269"/>
-      <c r="AH8" s="269"/>
+      <c r="D8" s="264" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="265"/>
+      <c r="F8" s="265"/>
+      <c r="G8" s="266"/>
+      <c r="H8" s="274" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="274"/>
+      <c r="J8" s="274"/>
+      <c r="K8" s="274"/>
+      <c r="L8" s="274"/>
+      <c r="M8" s="274"/>
+      <c r="N8" s="274"/>
+      <c r="O8" s="274"/>
+      <c r="P8" s="274"/>
+      <c r="Q8" s="274"/>
+      <c r="R8" s="274"/>
+      <c r="S8" s="274"/>
+      <c r="T8" s="274"/>
+      <c r="U8" s="274"/>
+      <c r="V8" s="274"/>
+      <c r="W8" s="274"/>
+      <c r="X8" s="274"/>
+      <c r="Y8" s="274"/>
+      <c r="Z8" s="274"/>
+      <c r="AA8" s="274"/>
+      <c r="AB8" s="274"/>
+      <c r="AC8" s="274"/>
+      <c r="AD8" s="274"/>
+      <c r="AE8" s="274"/>
+      <c r="AF8" s="274"/>
+      <c r="AG8" s="274"/>
+      <c r="AH8" s="274"/>
     </row>
     <row r="9" spans="1:38" s="76" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
-      <c r="D9" s="270" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" s="271"/>
-      <c r="F9" s="271"/>
-      <c r="G9" s="272"/>
-      <c r="H9" s="265" t="s">
-        <v>131</v>
-      </c>
-      <c r="I9" s="265"/>
-      <c r="J9" s="265"/>
-      <c r="K9" s="265"/>
-      <c r="L9" s="265"/>
-      <c r="M9" s="265"/>
-      <c r="N9" s="265"/>
-      <c r="O9" s="265"/>
-      <c r="P9" s="265"/>
-      <c r="Q9" s="265"/>
-      <c r="R9" s="265"/>
-      <c r="S9" s="265"/>
-      <c r="T9" s="265"/>
-      <c r="U9" s="265"/>
-      <c r="V9" s="265"/>
-      <c r="W9" s="265"/>
-      <c r="X9" s="265"/>
-      <c r="Y9" s="265"/>
-      <c r="Z9" s="265"/>
-      <c r="AA9" s="265"/>
-      <c r="AB9" s="265"/>
-      <c r="AC9" s="265"/>
-      <c r="AD9" s="265"/>
-      <c r="AE9" s="265"/>
-      <c r="AF9" s="265"/>
-      <c r="AG9" s="265"/>
-      <c r="AH9" s="265"/>
+      <c r="D9" s="264" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="265"/>
+      <c r="F9" s="265"/>
+      <c r="G9" s="266"/>
+      <c r="H9" s="270" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" s="270"/>
+      <c r="J9" s="270"/>
+      <c r="K9" s="270"/>
+      <c r="L9" s="270"/>
+      <c r="M9" s="270"/>
+      <c r="N9" s="270"/>
+      <c r="O9" s="270"/>
+      <c r="P9" s="270"/>
+      <c r="Q9" s="270"/>
+      <c r="R9" s="270"/>
+      <c r="S9" s="270"/>
+      <c r="T9" s="270"/>
+      <c r="U9" s="270"/>
+      <c r="V9" s="270"/>
+      <c r="W9" s="270"/>
+      <c r="X9" s="270"/>
+      <c r="Y9" s="270"/>
+      <c r="Z9" s="270"/>
+      <c r="AA9" s="270"/>
+      <c r="AB9" s="270"/>
+      <c r="AC9" s="270"/>
+      <c r="AD9" s="270"/>
+      <c r="AE9" s="270"/>
+      <c r="AF9" s="270"/>
+      <c r="AG9" s="270"/>
+      <c r="AH9" s="270"/>
     </row>
     <row r="10" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
-      <c r="D10" s="273" t="s">
-        <v>151</v>
-      </c>
-      <c r="E10" s="274"/>
-      <c r="F10" s="274"/>
-      <c r="G10" s="275"/>
+      <c r="D10" s="261" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="262"/>
+      <c r="F10" s="262"/>
+      <c r="G10" s="263"/>
       <c r="H10" s="141" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I10" s="142"/>
       <c r="J10" s="142"/>
@@ -9964,174 +9964,174 @@
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
-      <c r="D11" s="270" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="271"/>
-      <c r="F11" s="271"/>
-      <c r="G11" s="272"/>
-      <c r="H11" s="269" t="s">
-        <v>130</v>
-      </c>
-      <c r="I11" s="269"/>
-      <c r="J11" s="269"/>
-      <c r="K11" s="269"/>
-      <c r="L11" s="269"/>
-      <c r="M11" s="269"/>
-      <c r="N11" s="269"/>
-      <c r="O11" s="269"/>
-      <c r="P11" s="269"/>
-      <c r="Q11" s="269"/>
-      <c r="R11" s="269"/>
-      <c r="S11" s="269"/>
-      <c r="T11" s="269"/>
-      <c r="U11" s="269"/>
-      <c r="V11" s="269"/>
-      <c r="W11" s="269"/>
-      <c r="X11" s="269"/>
-      <c r="Y11" s="269"/>
-      <c r="Z11" s="269"/>
-      <c r="AA11" s="269"/>
-      <c r="AB11" s="269"/>
-      <c r="AC11" s="269"/>
-      <c r="AD11" s="269"/>
-      <c r="AE11" s="269"/>
-      <c r="AF11" s="269"/>
-      <c r="AG11" s="269"/>
-      <c r="AH11" s="269"/>
+      <c r="D11" s="264" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="265"/>
+      <c r="F11" s="265"/>
+      <c r="G11" s="266"/>
+      <c r="H11" s="274" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="274"/>
+      <c r="J11" s="274"/>
+      <c r="K11" s="274"/>
+      <c r="L11" s="274"/>
+      <c r="M11" s="274"/>
+      <c r="N11" s="274"/>
+      <c r="O11" s="274"/>
+      <c r="P11" s="274"/>
+      <c r="Q11" s="274"/>
+      <c r="R11" s="274"/>
+      <c r="S11" s="274"/>
+      <c r="T11" s="274"/>
+      <c r="U11" s="274"/>
+      <c r="V11" s="274"/>
+      <c r="W11" s="274"/>
+      <c r="X11" s="274"/>
+      <c r="Y11" s="274"/>
+      <c r="Z11" s="274"/>
+      <c r="AA11" s="274"/>
+      <c r="AB11" s="274"/>
+      <c r="AC11" s="274"/>
+      <c r="AD11" s="274"/>
+      <c r="AE11" s="274"/>
+      <c r="AF11" s="274"/>
+      <c r="AG11" s="274"/>
+      <c r="AH11" s="274"/>
     </row>
     <row r="12" spans="1:38" s="76" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
-      <c r="D12" s="270" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" s="271"/>
-      <c r="F12" s="271"/>
-      <c r="G12" s="272"/>
-      <c r="H12" s="265" t="s">
-        <v>131</v>
-      </c>
-      <c r="I12" s="265"/>
-      <c r="J12" s="265"/>
-      <c r="K12" s="265"/>
-      <c r="L12" s="265"/>
-      <c r="M12" s="265"/>
-      <c r="N12" s="265"/>
-      <c r="O12" s="265"/>
-      <c r="P12" s="265"/>
-      <c r="Q12" s="265"/>
-      <c r="R12" s="265"/>
-      <c r="S12" s="265"/>
-      <c r="T12" s="265"/>
-      <c r="U12" s="265"/>
-      <c r="V12" s="265"/>
-      <c r="W12" s="265"/>
-      <c r="X12" s="265"/>
-      <c r="Y12" s="265"/>
-      <c r="Z12" s="265"/>
-      <c r="AA12" s="265"/>
-      <c r="AB12" s="265"/>
-      <c r="AC12" s="265"/>
-      <c r="AD12" s="265"/>
-      <c r="AE12" s="265"/>
-      <c r="AF12" s="265"/>
-      <c r="AG12" s="265"/>
-      <c r="AH12" s="265"/>
+      <c r="D12" s="264" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="265"/>
+      <c r="F12" s="265"/>
+      <c r="G12" s="266"/>
+      <c r="H12" s="270" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" s="270"/>
+      <c r="J12" s="270"/>
+      <c r="K12" s="270"/>
+      <c r="L12" s="270"/>
+      <c r="M12" s="270"/>
+      <c r="N12" s="270"/>
+      <c r="O12" s="270"/>
+      <c r="P12" s="270"/>
+      <c r="Q12" s="270"/>
+      <c r="R12" s="270"/>
+      <c r="S12" s="270"/>
+      <c r="T12" s="270"/>
+      <c r="U12" s="270"/>
+      <c r="V12" s="270"/>
+      <c r="W12" s="270"/>
+      <c r="X12" s="270"/>
+      <c r="Y12" s="270"/>
+      <c r="Z12" s="270"/>
+      <c r="AA12" s="270"/>
+      <c r="AB12" s="270"/>
+      <c r="AC12" s="270"/>
+      <c r="AD12" s="270"/>
+      <c r="AE12" s="270"/>
+      <c r="AF12" s="270"/>
+      <c r="AG12" s="270"/>
+      <c r="AH12" s="270"/>
     </row>
     <row r="13" spans="1:38" s="76" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
-      <c r="D13" s="270" t="s">
+      <c r="D13" s="264" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="265"/>
+      <c r="F13" s="265"/>
+      <c r="G13" s="266"/>
+      <c r="H13" s="270" t="s">
         <v>135</v>
       </c>
-      <c r="E13" s="271"/>
-      <c r="F13" s="271"/>
-      <c r="G13" s="272"/>
-      <c r="H13" s="265" t="s">
-        <v>136</v>
-      </c>
-      <c r="I13" s="265"/>
-      <c r="J13" s="265"/>
-      <c r="K13" s="265"/>
-      <c r="L13" s="265"/>
-      <c r="M13" s="265"/>
-      <c r="N13" s="265"/>
-      <c r="O13" s="265"/>
-      <c r="P13" s="265"/>
-      <c r="Q13" s="265"/>
-      <c r="R13" s="265"/>
-      <c r="S13" s="265"/>
-      <c r="T13" s="265"/>
-      <c r="U13" s="265"/>
-      <c r="V13" s="265"/>
-      <c r="W13" s="265"/>
-      <c r="X13" s="265"/>
-      <c r="Y13" s="265"/>
-      <c r="Z13" s="265"/>
-      <c r="AA13" s="265"/>
-      <c r="AB13" s="265"/>
-      <c r="AC13" s="265"/>
-      <c r="AD13" s="265"/>
-      <c r="AE13" s="265"/>
-      <c r="AF13" s="265"/>
-      <c r="AG13" s="265"/>
-      <c r="AH13" s="265"/>
+      <c r="I13" s="270"/>
+      <c r="J13" s="270"/>
+      <c r="K13" s="270"/>
+      <c r="L13" s="270"/>
+      <c r="M13" s="270"/>
+      <c r="N13" s="270"/>
+      <c r="O13" s="270"/>
+      <c r="P13" s="270"/>
+      <c r="Q13" s="270"/>
+      <c r="R13" s="270"/>
+      <c r="S13" s="270"/>
+      <c r="T13" s="270"/>
+      <c r="U13" s="270"/>
+      <c r="V13" s="270"/>
+      <c r="W13" s="270"/>
+      <c r="X13" s="270"/>
+      <c r="Y13" s="270"/>
+      <c r="Z13" s="270"/>
+      <c r="AA13" s="270"/>
+      <c r="AB13" s="270"/>
+      <c r="AC13" s="270"/>
+      <c r="AD13" s="270"/>
+      <c r="AE13" s="270"/>
+      <c r="AF13" s="270"/>
+      <c r="AG13" s="270"/>
+      <c r="AH13" s="270"/>
     </row>
     <row r="14" spans="1:38" s="76" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
-      <c r="D14" s="270" t="s">
+      <c r="D14" s="264" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="265"/>
+      <c r="F14" s="265"/>
+      <c r="G14" s="266"/>
+      <c r="H14" s="270" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="271"/>
-      <c r="F14" s="271"/>
-      <c r="G14" s="272"/>
-      <c r="H14" s="265" t="s">
-        <v>138</v>
-      </c>
-      <c r="I14" s="265"/>
-      <c r="J14" s="265"/>
-      <c r="K14" s="265"/>
-      <c r="L14" s="265"/>
-      <c r="M14" s="265"/>
-      <c r="N14" s="265"/>
-      <c r="O14" s="265"/>
-      <c r="P14" s="265"/>
-      <c r="Q14" s="265"/>
-      <c r="R14" s="265"/>
-      <c r="S14" s="265"/>
-      <c r="T14" s="265"/>
-      <c r="U14" s="265"/>
-      <c r="V14" s="265"/>
-      <c r="W14" s="265"/>
-      <c r="X14" s="265"/>
-      <c r="Y14" s="265"/>
-      <c r="Z14" s="265"/>
-      <c r="AA14" s="265"/>
-      <c r="AB14" s="265"/>
-      <c r="AC14" s="265"/>
-      <c r="AD14" s="265"/>
-      <c r="AE14" s="265"/>
-      <c r="AF14" s="265"/>
-      <c r="AG14" s="265"/>
-      <c r="AH14" s="265"/>
+      <c r="I14" s="270"/>
+      <c r="J14" s="270"/>
+      <c r="K14" s="270"/>
+      <c r="L14" s="270"/>
+      <c r="M14" s="270"/>
+      <c r="N14" s="270"/>
+      <c r="O14" s="270"/>
+      <c r="P14" s="270"/>
+      <c r="Q14" s="270"/>
+      <c r="R14" s="270"/>
+      <c r="S14" s="270"/>
+      <c r="T14" s="270"/>
+      <c r="U14" s="270"/>
+      <c r="V14" s="270"/>
+      <c r="W14" s="270"/>
+      <c r="X14" s="270"/>
+      <c r="Y14" s="270"/>
+      <c r="Z14" s="270"/>
+      <c r="AA14" s="270"/>
+      <c r="AB14" s="270"/>
+      <c r="AC14" s="270"/>
+      <c r="AD14" s="270"/>
+      <c r="AE14" s="270"/>
+      <c r="AF14" s="270"/>
+      <c r="AG14" s="270"/>
+      <c r="AH14" s="270"/>
     </row>
     <row r="15" spans="1:38" s="76" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
-      <c r="D15" s="270" t="s">
+      <c r="D15" s="264" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="265"/>
+      <c r="F15" s="265"/>
+      <c r="G15" s="266"/>
+      <c r="H15" s="144" t="s">
         <v>139</v>
-      </c>
-      <c r="E15" s="271"/>
-      <c r="F15" s="271"/>
-      <c r="G15" s="272"/>
-      <c r="H15" s="144" t="s">
-        <v>140</v>
       </c>
       <c r="I15" s="145"/>
       <c r="J15" s="145"/>
@@ -10281,30 +10281,30 @@
       <c r="D19" s="150"/>
       <c r="E19" s="150"/>
       <c r="F19" s="150"/>
-      <c r="G19" s="278"/>
-      <c r="H19" s="278"/>
-      <c r="I19" s="278"/>
-      <c r="J19" s="278"/>
-      <c r="K19" s="278"/>
-      <c r="L19" s="278"/>
-      <c r="M19" s="278"/>
-      <c r="N19" s="278"/>
-      <c r="O19" s="276"/>
-      <c r="P19" s="277"/>
-      <c r="Q19" s="277"/>
-      <c r="R19" s="277"/>
-      <c r="S19" s="277"/>
-      <c r="T19" s="277"/>
-      <c r="U19" s="277"/>
-      <c r="V19" s="277"/>
-      <c r="W19" s="277"/>
-      <c r="X19" s="277"/>
-      <c r="Y19" s="277"/>
-      <c r="Z19" s="277"/>
-      <c r="AA19" s="277"/>
-      <c r="AB19" s="277"/>
-      <c r="AC19" s="277"/>
-      <c r="AD19" s="277"/>
+      <c r="G19" s="269"/>
+      <c r="H19" s="269"/>
+      <c r="I19" s="269"/>
+      <c r="J19" s="269"/>
+      <c r="K19" s="269"/>
+      <c r="L19" s="269"/>
+      <c r="M19" s="269"/>
+      <c r="N19" s="269"/>
+      <c r="O19" s="267"/>
+      <c r="P19" s="268"/>
+      <c r="Q19" s="268"/>
+      <c r="R19" s="268"/>
+      <c r="S19" s="268"/>
+      <c r="T19" s="268"/>
+      <c r="U19" s="268"/>
+      <c r="V19" s="268"/>
+      <c r="W19" s="268"/>
+      <c r="X19" s="268"/>
+      <c r="Y19" s="268"/>
+      <c r="Z19" s="268"/>
+      <c r="AA19" s="268"/>
+      <c r="AB19" s="268"/>
+      <c r="AC19" s="268"/>
+      <c r="AD19" s="268"/>
       <c r="AE19" s="151"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -10756,15 +10756,14 @@
     <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="O19:AD19"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="H12:AH12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AC3:AF3"/>
@@ -10781,14 +10780,15 @@
     <mergeCell ref="H11:AH11"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="O19:AD19"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="H12:AH12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10817,178 +10817,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="275" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="254"/>
-      <c r="C1" s="254"/>
-      <c r="D1" s="255"/>
-      <c r="E1" s="235" t="str">
+      <c r="B1" s="276"/>
+      <c r="C1" s="276"/>
+      <c r="D1" s="277"/>
+      <c r="E1" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
-      <c r="N1" s="237"/>
-      <c r="O1" s="256" t="s">
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="239"/>
+      <c r="O1" s="278" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="257"/>
-      <c r="Q1" s="257"/>
-      <c r="R1" s="258"/>
-      <c r="S1" s="244" t="str">
+      <c r="P1" s="279"/>
+      <c r="Q1" s="279"/>
+      <c r="R1" s="280"/>
+      <c r="S1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="245"/>
-      <c r="U1" s="245"/>
-      <c r="V1" s="245"/>
-      <c r="W1" s="245"/>
-      <c r="X1" s="245"/>
-      <c r="Y1" s="245"/>
-      <c r="Z1" s="246"/>
-      <c r="AA1" s="253" t="s">
+      <c r="T1" s="241"/>
+      <c r="U1" s="241"/>
+      <c r="V1" s="241"/>
+      <c r="W1" s="241"/>
+      <c r="X1" s="241"/>
+      <c r="Y1" s="241"/>
+      <c r="Z1" s="242"/>
+      <c r="AA1" s="275" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="255"/>
-      <c r="AC1" s="238" t="str">
+      <c r="AB1" s="277"/>
+      <c r="AC1" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="239"/>
-      <c r="AE1" s="239"/>
-      <c r="AF1" s="240"/>
-      <c r="AG1" s="266">
+      <c r="AD1" s="232"/>
+      <c r="AE1" s="232"/>
+      <c r="AF1" s="233"/>
+      <c r="AG1" s="271">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="267"/>
-      <c r="AI1" s="268"/>
+      <c r="AH1" s="272"/>
+      <c r="AI1" s="273"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="275" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="254"/>
-      <c r="C2" s="254"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="235" t="str">
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="277"/>
+      <c r="E2" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="237"/>
-      <c r="O2" s="259"/>
-      <c r="P2" s="260"/>
-      <c r="Q2" s="260"/>
-      <c r="R2" s="261"/>
-      <c r="S2" s="247"/>
-      <c r="T2" s="248"/>
-      <c r="U2" s="248"/>
-      <c r="V2" s="248"/>
-      <c r="W2" s="248"/>
-      <c r="X2" s="248"/>
-      <c r="Y2" s="248"/>
-      <c r="Z2" s="249"/>
-      <c r="AA2" s="253" t="s">
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="238"/>
+      <c r="M2" s="238"/>
+      <c r="N2" s="239"/>
+      <c r="O2" s="281"/>
+      <c r="P2" s="282"/>
+      <c r="Q2" s="282"/>
+      <c r="R2" s="283"/>
+      <c r="S2" s="243"/>
+      <c r="T2" s="244"/>
+      <c r="U2" s="244"/>
+      <c r="V2" s="244"/>
+      <c r="W2" s="244"/>
+      <c r="X2" s="244"/>
+      <c r="Y2" s="244"/>
+      <c r="Z2" s="245"/>
+      <c r="AA2" s="275" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="255"/>
-      <c r="AC2" s="238" t="str">
+      <c r="AB2" s="277"/>
+      <c r="AC2" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="239"/>
-      <c r="AE2" s="239"/>
-      <c r="AF2" s="240"/>
-      <c r="AG2" s="266" t="str">
+      <c r="AD2" s="232"/>
+      <c r="AE2" s="232"/>
+      <c r="AF2" s="233"/>
+      <c r="AG2" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="267"/>
-      <c r="AI2" s="268"/>
+      <c r="AH2" s="272"/>
+      <c r="AI2" s="273"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="275" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="254"/>
-      <c r="C3" s="254"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="235" t="str">
+      <c r="B3" s="276"/>
+      <c r="C3" s="276"/>
+      <c r="D3" s="277"/>
+      <c r="E3" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="236"/>
-      <c r="L3" s="236"/>
-      <c r="M3" s="236"/>
-      <c r="N3" s="237"/>
-      <c r="O3" s="262"/>
-      <c r="P3" s="263"/>
-      <c r="Q3" s="263"/>
-      <c r="R3" s="264"/>
-      <c r="S3" s="250"/>
-      <c r="T3" s="251"/>
-      <c r="U3" s="251"/>
-      <c r="V3" s="251"/>
-      <c r="W3" s="251"/>
-      <c r="X3" s="251"/>
-      <c r="Y3" s="251"/>
-      <c r="Z3" s="252"/>
-      <c r="AA3" s="253"/>
-      <c r="AB3" s="255"/>
-      <c r="AC3" s="238" t="str">
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="239"/>
+      <c r="O3" s="284"/>
+      <c r="P3" s="285"/>
+      <c r="Q3" s="285"/>
+      <c r="R3" s="286"/>
+      <c r="S3" s="246"/>
+      <c r="T3" s="247"/>
+      <c r="U3" s="247"/>
+      <c r="V3" s="247"/>
+      <c r="W3" s="247"/>
+      <c r="X3" s="247"/>
+      <c r="Y3" s="247"/>
+      <c r="Z3" s="248"/>
+      <c r="AA3" s="275"/>
+      <c r="AB3" s="277"/>
+      <c r="AC3" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="239"/>
-      <c r="AE3" s="239"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="266" t="str">
+      <c r="AD3" s="232"/>
+      <c r="AE3" s="232"/>
+      <c r="AF3" s="233"/>
+      <c r="AG3" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="267"/>
-      <c r="AI3" s="268"/>
+      <c r="AH3" s="272"/>
+      <c r="AI3" s="273"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="I14" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -11000,6 +10994,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11031,163 +11031,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="275" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="254"/>
-      <c r="C1" s="254"/>
-      <c r="D1" s="255"/>
-      <c r="E1" s="235" t="str">
+      <c r="B1" s="276"/>
+      <c r="C1" s="276"/>
+      <c r="D1" s="277"/>
+      <c r="E1" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
-      <c r="N1" s="237"/>
-      <c r="O1" s="256" t="s">
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="239"/>
+      <c r="O1" s="278" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="257"/>
-      <c r="Q1" s="257"/>
-      <c r="R1" s="258"/>
-      <c r="S1" s="244" t="str">
+      <c r="P1" s="279"/>
+      <c r="Q1" s="279"/>
+      <c r="R1" s="280"/>
+      <c r="S1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="245"/>
-      <c r="U1" s="245"/>
-      <c r="V1" s="245"/>
-      <c r="W1" s="245"/>
-      <c r="X1" s="245"/>
-      <c r="Y1" s="245"/>
-      <c r="Z1" s="246"/>
-      <c r="AA1" s="253" t="s">
+      <c r="T1" s="241"/>
+      <c r="U1" s="241"/>
+      <c r="V1" s="241"/>
+      <c r="W1" s="241"/>
+      <c r="X1" s="241"/>
+      <c r="Y1" s="241"/>
+      <c r="Z1" s="242"/>
+      <c r="AA1" s="275" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="255"/>
-      <c r="AC1" s="238" t="str">
+      <c r="AB1" s="277"/>
+      <c r="AC1" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="239"/>
-      <c r="AE1" s="239"/>
-      <c r="AF1" s="240"/>
-      <c r="AG1" s="266">
+      <c r="AD1" s="232"/>
+      <c r="AE1" s="232"/>
+      <c r="AF1" s="233"/>
+      <c r="AG1" s="271">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="267"/>
-      <c r="AI1" s="268"/>
+      <c r="AH1" s="272"/>
+      <c r="AI1" s="273"/>
       <c r="AJ1" s="35"/>
       <c r="AK1" s="35"/>
       <c r="AL1" s="36"/>
     </row>
     <row r="2" spans="1:38" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="275" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="254"/>
-      <c r="C2" s="254"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="235" t="str">
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="277"/>
+      <c r="E2" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="237"/>
-      <c r="O2" s="259"/>
-      <c r="P2" s="260"/>
-      <c r="Q2" s="260"/>
-      <c r="R2" s="261"/>
-      <c r="S2" s="247"/>
-      <c r="T2" s="248"/>
-      <c r="U2" s="248"/>
-      <c r="V2" s="248"/>
-      <c r="W2" s="248"/>
-      <c r="X2" s="248"/>
-      <c r="Y2" s="248"/>
-      <c r="Z2" s="249"/>
-      <c r="AA2" s="253" t="s">
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="238"/>
+      <c r="M2" s="238"/>
+      <c r="N2" s="239"/>
+      <c r="O2" s="281"/>
+      <c r="P2" s="282"/>
+      <c r="Q2" s="282"/>
+      <c r="R2" s="283"/>
+      <c r="S2" s="243"/>
+      <c r="T2" s="244"/>
+      <c r="U2" s="244"/>
+      <c r="V2" s="244"/>
+      <c r="W2" s="244"/>
+      <c r="X2" s="244"/>
+      <c r="Y2" s="244"/>
+      <c r="Z2" s="245"/>
+      <c r="AA2" s="275" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="255"/>
-      <c r="AC2" s="238" t="str">
+      <c r="AB2" s="277"/>
+      <c r="AC2" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="239"/>
-      <c r="AE2" s="239"/>
-      <c r="AF2" s="240"/>
-      <c r="AG2" s="266" t="str">
+      <c r="AD2" s="232"/>
+      <c r="AE2" s="232"/>
+      <c r="AF2" s="233"/>
+      <c r="AG2" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="267"/>
-      <c r="AI2" s="268"/>
+      <c r="AH2" s="272"/>
+      <c r="AI2" s="273"/>
       <c r="AJ2" s="35"/>
       <c r="AK2" s="35"/>
       <c r="AL2" s="35"/>
     </row>
     <row r="3" spans="1:38" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="275" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="254"/>
-      <c r="C3" s="254"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="235" t="str">
+      <c r="B3" s="276"/>
+      <c r="C3" s="276"/>
+      <c r="D3" s="277"/>
+      <c r="E3" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="236"/>
-      <c r="L3" s="236"/>
-      <c r="M3" s="236"/>
-      <c r="N3" s="237"/>
-      <c r="O3" s="262"/>
-      <c r="P3" s="263"/>
-      <c r="Q3" s="263"/>
-      <c r="R3" s="264"/>
-      <c r="S3" s="250"/>
-      <c r="T3" s="251"/>
-      <c r="U3" s="251"/>
-      <c r="V3" s="251"/>
-      <c r="W3" s="251"/>
-      <c r="X3" s="251"/>
-      <c r="Y3" s="251"/>
-      <c r="Z3" s="252"/>
-      <c r="AA3" s="253"/>
-      <c r="AB3" s="255"/>
-      <c r="AC3" s="238" t="str">
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="239"/>
+      <c r="O3" s="284"/>
+      <c r="P3" s="285"/>
+      <c r="Q3" s="285"/>
+      <c r="R3" s="286"/>
+      <c r="S3" s="246"/>
+      <c r="T3" s="247"/>
+      <c r="U3" s="247"/>
+      <c r="V3" s="247"/>
+      <c r="W3" s="247"/>
+      <c r="X3" s="247"/>
+      <c r="Y3" s="247"/>
+      <c r="Z3" s="248"/>
+      <c r="AA3" s="275"/>
+      <c r="AB3" s="277"/>
+      <c r="AC3" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="239"/>
-      <c r="AE3" s="239"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="266" t="str">
+      <c r="AD3" s="232"/>
+      <c r="AE3" s="232"/>
+      <c r="AF3" s="233"/>
+      <c r="AG3" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="267"/>
-      <c r="AI3" s="268"/>
+      <c r="AH3" s="272"/>
+      <c r="AI3" s="273"/>
       <c r="AJ3" s="35"/>
       <c r="AK3" s="35"/>
       <c r="AL3" s="35"/>
@@ -11305,65 +11305,65 @@
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
-      <c r="D8" s="298" t="s">
+      <c r="D8" s="353" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="300" t="s">
+      <c r="E8" s="355" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="301"/>
-      <c r="G8" s="301"/>
-      <c r="H8" s="301"/>
-      <c r="I8" s="301"/>
-      <c r="J8" s="302"/>
-      <c r="K8" s="300" t="s">
+      <c r="F8" s="356"/>
+      <c r="G8" s="356"/>
+      <c r="H8" s="356"/>
+      <c r="I8" s="356"/>
+      <c r="J8" s="357"/>
+      <c r="K8" s="355" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="301"/>
-      <c r="M8" s="301"/>
-      <c r="N8" s="302"/>
-      <c r="O8" s="306" t="s">
+      <c r="L8" s="356"/>
+      <c r="M8" s="356"/>
+      <c r="N8" s="357"/>
+      <c r="O8" s="361" t="s">
         <v>51</v>
       </c>
-      <c r="P8" s="311" t="s">
+      <c r="P8" s="366" t="s">
         <v>52</v>
       </c>
-      <c r="Q8" s="312"/>
-      <c r="R8" s="312"/>
-      <c r="S8" s="312"/>
-      <c r="T8" s="312"/>
-      <c r="U8" s="313"/>
-      <c r="V8" s="308" t="s">
+      <c r="Q8" s="367"/>
+      <c r="R8" s="367"/>
+      <c r="S8" s="367"/>
+      <c r="T8" s="367"/>
+      <c r="U8" s="368"/>
+      <c r="V8" s="363" t="s">
         <v>53</v>
       </c>
-      <c r="W8" s="308"/>
-      <c r="X8" s="308"/>
-      <c r="Y8" s="308"/>
-      <c r="Z8" s="308"/>
-      <c r="AA8" s="308"/>
-      <c r="AB8" s="308"/>
-      <c r="AC8" s="308"/>
-      <c r="AD8" s="308"/>
-      <c r="AE8" s="308"/>
-      <c r="AF8" s="308"/>
-      <c r="AG8" s="308"/>
-      <c r="AH8" s="308"/>
+      <c r="W8" s="363"/>
+      <c r="X8" s="363"/>
+      <c r="Y8" s="363"/>
+      <c r="Z8" s="363"/>
+      <c r="AA8" s="363"/>
+      <c r="AB8" s="363"/>
+      <c r="AC8" s="363"/>
+      <c r="AD8" s="363"/>
+      <c r="AE8" s="363"/>
+      <c r="AF8" s="363"/>
+      <c r="AG8" s="363"/>
+      <c r="AH8" s="363"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
-      <c r="D9" s="299"/>
-      <c r="E9" s="303"/>
-      <c r="F9" s="304"/>
-      <c r="G9" s="304"/>
-      <c r="H9" s="304"/>
-      <c r="I9" s="304"/>
-      <c r="J9" s="305"/>
-      <c r="K9" s="303"/>
-      <c r="L9" s="304"/>
-      <c r="M9" s="304"/>
-      <c r="N9" s="305"/>
-      <c r="O9" s="307"/>
+      <c r="D9" s="354"/>
+      <c r="E9" s="358"/>
+      <c r="F9" s="359"/>
+      <c r="G9" s="359"/>
+      <c r="H9" s="359"/>
+      <c r="I9" s="359"/>
+      <c r="J9" s="360"/>
+      <c r="K9" s="358"/>
+      <c r="L9" s="359"/>
+      <c r="M9" s="359"/>
+      <c r="N9" s="360"/>
+      <c r="O9" s="362"/>
       <c r="P9" s="41" t="s">
         <v>54</v>
       </c>
@@ -11376,23 +11376,23 @@
       <c r="S9" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="T9" s="309" t="s">
+      <c r="T9" s="364" t="s">
         <v>58</v>
       </c>
-      <c r="U9" s="310"/>
-      <c r="V9" s="308"/>
-      <c r="W9" s="308"/>
-      <c r="X9" s="308"/>
-      <c r="Y9" s="308"/>
-      <c r="Z9" s="308"/>
-      <c r="AA9" s="308"/>
-      <c r="AB9" s="308"/>
-      <c r="AC9" s="308"/>
-      <c r="AD9" s="308"/>
-      <c r="AE9" s="308"/>
-      <c r="AF9" s="308"/>
-      <c r="AG9" s="308"/>
-      <c r="AH9" s="308"/>
+      <c r="U9" s="365"/>
+      <c r="V9" s="363"/>
+      <c r="W9" s="363"/>
+      <c r="X9" s="363"/>
+      <c r="Y9" s="363"/>
+      <c r="Z9" s="363"/>
+      <c r="AA9" s="363"/>
+      <c r="AB9" s="363"/>
+      <c r="AC9" s="363"/>
+      <c r="AD9" s="363"/>
+      <c r="AE9" s="363"/>
+      <c r="AF9" s="363"/>
+      <c r="AG9" s="363"/>
+      <c r="AH9" s="363"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B10" s="39"/>
@@ -11400,20 +11400,20 @@
       <c r="D10" s="42">
         <v>1</v>
       </c>
-      <c r="E10" s="287" t="s">
+      <c r="E10" s="297" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="288"/>
-      <c r="G10" s="288"/>
-      <c r="H10" s="288"/>
-      <c r="I10" s="288"/>
-      <c r="J10" s="289"/>
-      <c r="K10" s="287" t="s">
+      <c r="F10" s="298"/>
+      <c r="G10" s="298"/>
+      <c r="H10" s="298"/>
+      <c r="I10" s="298"/>
+      <c r="J10" s="299"/>
+      <c r="K10" s="297" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="288"/>
-      <c r="M10" s="288"/>
-      <c r="N10" s="289"/>
+      <c r="L10" s="298"/>
+      <c r="M10" s="298"/>
+      <c r="N10" s="299"/>
       <c r="O10" s="43" t="s">
         <v>61</v>
       </c>
@@ -11429,23 +11429,23 @@
       <c r="S10" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="T10" s="282" t="s">
+      <c r="T10" s="301" t="s">
         <v>62</v>
       </c>
-      <c r="U10" s="283"/>
-      <c r="V10" s="287"/>
-      <c r="W10" s="288"/>
-      <c r="X10" s="288"/>
-      <c r="Y10" s="288"/>
-      <c r="Z10" s="288"/>
-      <c r="AA10" s="288"/>
-      <c r="AB10" s="288"/>
-      <c r="AC10" s="288"/>
-      <c r="AD10" s="288"/>
-      <c r="AE10" s="288"/>
-      <c r="AF10" s="288"/>
-      <c r="AG10" s="288"/>
-      <c r="AH10" s="289"/>
+      <c r="U10" s="302"/>
+      <c r="V10" s="297"/>
+      <c r="W10" s="298"/>
+      <c r="X10" s="298"/>
+      <c r="Y10" s="298"/>
+      <c r="Z10" s="298"/>
+      <c r="AA10" s="298"/>
+      <c r="AB10" s="298"/>
+      <c r="AC10" s="298"/>
+      <c r="AD10" s="298"/>
+      <c r="AE10" s="298"/>
+      <c r="AF10" s="298"/>
+      <c r="AG10" s="298"/>
+      <c r="AH10" s="299"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B11" s="39"/>
@@ -11453,20 +11453,20 @@
       <c r="D11" s="42">
         <v>2</v>
       </c>
-      <c r="E11" s="287" t="s">
+      <c r="E11" s="297" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="288"/>
-      <c r="G11" s="288"/>
-      <c r="H11" s="288"/>
-      <c r="I11" s="288"/>
-      <c r="J11" s="289"/>
-      <c r="K11" s="287" t="s">
+      <c r="F11" s="298"/>
+      <c r="G11" s="298"/>
+      <c r="H11" s="298"/>
+      <c r="I11" s="298"/>
+      <c r="J11" s="299"/>
+      <c r="K11" s="297" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="288"/>
-      <c r="M11" s="288"/>
-      <c r="N11" s="289"/>
+      <c r="L11" s="298"/>
+      <c r="M11" s="298"/>
+      <c r="N11" s="299"/>
       <c r="O11" s="45" t="s">
         <v>61</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>62</v>
       </c>
       <c r="Q11" s="44" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="R11" s="44" t="s">
         <v>62</v>
@@ -11482,23 +11482,23 @@
       <c r="S11" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="T11" s="282" t="s">
+      <c r="T11" s="301" t="s">
         <v>62</v>
       </c>
-      <c r="U11" s="283"/>
-      <c r="V11" s="287"/>
-      <c r="W11" s="288"/>
-      <c r="X11" s="288"/>
-      <c r="Y11" s="288"/>
-      <c r="Z11" s="288"/>
-      <c r="AA11" s="288"/>
-      <c r="AB11" s="288"/>
-      <c r="AC11" s="288"/>
-      <c r="AD11" s="288"/>
-      <c r="AE11" s="288"/>
-      <c r="AF11" s="288"/>
-      <c r="AG11" s="288"/>
-      <c r="AH11" s="289"/>
+      <c r="U11" s="302"/>
+      <c r="V11" s="297"/>
+      <c r="W11" s="298"/>
+      <c r="X11" s="298"/>
+      <c r="Y11" s="298"/>
+      <c r="Z11" s="298"/>
+      <c r="AA11" s="298"/>
+      <c r="AB11" s="298"/>
+      <c r="AC11" s="298"/>
+      <c r="AD11" s="298"/>
+      <c r="AE11" s="298"/>
+      <c r="AF11" s="298"/>
+      <c r="AG11" s="298"/>
+      <c r="AH11" s="299"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B12" s="39"/>
@@ -11506,22 +11506,22 @@
       <c r="D12" s="42">
         <v>3</v>
       </c>
-      <c r="E12" s="287" t="s">
+      <c r="E12" s="297" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="298"/>
+      <c r="G12" s="298"/>
+      <c r="H12" s="298"/>
+      <c r="I12" s="298"/>
+      <c r="J12" s="299"/>
+      <c r="K12" s="297" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="298"/>
+      <c r="M12" s="298"/>
+      <c r="N12" s="299"/>
+      <c r="O12" s="45" t="s">
         <v>66</v>
-      </c>
-      <c r="F12" s="288"/>
-      <c r="G12" s="288"/>
-      <c r="H12" s="288"/>
-      <c r="I12" s="288"/>
-      <c r="J12" s="289"/>
-      <c r="K12" s="287" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" s="288"/>
-      <c r="M12" s="288"/>
-      <c r="N12" s="289"/>
-      <c r="O12" s="45" t="s">
-        <v>67</v>
       </c>
       <c r="P12" s="44" t="s">
         <v>62</v>
@@ -11535,23 +11535,23 @@
       <c r="S12" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="T12" s="282" t="s">
+      <c r="T12" s="301" t="s">
         <v>62</v>
       </c>
-      <c r="U12" s="283"/>
-      <c r="V12" s="287"/>
-      <c r="W12" s="288"/>
-      <c r="X12" s="288"/>
-      <c r="Y12" s="288"/>
-      <c r="Z12" s="288"/>
-      <c r="AA12" s="288"/>
-      <c r="AB12" s="288"/>
-      <c r="AC12" s="288"/>
-      <c r="AD12" s="288"/>
-      <c r="AE12" s="288"/>
-      <c r="AF12" s="288"/>
-      <c r="AG12" s="288"/>
-      <c r="AH12" s="289"/>
+      <c r="U12" s="302"/>
+      <c r="V12" s="297"/>
+      <c r="W12" s="298"/>
+      <c r="X12" s="298"/>
+      <c r="Y12" s="298"/>
+      <c r="Z12" s="298"/>
+      <c r="AA12" s="298"/>
+      <c r="AB12" s="298"/>
+      <c r="AC12" s="298"/>
+      <c r="AD12" s="298"/>
+      <c r="AE12" s="298"/>
+      <c r="AF12" s="298"/>
+      <c r="AG12" s="298"/>
+      <c r="AH12" s="299"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B13" s="39"/>
@@ -11626,7 +11626,7 @@
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B15" s="39"/>
       <c r="C15" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="51"/>
       <c r="E15" s="51"/>
@@ -11701,40 +11701,40 @@
       <c r="D17" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="371" t="s">
+      <c r="E17" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="327"/>
+      <c r="G17" s="328"/>
+      <c r="H17" s="379" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="372"/>
-      <c r="G17" s="373"/>
-      <c r="H17" s="284" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="285"/>
-      <c r="J17" s="285"/>
-      <c r="K17" s="285"/>
-      <c r="L17" s="285"/>
-      <c r="M17" s="285"/>
-      <c r="N17" s="285"/>
-      <c r="O17" s="285"/>
-      <c r="P17" s="285"/>
-      <c r="Q17" s="285"/>
-      <c r="R17" s="285"/>
-      <c r="S17" s="285"/>
-      <c r="T17" s="285"/>
-      <c r="U17" s="285"/>
-      <c r="V17" s="285"/>
-      <c r="W17" s="285"/>
-      <c r="X17" s="285"/>
-      <c r="Y17" s="285"/>
-      <c r="Z17" s="285"/>
-      <c r="AA17" s="285"/>
-      <c r="AB17" s="285"/>
-      <c r="AC17" s="285"/>
-      <c r="AD17" s="285"/>
-      <c r="AE17" s="285"/>
-      <c r="AF17" s="285"/>
-      <c r="AG17" s="285"/>
-      <c r="AH17" s="286"/>
+      <c r="I17" s="380"/>
+      <c r="J17" s="380"/>
+      <c r="K17" s="380"/>
+      <c r="L17" s="380"/>
+      <c r="M17" s="380"/>
+      <c r="N17" s="380"/>
+      <c r="O17" s="380"/>
+      <c r="P17" s="380"/>
+      <c r="Q17" s="380"/>
+      <c r="R17" s="380"/>
+      <c r="S17" s="380"/>
+      <c r="T17" s="380"/>
+      <c r="U17" s="380"/>
+      <c r="V17" s="380"/>
+      <c r="W17" s="380"/>
+      <c r="X17" s="380"/>
+      <c r="Y17" s="380"/>
+      <c r="Z17" s="380"/>
+      <c r="AA17" s="380"/>
+      <c r="AB17" s="380"/>
+      <c r="AC17" s="380"/>
+      <c r="AD17" s="380"/>
+      <c r="AE17" s="380"/>
+      <c r="AF17" s="380"/>
+      <c r="AG17" s="380"/>
+      <c r="AH17" s="381"/>
     </row>
     <row r="18" spans="1:35" s="52" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="39"/>
@@ -11742,40 +11742,40 @@
       <c r="D18" s="42">
         <v>1</v>
       </c>
-      <c r="E18" s="287" t="s">
+      <c r="E18" s="297" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="298"/>
+      <c r="G18" s="299"/>
+      <c r="H18" s="297" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="288"/>
-      <c r="G18" s="289"/>
-      <c r="H18" s="287" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="288"/>
-      <c r="J18" s="288"/>
-      <c r="K18" s="288"/>
-      <c r="L18" s="288"/>
-      <c r="M18" s="288"/>
-      <c r="N18" s="288"/>
-      <c r="O18" s="288"/>
-      <c r="P18" s="288"/>
-      <c r="Q18" s="288"/>
-      <c r="R18" s="288"/>
-      <c r="S18" s="288"/>
-      <c r="T18" s="288"/>
-      <c r="U18" s="288"/>
-      <c r="V18" s="288"/>
-      <c r="W18" s="288"/>
-      <c r="X18" s="288"/>
-      <c r="Y18" s="288"/>
-      <c r="Z18" s="288"/>
-      <c r="AA18" s="288"/>
-      <c r="AB18" s="288"/>
-      <c r="AC18" s="288"/>
-      <c r="AD18" s="288"/>
-      <c r="AE18" s="288"/>
-      <c r="AF18" s="288"/>
-      <c r="AG18" s="288"/>
-      <c r="AH18" s="289"/>
+      <c r="I18" s="298"/>
+      <c r="J18" s="298"/>
+      <c r="K18" s="298"/>
+      <c r="L18" s="298"/>
+      <c r="M18" s="298"/>
+      <c r="N18" s="298"/>
+      <c r="O18" s="298"/>
+      <c r="P18" s="298"/>
+      <c r="Q18" s="298"/>
+      <c r="R18" s="298"/>
+      <c r="S18" s="298"/>
+      <c r="T18" s="298"/>
+      <c r="U18" s="298"/>
+      <c r="V18" s="298"/>
+      <c r="W18" s="298"/>
+      <c r="X18" s="298"/>
+      <c r="Y18" s="298"/>
+      <c r="Z18" s="298"/>
+      <c r="AA18" s="298"/>
+      <c r="AB18" s="298"/>
+      <c r="AC18" s="298"/>
+      <c r="AD18" s="298"/>
+      <c r="AE18" s="298"/>
+      <c r="AF18" s="298"/>
+      <c r="AG18" s="298"/>
+      <c r="AH18" s="299"/>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="54"/>
@@ -11783,40 +11783,40 @@
       <c r="D19" s="42">
         <v>2</v>
       </c>
-      <c r="E19" s="287" t="s">
+      <c r="E19" s="297" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="298"/>
+      <c r="G19" s="299"/>
+      <c r="H19" s="297" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="288"/>
-      <c r="G19" s="289"/>
-      <c r="H19" s="287" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="288"/>
-      <c r="J19" s="288"/>
-      <c r="K19" s="288"/>
-      <c r="L19" s="288"/>
-      <c r="M19" s="288"/>
-      <c r="N19" s="288"/>
-      <c r="O19" s="288"/>
-      <c r="P19" s="288"/>
-      <c r="Q19" s="288"/>
-      <c r="R19" s="288"/>
-      <c r="S19" s="288"/>
-      <c r="T19" s="288"/>
-      <c r="U19" s="288"/>
-      <c r="V19" s="288"/>
-      <c r="W19" s="288"/>
-      <c r="X19" s="288"/>
-      <c r="Y19" s="288"/>
-      <c r="Z19" s="288"/>
-      <c r="AA19" s="288"/>
-      <c r="AB19" s="288"/>
-      <c r="AC19" s="288"/>
-      <c r="AD19" s="288"/>
-      <c r="AE19" s="288"/>
-      <c r="AF19" s="288"/>
-      <c r="AG19" s="288"/>
-      <c r="AH19" s="289"/>
+      <c r="I19" s="298"/>
+      <c r="J19" s="298"/>
+      <c r="K19" s="298"/>
+      <c r="L19" s="298"/>
+      <c r="M19" s="298"/>
+      <c r="N19" s="298"/>
+      <c r="O19" s="298"/>
+      <c r="P19" s="298"/>
+      <c r="Q19" s="298"/>
+      <c r="R19" s="298"/>
+      <c r="S19" s="298"/>
+      <c r="T19" s="298"/>
+      <c r="U19" s="298"/>
+      <c r="V19" s="298"/>
+      <c r="W19" s="298"/>
+      <c r="X19" s="298"/>
+      <c r="Y19" s="298"/>
+      <c r="Z19" s="298"/>
+      <c r="AA19" s="298"/>
+      <c r="AB19" s="298"/>
+      <c r="AC19" s="298"/>
+      <c r="AD19" s="298"/>
+      <c r="AE19" s="298"/>
+      <c r="AF19" s="298"/>
+      <c r="AG19" s="298"/>
+      <c r="AH19" s="299"/>
     </row>
     <row r="20" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="54"/>
@@ -11824,40 +11824,40 @@
       <c r="D20" s="42">
         <v>3</v>
       </c>
-      <c r="E20" s="287" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="288"/>
-      <c r="G20" s="289"/>
-      <c r="H20" s="287" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" s="288"/>
-      <c r="J20" s="288"/>
-      <c r="K20" s="288"/>
-      <c r="L20" s="288"/>
-      <c r="M20" s="288"/>
-      <c r="N20" s="288"/>
-      <c r="O20" s="288"/>
-      <c r="P20" s="288"/>
-      <c r="Q20" s="288"/>
-      <c r="R20" s="288"/>
-      <c r="S20" s="288"/>
-      <c r="T20" s="288"/>
-      <c r="U20" s="288"/>
-      <c r="V20" s="288"/>
-      <c r="W20" s="288"/>
-      <c r="X20" s="288"/>
-      <c r="Y20" s="288"/>
-      <c r="Z20" s="288"/>
-      <c r="AA20" s="288"/>
-      <c r="AB20" s="288"/>
-      <c r="AC20" s="288"/>
-      <c r="AD20" s="288"/>
-      <c r="AE20" s="288"/>
-      <c r="AF20" s="288"/>
-      <c r="AG20" s="288"/>
-      <c r="AH20" s="289"/>
+      <c r="E20" s="297" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="298"/>
+      <c r="G20" s="299"/>
+      <c r="H20" s="297" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="298"/>
+      <c r="J20" s="298"/>
+      <c r="K20" s="298"/>
+      <c r="L20" s="298"/>
+      <c r="M20" s="298"/>
+      <c r="N20" s="298"/>
+      <c r="O20" s="298"/>
+      <c r="P20" s="298"/>
+      <c r="Q20" s="298"/>
+      <c r="R20" s="298"/>
+      <c r="S20" s="298"/>
+      <c r="T20" s="298"/>
+      <c r="U20" s="298"/>
+      <c r="V20" s="298"/>
+      <c r="W20" s="298"/>
+      <c r="X20" s="298"/>
+      <c r="Y20" s="298"/>
+      <c r="Z20" s="298"/>
+      <c r="AA20" s="298"/>
+      <c r="AB20" s="298"/>
+      <c r="AC20" s="298"/>
+      <c r="AD20" s="298"/>
+      <c r="AE20" s="298"/>
+      <c r="AF20" s="298"/>
+      <c r="AG20" s="298"/>
+      <c r="AH20" s="299"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B21" s="55"/>
@@ -11932,7 +11932,7 @@
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B23" s="55"/>
       <c r="C23" s="51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="60"/>
       <c r="E23" s="60"/>
@@ -11970,7 +11970,7 @@
       <c r="B24" s="55"/>
       <c r="C24" s="51"/>
       <c r="D24" s="60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" s="60"/>
       <c r="F24" s="60"/>
@@ -12038,47 +12038,47 @@
       <c r="AG25" s="61"/>
       <c r="AH25" s="61"/>
     </row>
-    <row r="26" spans="1:35" s="374" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" s="157" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="B26" s="156"/>
       <c r="C26" s="156"/>
-      <c r="E26" s="375" t="s">
+      <c r="E26" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="376" t="s">
+      <c r="F26" s="159" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="160"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="160"/>
+      <c r="K26" s="161"/>
+      <c r="L26" s="159" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="377"/>
-      <c r="H26" s="377"/>
-      <c r="I26" s="377"/>
-      <c r="J26" s="377"/>
-      <c r="K26" s="378"/>
-      <c r="L26" s="376" t="s">
+      <c r="M26" s="160"/>
+      <c r="N26" s="160"/>
+      <c r="O26" s="160"/>
+      <c r="P26" s="160"/>
+      <c r="Q26" s="160"/>
+      <c r="R26" s="160"/>
+      <c r="S26" s="160"/>
+      <c r="T26" s="160"/>
+      <c r="U26" s="161"/>
+      <c r="V26" s="162" t="s">
+        <v>151</v>
+      </c>
+      <c r="W26" s="159" t="s">
         <v>79</v>
       </c>
-      <c r="M26" s="377"/>
-      <c r="N26" s="377"/>
-      <c r="O26" s="377"/>
-      <c r="P26" s="377"/>
-      <c r="Q26" s="377"/>
-      <c r="R26" s="377"/>
-      <c r="S26" s="377"/>
-      <c r="T26" s="377"/>
-      <c r="U26" s="378"/>
-      <c r="V26" s="379" t="s">
-        <v>152</v>
-      </c>
-      <c r="W26" s="376" t="s">
-        <v>80</v>
-      </c>
-      <c r="X26" s="377"/>
-      <c r="Y26" s="377"/>
-      <c r="Z26" s="377"/>
-      <c r="AA26" s="377"/>
-      <c r="AB26" s="380"/>
-      <c r="AC26" s="380"/>
-      <c r="AD26" s="378"/>
+      <c r="X26" s="160"/>
+      <c r="Y26" s="160"/>
+      <c r="Z26" s="160"/>
+      <c r="AA26" s="160"/>
+      <c r="AB26" s="163"/>
+      <c r="AC26" s="163"/>
+      <c r="AD26" s="161"/>
       <c r="AG26" s="156"/>
-      <c r="AH26" s="381"/>
+      <c r="AH26" s="164"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="63"/>
@@ -12089,7 +12089,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G27" s="66"/>
       <c r="H27" s="66"/>
@@ -12097,7 +12097,7 @@
       <c r="J27" s="66"/>
       <c r="K27" s="67"/>
       <c r="L27" s="65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M27" s="66"/>
       <c r="N27" s="66"/>
@@ -12110,7 +12110,7 @@
       <c r="U27" s="67"/>
       <c r="V27" s="65"/>
       <c r="W27" s="68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X27" s="69"/>
       <c r="Y27" s="69"/>
@@ -12131,7 +12131,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G28" s="69"/>
       <c r="H28" s="69"/>
@@ -12139,7 +12139,7 @@
       <c r="J28" s="69"/>
       <c r="K28" s="73"/>
       <c r="L28" s="68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M28" s="69"/>
       <c r="N28" s="74"/>
@@ -12152,7 +12152,7 @@
       <c r="U28" s="73"/>
       <c r="V28" s="68"/>
       <c r="W28" s="68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X28" s="69"/>
       <c r="Y28" s="69"/>
@@ -12249,7 +12249,7 @@
       <c r="A33" s="63"/>
       <c r="B33" s="63"/>
       <c r="C33" s="63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D33" s="63"/>
       <c r="E33" s="63"/>
@@ -12289,7 +12289,7 @@
       <c r="B34" s="63"/>
       <c r="C34" s="63"/>
       <c r="D34" s="63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E34" s="63"/>
       <c r="F34" s="63"/>
@@ -12368,43 +12368,43 @@
       <c r="E36" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="314" t="s">
+      <c r="F36" s="329" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="330"/>
+      <c r="H36" s="330"/>
+      <c r="I36" s="330"/>
+      <c r="J36" s="330"/>
+      <c r="K36" s="331"/>
+      <c r="L36" s="329" t="s">
         <v>87</v>
       </c>
-      <c r="G36" s="315"/>
-      <c r="H36" s="315"/>
-      <c r="I36" s="315"/>
-      <c r="J36" s="315"/>
-      <c r="K36" s="316"/>
-      <c r="L36" s="314" t="s">
+      <c r="M36" s="330"/>
+      <c r="N36" s="330"/>
+      <c r="O36" s="330"/>
+      <c r="P36" s="330"/>
+      <c r="Q36" s="330"/>
+      <c r="R36" s="330"/>
+      <c r="S36" s="330"/>
+      <c r="T36" s="330"/>
+      <c r="U36" s="331"/>
+      <c r="V36" s="293" t="s">
         <v>88</v>
       </c>
-      <c r="M36" s="315"/>
-      <c r="N36" s="315"/>
-      <c r="O36" s="315"/>
-      <c r="P36" s="315"/>
-      <c r="Q36" s="315"/>
-      <c r="R36" s="315"/>
-      <c r="S36" s="315"/>
-      <c r="T36" s="315"/>
-      <c r="U36" s="316"/>
-      <c r="V36" s="317" t="s">
+      <c r="W36" s="294"/>
+      <c r="X36" s="295"/>
+      <c r="Y36" s="290" t="s">
         <v>89</v>
       </c>
-      <c r="W36" s="318"/>
-      <c r="X36" s="319"/>
-      <c r="Y36" s="320" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z36" s="321"/>
-      <c r="AA36" s="321"/>
-      <c r="AB36" s="322"/>
-      <c r="AC36" s="323" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD36" s="324"/>
-      <c r="AE36" s="324"/>
-      <c r="AF36" s="325"/>
+      <c r="Z36" s="291"/>
+      <c r="AA36" s="291"/>
+      <c r="AB36" s="332"/>
+      <c r="AC36" s="333" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD36" s="334"/>
+      <c r="AE36" s="334"/>
+      <c r="AF36" s="335"/>
       <c r="AG36" s="63"/>
       <c r="AH36" s="63"/>
       <c r="AI36" s="63"/>
@@ -12417,43 +12417,43 @@
       <c r="E37" s="79">
         <v>1</v>
       </c>
-      <c r="F37" s="333" t="s">
+      <c r="F37" s="287" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="288"/>
+      <c r="H37" s="288"/>
+      <c r="I37" s="288"/>
+      <c r="J37" s="288"/>
+      <c r="K37" s="289"/>
+      <c r="L37" s="287" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="334"/>
-      <c r="H37" s="334"/>
-      <c r="I37" s="334"/>
-      <c r="J37" s="334"/>
-      <c r="K37" s="335"/>
-      <c r="L37" s="333" t="s">
+      <c r="M37" s="288"/>
+      <c r="N37" s="288"/>
+      <c r="O37" s="288"/>
+      <c r="P37" s="288"/>
+      <c r="Q37" s="288"/>
+      <c r="R37" s="288"/>
+      <c r="S37" s="288"/>
+      <c r="T37" s="288"/>
+      <c r="U37" s="289"/>
+      <c r="V37" s="347" t="s">
         <v>92</v>
       </c>
-      <c r="M37" s="334"/>
-      <c r="N37" s="334"/>
-      <c r="O37" s="334"/>
-      <c r="P37" s="334"/>
-      <c r="Q37" s="334"/>
-      <c r="R37" s="334"/>
-      <c r="S37" s="334"/>
-      <c r="T37" s="334"/>
-      <c r="U37" s="335"/>
-      <c r="V37" s="341" t="s">
-        <v>93</v>
-      </c>
-      <c r="W37" s="342"/>
-      <c r="X37" s="343"/>
-      <c r="Y37" s="338" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z37" s="339"/>
-      <c r="AA37" s="339"/>
-      <c r="AB37" s="340"/>
-      <c r="AC37" s="333" t="s">
+      <c r="W37" s="348"/>
+      <c r="X37" s="349"/>
+      <c r="Y37" s="344" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z37" s="345"/>
+      <c r="AA37" s="345"/>
+      <c r="AB37" s="346"/>
+      <c r="AC37" s="287" t="s">
         <v>62</v>
       </c>
-      <c r="AD37" s="334"/>
-      <c r="AE37" s="334"/>
-      <c r="AF37" s="335"/>
+      <c r="AD37" s="288"/>
+      <c r="AE37" s="288"/>
+      <c r="AF37" s="289"/>
       <c r="AG37" s="63"/>
       <c r="AH37" s="63"/>
       <c r="AI37" s="63"/>
@@ -12500,7 +12500,7 @@
       <c r="B39" s="63"/>
       <c r="C39" s="63"/>
       <c r="E39" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA39" s="63"/>
       <c r="AB39" s="63"/>
@@ -12516,79 +12516,79 @@
       <c r="A40" s="63"/>
       <c r="B40" s="63"/>
       <c r="C40" s="63"/>
-      <c r="E40" s="320" t="s">
-        <v>69</v>
-      </c>
-      <c r="F40" s="321"/>
-      <c r="G40" s="321"/>
-      <c r="H40" s="321"/>
-      <c r="I40" s="321"/>
-      <c r="J40" s="297" t="s">
-        <v>95</v>
-      </c>
-      <c r="K40" s="297"/>
-      <c r="L40" s="297"/>
-      <c r="M40" s="317" t="s">
+      <c r="E40" s="290" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="291"/>
+      <c r="G40" s="291"/>
+      <c r="H40" s="291"/>
+      <c r="I40" s="291"/>
+      <c r="J40" s="292" t="s">
+        <v>94</v>
+      </c>
+      <c r="K40" s="292"/>
+      <c r="L40" s="292"/>
+      <c r="M40" s="293" t="s">
+        <v>88</v>
+      </c>
+      <c r="N40" s="294"/>
+      <c r="O40" s="294"/>
+      <c r="P40" s="294"/>
+      <c r="Q40" s="294"/>
+      <c r="R40" s="294"/>
+      <c r="S40" s="295"/>
+      <c r="T40" s="293" t="s">
         <v>89</v>
       </c>
-      <c r="N40" s="318"/>
-      <c r="O40" s="318"/>
-      <c r="P40" s="318"/>
-      <c r="Q40" s="318"/>
-      <c r="R40" s="318"/>
-      <c r="S40" s="319"/>
-      <c r="T40" s="317" t="s">
-        <v>90</v>
-      </c>
-      <c r="U40" s="318"/>
-      <c r="V40" s="318"/>
-      <c r="W40" s="318"/>
-      <c r="X40" s="318"/>
-      <c r="Y40" s="318"/>
-      <c r="Z40" s="318"/>
-      <c r="AA40" s="318"/>
-      <c r="AB40" s="318"/>
-      <c r="AC40" s="318"/>
-      <c r="AD40" s="319"/>
+      <c r="U40" s="294"/>
+      <c r="V40" s="294"/>
+      <c r="W40" s="294"/>
+      <c r="X40" s="294"/>
+      <c r="Y40" s="294"/>
+      <c r="Z40" s="294"/>
+      <c r="AA40" s="294"/>
+      <c r="AB40" s="294"/>
+      <c r="AC40" s="294"/>
+      <c r="AD40" s="295"/>
     </row>
     <row r="41" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="63"/>
       <c r="B41" s="63"/>
       <c r="C41" s="63"/>
-      <c r="E41" s="333" t="s">
+      <c r="E41" s="287" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="288"/>
+      <c r="G41" s="288"/>
+      <c r="H41" s="288"/>
+      <c r="I41" s="288"/>
+      <c r="J41" s="296" t="s">
         <v>96</v>
       </c>
-      <c r="F41" s="334"/>
-      <c r="G41" s="334"/>
-      <c r="H41" s="334"/>
-      <c r="I41" s="334"/>
-      <c r="J41" s="347" t="s">
-        <v>97</v>
-      </c>
-      <c r="K41" s="347"/>
-      <c r="L41" s="347"/>
-      <c r="M41" s="333" t="s">
-        <v>93</v>
-      </c>
-      <c r="N41" s="334"/>
-      <c r="O41" s="334"/>
-      <c r="P41" s="334"/>
-      <c r="Q41" s="334"/>
-      <c r="R41" s="334"/>
-      <c r="S41" s="335"/>
-      <c r="T41" s="333" t="s">
-        <v>93</v>
-      </c>
-      <c r="U41" s="334"/>
-      <c r="V41" s="334"/>
-      <c r="W41" s="334"/>
-      <c r="X41" s="334"/>
-      <c r="Y41" s="334"/>
-      <c r="Z41" s="334"/>
-      <c r="AA41" s="334"/>
-      <c r="AB41" s="334"/>
-      <c r="AC41" s="334"/>
-      <c r="AD41" s="335"/>
+      <c r="K41" s="296"/>
+      <c r="L41" s="296"/>
+      <c r="M41" s="287" t="s">
+        <v>92</v>
+      </c>
+      <c r="N41" s="288"/>
+      <c r="O41" s="288"/>
+      <c r="P41" s="288"/>
+      <c r="Q41" s="288"/>
+      <c r="R41" s="288"/>
+      <c r="S41" s="289"/>
+      <c r="T41" s="287" t="s">
+        <v>92</v>
+      </c>
+      <c r="U41" s="288"/>
+      <c r="V41" s="288"/>
+      <c r="W41" s="288"/>
+      <c r="X41" s="288"/>
+      <c r="Y41" s="288"/>
+      <c r="Z41" s="288"/>
+      <c r="AA41" s="288"/>
+      <c r="AB41" s="288"/>
+      <c r="AC41" s="288"/>
+      <c r="AD41" s="289"/>
     </row>
     <row r="42" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="63"/>
@@ -12640,7 +12640,7 @@
       <c r="B44" s="63"/>
       <c r="C44" s="63"/>
       <c r="D44" s="63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E44" s="63"/>
       <c r="F44" s="63"/>
@@ -12717,7 +12717,7 @@
       <c r="C46" s="63"/>
       <c r="D46" s="63"/>
       <c r="E46" s="63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F46" s="63"/>
       <c r="G46" s="63"/>
@@ -12792,7 +12792,7 @@
       <c r="C48" s="63"/>
       <c r="D48" s="63"/>
       <c r="E48" s="63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F48" s="63"/>
       <c r="G48" s="63"/>
@@ -12829,79 +12829,79 @@
       <c r="A49" s="63"/>
       <c r="B49" s="63"/>
       <c r="C49" s="63"/>
-      <c r="E49" s="320" t="s">
-        <v>69</v>
-      </c>
-      <c r="F49" s="321"/>
-      <c r="G49" s="321"/>
-      <c r="H49" s="321"/>
-      <c r="I49" s="321"/>
-      <c r="J49" s="297" t="s">
-        <v>95</v>
-      </c>
-      <c r="K49" s="297"/>
-      <c r="L49" s="297"/>
-      <c r="M49" s="317" t="s">
+      <c r="E49" s="290" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="291"/>
+      <c r="G49" s="291"/>
+      <c r="H49" s="291"/>
+      <c r="I49" s="291"/>
+      <c r="J49" s="292" t="s">
+        <v>94</v>
+      </c>
+      <c r="K49" s="292"/>
+      <c r="L49" s="292"/>
+      <c r="M49" s="293" t="s">
+        <v>88</v>
+      </c>
+      <c r="N49" s="294"/>
+      <c r="O49" s="294"/>
+      <c r="P49" s="294"/>
+      <c r="Q49" s="294"/>
+      <c r="R49" s="294"/>
+      <c r="S49" s="295"/>
+      <c r="T49" s="293" t="s">
         <v>89</v>
       </c>
-      <c r="N49" s="318"/>
-      <c r="O49" s="318"/>
-      <c r="P49" s="318"/>
-      <c r="Q49" s="318"/>
-      <c r="R49" s="318"/>
-      <c r="S49" s="319"/>
-      <c r="T49" s="317" t="s">
-        <v>90</v>
-      </c>
-      <c r="U49" s="318"/>
-      <c r="V49" s="318"/>
-      <c r="W49" s="318"/>
-      <c r="X49" s="318"/>
-      <c r="Y49" s="318"/>
-      <c r="Z49" s="318"/>
-      <c r="AA49" s="318"/>
-      <c r="AB49" s="318"/>
-      <c r="AC49" s="318"/>
-      <c r="AD49" s="319"/>
+      <c r="U49" s="294"/>
+      <c r="V49" s="294"/>
+      <c r="W49" s="294"/>
+      <c r="X49" s="294"/>
+      <c r="Y49" s="294"/>
+      <c r="Z49" s="294"/>
+      <c r="AA49" s="294"/>
+      <c r="AB49" s="294"/>
+      <c r="AC49" s="294"/>
+      <c r="AD49" s="295"/>
     </row>
     <row r="50" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="63"/>
       <c r="B50" s="63"/>
       <c r="C50" s="63"/>
-      <c r="E50" s="333" t="s">
-        <v>96</v>
-      </c>
-      <c r="F50" s="334"/>
-      <c r="G50" s="334"/>
-      <c r="H50" s="334"/>
-      <c r="I50" s="334"/>
-      <c r="J50" s="347" t="s">
+      <c r="E50" s="287" t="s">
+        <v>95</v>
+      </c>
+      <c r="F50" s="288"/>
+      <c r="G50" s="288"/>
+      <c r="H50" s="288"/>
+      <c r="I50" s="288"/>
+      <c r="J50" s="296" t="s">
+        <v>100</v>
+      </c>
+      <c r="K50" s="296"/>
+      <c r="L50" s="296"/>
+      <c r="M50" s="287" t="s">
         <v>101</v>
       </c>
-      <c r="K50" s="347"/>
-      <c r="L50" s="347"/>
-      <c r="M50" s="333" t="s">
+      <c r="N50" s="288"/>
+      <c r="O50" s="288"/>
+      <c r="P50" s="288"/>
+      <c r="Q50" s="288"/>
+      <c r="R50" s="288"/>
+      <c r="S50" s="289"/>
+      <c r="T50" s="287" t="s">
         <v>102</v>
       </c>
-      <c r="N50" s="334"/>
-      <c r="O50" s="334"/>
-      <c r="P50" s="334"/>
-      <c r="Q50" s="334"/>
-      <c r="R50" s="334"/>
-      <c r="S50" s="335"/>
-      <c r="T50" s="333" t="s">
-        <v>103</v>
-      </c>
-      <c r="U50" s="334"/>
-      <c r="V50" s="334"/>
-      <c r="W50" s="334"/>
-      <c r="X50" s="334"/>
-      <c r="Y50" s="334"/>
-      <c r="Z50" s="334"/>
-      <c r="AA50" s="334"/>
-      <c r="AB50" s="334"/>
-      <c r="AC50" s="334"/>
-      <c r="AD50" s="335"/>
+      <c r="U50" s="288"/>
+      <c r="V50" s="288"/>
+      <c r="W50" s="288"/>
+      <c r="X50" s="288"/>
+      <c r="Y50" s="288"/>
+      <c r="Z50" s="288"/>
+      <c r="AA50" s="288"/>
+      <c r="AB50" s="288"/>
+      <c r="AC50" s="288"/>
+      <c r="AD50" s="289"/>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="63"/>
@@ -12982,7 +12982,7 @@
       <c r="B53" s="63"/>
       <c r="C53" s="63"/>
       <c r="D53" s="63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E53" s="63"/>
       <c r="F53" s="63"/>
@@ -13058,30 +13058,30 @@
       <c r="B55" s="63"/>
       <c r="C55" s="63"/>
       <c r="D55" s="63"/>
-      <c r="E55" s="363" t="s">
+      <c r="E55" s="318" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" s="319"/>
+      <c r="G55" s="319"/>
+      <c r="H55" s="319"/>
+      <c r="I55" s="319"/>
+      <c r="J55" s="319"/>
+      <c r="K55" s="319"/>
+      <c r="L55" s="319"/>
+      <c r="M55" s="319"/>
+      <c r="N55" s="320"/>
+      <c r="O55" s="321" t="s">
         <v>105</v>
       </c>
-      <c r="F55" s="364"/>
-      <c r="G55" s="364"/>
-      <c r="H55" s="364"/>
-      <c r="I55" s="364"/>
-      <c r="J55" s="364"/>
-      <c r="K55" s="364"/>
-      <c r="L55" s="364"/>
-      <c r="M55" s="364"/>
-      <c r="N55" s="365"/>
-      <c r="O55" s="366" t="s">
-        <v>106</v>
-      </c>
-      <c r="P55" s="367"/>
-      <c r="Q55" s="367"/>
-      <c r="R55" s="367"/>
-      <c r="S55" s="367"/>
-      <c r="T55" s="367"/>
-      <c r="U55" s="367"/>
-      <c r="V55" s="367"/>
-      <c r="W55" s="367"/>
-      <c r="X55" s="368"/>
+      <c r="P55" s="322"/>
+      <c r="Q55" s="322"/>
+      <c r="R55" s="322"/>
+      <c r="S55" s="322"/>
+      <c r="T55" s="322"/>
+      <c r="U55" s="322"/>
+      <c r="V55" s="322"/>
+      <c r="W55" s="322"/>
+      <c r="X55" s="323"/>
       <c r="Y55" s="63"/>
       <c r="Z55" s="63"/>
       <c r="AA55" s="63"/>
@@ -13099,30 +13099,30 @@
       <c r="B56" s="63"/>
       <c r="C56" s="63"/>
       <c r="D56" s="63"/>
-      <c r="E56" s="351" t="s">
+      <c r="E56" s="306" t="s">
+        <v>156</v>
+      </c>
+      <c r="F56" s="307"/>
+      <c r="G56" s="307"/>
+      <c r="H56" s="307"/>
+      <c r="I56" s="307"/>
+      <c r="J56" s="307"/>
+      <c r="K56" s="307"/>
+      <c r="L56" s="307"/>
+      <c r="M56" s="307"/>
+      <c r="N56" s="308"/>
+      <c r="O56" s="324" t="s">
         <v>157</v>
       </c>
-      <c r="F56" s="352"/>
-      <c r="G56" s="352"/>
-      <c r="H56" s="352"/>
-      <c r="I56" s="352"/>
-      <c r="J56" s="352"/>
-      <c r="K56" s="352"/>
-      <c r="L56" s="352"/>
-      <c r="M56" s="352"/>
-      <c r="N56" s="353"/>
-      <c r="O56" s="369" t="s">
-        <v>158</v>
-      </c>
-      <c r="P56" s="369"/>
-      <c r="Q56" s="369"/>
-      <c r="R56" s="369"/>
-      <c r="S56" s="369"/>
-      <c r="T56" s="369"/>
-      <c r="U56" s="369"/>
-      <c r="V56" s="369"/>
-      <c r="W56" s="369"/>
-      <c r="X56" s="370"/>
+      <c r="P56" s="324"/>
+      <c r="Q56" s="324"/>
+      <c r="R56" s="324"/>
+      <c r="S56" s="324"/>
+      <c r="T56" s="324"/>
+      <c r="U56" s="324"/>
+      <c r="V56" s="324"/>
+      <c r="W56" s="324"/>
+      <c r="X56" s="325"/>
       <c r="Y56" s="63"/>
       <c r="Z56" s="63"/>
       <c r="AA56" s="63"/>
@@ -13140,28 +13140,28 @@
       <c r="B57" s="63"/>
       <c r="C57" s="63"/>
       <c r="D57" s="63"/>
-      <c r="E57" s="354"/>
-      <c r="F57" s="355"/>
-      <c r="G57" s="355"/>
-      <c r="H57" s="355"/>
-      <c r="I57" s="355"/>
-      <c r="J57" s="355"/>
-      <c r="K57" s="355"/>
-      <c r="L57" s="355"/>
-      <c r="M57" s="355"/>
-      <c r="N57" s="356"/>
-      <c r="O57" s="369" t="s">
-        <v>159</v>
-      </c>
-      <c r="P57" s="369"/>
-      <c r="Q57" s="369"/>
-      <c r="R57" s="369"/>
-      <c r="S57" s="369"/>
-      <c r="T57" s="369"/>
-      <c r="U57" s="369"/>
-      <c r="V57" s="369"/>
-      <c r="W57" s="369"/>
-      <c r="X57" s="370"/>
+      <c r="E57" s="309"/>
+      <c r="F57" s="310"/>
+      <c r="G57" s="310"/>
+      <c r="H57" s="310"/>
+      <c r="I57" s="310"/>
+      <c r="J57" s="310"/>
+      <c r="K57" s="310"/>
+      <c r="L57" s="310"/>
+      <c r="M57" s="310"/>
+      <c r="N57" s="311"/>
+      <c r="O57" s="324" t="s">
+        <v>158</v>
+      </c>
+      <c r="P57" s="324"/>
+      <c r="Q57" s="324"/>
+      <c r="R57" s="324"/>
+      <c r="S57" s="324"/>
+      <c r="T57" s="324"/>
+      <c r="U57" s="324"/>
+      <c r="V57" s="324"/>
+      <c r="W57" s="324"/>
+      <c r="X57" s="325"/>
       <c r="Y57" s="63"/>
       <c r="Z57" s="63"/>
       <c r="AA57" s="63"/>
@@ -13179,28 +13179,28 @@
       <c r="B58" s="63"/>
       <c r="C58" s="63"/>
       <c r="D58" s="63"/>
-      <c r="E58" s="357"/>
-      <c r="F58" s="358"/>
-      <c r="G58" s="358"/>
-      <c r="H58" s="358"/>
-      <c r="I58" s="358"/>
-      <c r="J58" s="358"/>
-      <c r="K58" s="358"/>
-      <c r="L58" s="358"/>
-      <c r="M58" s="358"/>
-      <c r="N58" s="359"/>
-      <c r="O58" s="360" t="s">
-        <v>160</v>
-      </c>
-      <c r="P58" s="361"/>
-      <c r="Q58" s="361"/>
-      <c r="R58" s="361"/>
-      <c r="S58" s="361"/>
-      <c r="T58" s="361"/>
-      <c r="U58" s="361"/>
-      <c r="V58" s="361"/>
-      <c r="W58" s="361"/>
-      <c r="X58" s="362"/>
+      <c r="E58" s="312"/>
+      <c r="F58" s="313"/>
+      <c r="G58" s="313"/>
+      <c r="H58" s="313"/>
+      <c r="I58" s="313"/>
+      <c r="J58" s="313"/>
+      <c r="K58" s="313"/>
+      <c r="L58" s="313"/>
+      <c r="M58" s="313"/>
+      <c r="N58" s="314"/>
+      <c r="O58" s="315" t="s">
+        <v>159</v>
+      </c>
+      <c r="P58" s="316"/>
+      <c r="Q58" s="316"/>
+      <c r="R58" s="316"/>
+      <c r="S58" s="316"/>
+      <c r="T58" s="316"/>
+      <c r="U58" s="316"/>
+      <c r="V58" s="316"/>
+      <c r="W58" s="316"/>
+      <c r="X58" s="317"/>
       <c r="Y58" s="63"/>
       <c r="Z58" s="63"/>
       <c r="AA58" s="63"/>
@@ -13218,28 +13218,28 @@
       <c r="B59" s="63"/>
       <c r="C59" s="63"/>
       <c r="D59" s="63"/>
-      <c r="E59" s="348" t="s">
-        <v>108</v>
-      </c>
-      <c r="F59" s="349"/>
-      <c r="G59" s="349"/>
-      <c r="H59" s="349"/>
-      <c r="I59" s="349"/>
-      <c r="J59" s="349"/>
-      <c r="K59" s="349"/>
-      <c r="L59" s="349"/>
-      <c r="M59" s="349"/>
-      <c r="N59" s="349"/>
-      <c r="O59" s="349"/>
-      <c r="P59" s="349"/>
-      <c r="Q59" s="349"/>
-      <c r="R59" s="349"/>
-      <c r="S59" s="349"/>
-      <c r="T59" s="349"/>
-      <c r="U59" s="349"/>
-      <c r="V59" s="349"/>
-      <c r="W59" s="349"/>
-      <c r="X59" s="350"/>
+      <c r="E59" s="303" t="s">
+        <v>107</v>
+      </c>
+      <c r="F59" s="304"/>
+      <c r="G59" s="304"/>
+      <c r="H59" s="304"/>
+      <c r="I59" s="304"/>
+      <c r="J59" s="304"/>
+      <c r="K59" s="304"/>
+      <c r="L59" s="304"/>
+      <c r="M59" s="304"/>
+      <c r="N59" s="304"/>
+      <c r="O59" s="304"/>
+      <c r="P59" s="304"/>
+      <c r="Q59" s="304"/>
+      <c r="R59" s="304"/>
+      <c r="S59" s="304"/>
+      <c r="T59" s="304"/>
+      <c r="U59" s="304"/>
+      <c r="V59" s="304"/>
+      <c r="W59" s="304"/>
+      <c r="X59" s="305"/>
       <c r="Y59" s="63"/>
       <c r="Z59" s="63"/>
       <c r="AA59" s="63"/>
@@ -13296,19 +13296,19 @@
       <c r="D61" s="63"/>
       <c r="E61" s="85"/>
       <c r="F61" s="86" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G61" s="86"/>
       <c r="H61" s="86"/>
       <c r="I61" s="86"/>
       <c r="J61" s="87"/>
       <c r="K61" s="87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L61" s="86"/>
       <c r="M61" s="86"/>
       <c r="N61" s="86" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O61" s="86"/>
       <c r="P61" s="86"/>
@@ -13339,19 +13339,19 @@
       <c r="D62" s="63"/>
       <c r="E62" s="85"/>
       <c r="F62" s="86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G62" s="86"/>
       <c r="H62" s="86"/>
       <c r="I62" s="86"/>
       <c r="J62" s="87"/>
       <c r="K62" s="87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L62" s="86"/>
       <c r="M62" s="86"/>
       <c r="N62" s="86" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O62" s="86"/>
       <c r="P62" s="86"/>
@@ -13455,7 +13455,7 @@
       <c r="C65" s="63"/>
       <c r="D65" s="63"/>
       <c r="E65" s="86" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F65" s="86"/>
       <c r="G65" s="86"/>
@@ -13494,7 +13494,7 @@
       <c r="C66" s="63"/>
       <c r="D66" s="63"/>
       <c r="E66" s="86" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F66" s="86"/>
       <c r="G66" s="86"/>
@@ -13569,7 +13569,7 @@
       <c r="B68" s="63"/>
       <c r="C68" s="63"/>
       <c r="D68" s="63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E68" s="63"/>
       <c r="F68" s="63"/>
@@ -13646,7 +13646,7 @@
       <c r="C70" s="63"/>
       <c r="D70" s="63"/>
       <c r="E70" s="63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F70" s="63"/>
       <c r="G70" s="63"/>
@@ -13792,7 +13792,7 @@
     </row>
     <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C75" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D75" s="39"/>
       <c r="E75" s="39"/>
@@ -13827,7 +13827,7 @@
     <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C76" s="39"/>
       <c r="D76" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E76" s="39"/>
       <c r="F76" s="39"/>
@@ -13893,7 +13893,7 @@
     <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C78" s="39"/>
       <c r="E78" s="54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F78" s="54"/>
       <c r="G78" s="54"/>
@@ -13958,44 +13958,44 @@
     <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C80" s="39"/>
       <c r="D80" s="39"/>
-      <c r="E80" s="326" t="s">
-        <v>89</v>
-      </c>
-      <c r="F80" s="326"/>
-      <c r="G80" s="344" t="s">
+      <c r="E80" s="300" t="s">
+        <v>88</v>
+      </c>
+      <c r="F80" s="300"/>
+      <c r="G80" s="350" t="s">
+        <v>119</v>
+      </c>
+      <c r="H80" s="351"/>
+      <c r="I80" s="351"/>
+      <c r="J80" s="351"/>
+      <c r="K80" s="351"/>
+      <c r="L80" s="352"/>
+      <c r="M80" s="300" t="s">
         <v>120</v>
       </c>
-      <c r="H80" s="345"/>
-      <c r="I80" s="345"/>
-      <c r="J80" s="345"/>
-      <c r="K80" s="345"/>
-      <c r="L80" s="346"/>
-      <c r="M80" s="326" t="s">
-        <v>121</v>
-      </c>
-      <c r="N80" s="326"/>
-      <c r="O80" s="344" t="s">
-        <v>66</v>
-      </c>
-      <c r="P80" s="345"/>
-      <c r="Q80" s="345"/>
-      <c r="R80" s="345"/>
-      <c r="S80" s="345"/>
-      <c r="T80" s="345"/>
-      <c r="U80" s="345"/>
-      <c r="V80" s="345"/>
-      <c r="W80" s="345"/>
-      <c r="X80" s="345"/>
-      <c r="Y80" s="345"/>
-      <c r="Z80" s="345"/>
-      <c r="AA80" s="345"/>
-      <c r="AB80" s="345"/>
-      <c r="AC80" s="345"/>
-      <c r="AD80" s="345"/>
-      <c r="AE80" s="345"/>
-      <c r="AF80" s="345"/>
-      <c r="AG80" s="345"/>
-      <c r="AH80" s="346"/>
+      <c r="N80" s="300"/>
+      <c r="O80" s="350" t="s">
+        <v>65</v>
+      </c>
+      <c r="P80" s="351"/>
+      <c r="Q80" s="351"/>
+      <c r="R80" s="351"/>
+      <c r="S80" s="351"/>
+      <c r="T80" s="351"/>
+      <c r="U80" s="351"/>
+      <c r="V80" s="351"/>
+      <c r="W80" s="351"/>
+      <c r="X80" s="351"/>
+      <c r="Y80" s="351"/>
+      <c r="Z80" s="351"/>
+      <c r="AA80" s="351"/>
+      <c r="AB80" s="351"/>
+      <c r="AC80" s="351"/>
+      <c r="AD80" s="351"/>
+      <c r="AE80" s="351"/>
+      <c r="AF80" s="351"/>
+      <c r="AG80" s="351"/>
+      <c r="AH80" s="352"/>
     </row>
     <row r="81" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C81" s="39"/>
@@ -14064,7 +14064,7 @@
     <row r="83" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C83" s="39"/>
       <c r="D83" s="39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E83" s="39"/>
       <c r="F83" s="39"/>
@@ -14130,86 +14130,86 @@
     <row r="85" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C85" s="39"/>
       <c r="D85" s="39"/>
-      <c r="E85" s="336" t="s">
+      <c r="E85" s="342" t="s">
         <v>37</v>
       </c>
-      <c r="F85" s="327" t="s">
+      <c r="F85" s="336" t="s">
+        <v>122</v>
+      </c>
+      <c r="G85" s="337"/>
+      <c r="H85" s="337"/>
+      <c r="I85" s="338"/>
+      <c r="J85" s="336" t="s">
         <v>123</v>
       </c>
-      <c r="G85" s="328"/>
-      <c r="H85" s="328"/>
-      <c r="I85" s="329"/>
-      <c r="J85" s="327" t="s">
+      <c r="K85" s="337"/>
+      <c r="L85" s="337"/>
+      <c r="M85" s="338"/>
+      <c r="N85" s="375" t="s">
         <v>124</v>
       </c>
-      <c r="K85" s="328"/>
-      <c r="L85" s="328"/>
-      <c r="M85" s="329"/>
-      <c r="N85" s="296" t="s">
+      <c r="O85" s="375"/>
+      <c r="P85" s="375"/>
+      <c r="Q85" s="375"/>
+      <c r="R85" s="375"/>
+      <c r="S85" s="375"/>
+      <c r="T85" s="375"/>
+      <c r="U85" s="375"/>
+      <c r="V85" s="375"/>
+      <c r="W85" s="336" t="s">
         <v>125</v>
       </c>
-      <c r="O85" s="296"/>
-      <c r="P85" s="296"/>
-      <c r="Q85" s="296"/>
-      <c r="R85" s="296"/>
-      <c r="S85" s="296"/>
-      <c r="T85" s="296"/>
-      <c r="U85" s="296"/>
-      <c r="V85" s="296"/>
-      <c r="W85" s="327" t="s">
-        <v>126</v>
-      </c>
-      <c r="X85" s="328"/>
-      <c r="Y85" s="328"/>
-      <c r="Z85" s="328"/>
-      <c r="AA85" s="328"/>
-      <c r="AB85" s="328"/>
-      <c r="AC85" s="329"/>
-      <c r="AD85" s="327" t="s">
+      <c r="X85" s="337"/>
+      <c r="Y85" s="337"/>
+      <c r="Z85" s="337"/>
+      <c r="AA85" s="337"/>
+      <c r="AB85" s="337"/>
+      <c r="AC85" s="338"/>
+      <c r="AD85" s="336" t="s">
         <v>53</v>
       </c>
-      <c r="AE85" s="328"/>
-      <c r="AF85" s="328"/>
-      <c r="AG85" s="328"/>
-      <c r="AH85" s="329"/>
+      <c r="AE85" s="337"/>
+      <c r="AF85" s="337"/>
+      <c r="AG85" s="337"/>
+      <c r="AH85" s="338"/>
     </row>
     <row r="86" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C86" s="39"/>
       <c r="D86" s="54"/>
-      <c r="E86" s="337"/>
-      <c r="F86" s="330"/>
-      <c r="G86" s="331"/>
-      <c r="H86" s="331"/>
-      <c r="I86" s="332"/>
-      <c r="J86" s="330"/>
-      <c r="K86" s="331"/>
-      <c r="L86" s="331"/>
-      <c r="M86" s="332"/>
-      <c r="N86" s="296" t="s">
-        <v>127</v>
-      </c>
-      <c r="O86" s="296"/>
-      <c r="P86" s="296"/>
-      <c r="Q86" s="296"/>
-      <c r="R86" s="296"/>
-      <c r="S86" s="297" t="s">
-        <v>124</v>
-      </c>
-      <c r="T86" s="297"/>
-      <c r="U86" s="297"/>
-      <c r="V86" s="297"/>
-      <c r="W86" s="330"/>
-      <c r="X86" s="331"/>
-      <c r="Y86" s="331"/>
-      <c r="Z86" s="331"/>
-      <c r="AA86" s="331"/>
-      <c r="AB86" s="331"/>
-      <c r="AC86" s="332"/>
-      <c r="AD86" s="330"/>
-      <c r="AE86" s="331"/>
-      <c r="AF86" s="331"/>
-      <c r="AG86" s="331"/>
-      <c r="AH86" s="332"/>
+      <c r="E86" s="343"/>
+      <c r="F86" s="339"/>
+      <c r="G86" s="340"/>
+      <c r="H86" s="340"/>
+      <c r="I86" s="341"/>
+      <c r="J86" s="339"/>
+      <c r="K86" s="340"/>
+      <c r="L86" s="340"/>
+      <c r="M86" s="341"/>
+      <c r="N86" s="375" t="s">
+        <v>126</v>
+      </c>
+      <c r="O86" s="375"/>
+      <c r="P86" s="375"/>
+      <c r="Q86" s="375"/>
+      <c r="R86" s="375"/>
+      <c r="S86" s="292" t="s">
+        <v>123</v>
+      </c>
+      <c r="T86" s="292"/>
+      <c r="U86" s="292"/>
+      <c r="V86" s="292"/>
+      <c r="W86" s="339"/>
+      <c r="X86" s="340"/>
+      <c r="Y86" s="340"/>
+      <c r="Z86" s="340"/>
+      <c r="AA86" s="340"/>
+      <c r="AB86" s="340"/>
+      <c r="AC86" s="341"/>
+      <c r="AD86" s="339"/>
+      <c r="AE86" s="340"/>
+      <c r="AF86" s="340"/>
+      <c r="AG86" s="340"/>
+      <c r="AH86" s="341"/>
     </row>
     <row r="87" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C87" s="39"/>
@@ -14217,43 +14217,43 @@
       <c r="E87" s="98">
         <v>1</v>
       </c>
-      <c r="F87" s="293" t="s">
-        <v>128</v>
-      </c>
-      <c r="G87" s="294"/>
-      <c r="H87" s="294"/>
-      <c r="I87" s="295"/>
-      <c r="J87" s="293" t="s">
-        <v>107</v>
-      </c>
-      <c r="K87" s="294"/>
-      <c r="L87" s="294"/>
-      <c r="M87" s="295"/>
-      <c r="N87" s="290" t="s">
+      <c r="F87" s="369" t="s">
+        <v>127</v>
+      </c>
+      <c r="G87" s="370"/>
+      <c r="H87" s="370"/>
+      <c r="I87" s="371"/>
+      <c r="J87" s="369" t="s">
+        <v>106</v>
+      </c>
+      <c r="K87" s="370"/>
+      <c r="L87" s="370"/>
+      <c r="M87" s="371"/>
+      <c r="N87" s="376" t="s">
         <v>63</v>
       </c>
-      <c r="O87" s="291"/>
-      <c r="P87" s="291"/>
-      <c r="Q87" s="291"/>
-      <c r="R87" s="291"/>
-      <c r="S87" s="292" t="s">
-        <v>107</v>
-      </c>
-      <c r="T87" s="292"/>
-      <c r="U87" s="292"/>
-      <c r="V87" s="292"/>
-      <c r="W87" s="279"/>
-      <c r="X87" s="280"/>
-      <c r="Y87" s="280"/>
-      <c r="Z87" s="280"/>
-      <c r="AA87" s="280"/>
-      <c r="AB87" s="280"/>
-      <c r="AC87" s="281"/>
-      <c r="AD87" s="279"/>
-      <c r="AE87" s="280"/>
-      <c r="AF87" s="280"/>
-      <c r="AG87" s="280"/>
-      <c r="AH87" s="281"/>
+      <c r="O87" s="377"/>
+      <c r="P87" s="377"/>
+      <c r="Q87" s="377"/>
+      <c r="R87" s="377"/>
+      <c r="S87" s="378" t="s">
+        <v>106</v>
+      </c>
+      <c r="T87" s="378"/>
+      <c r="U87" s="378"/>
+      <c r="V87" s="378"/>
+      <c r="W87" s="372"/>
+      <c r="X87" s="373"/>
+      <c r="Y87" s="373"/>
+      <c r="Z87" s="373"/>
+      <c r="AA87" s="373"/>
+      <c r="AB87" s="373"/>
+      <c r="AC87" s="374"/>
+      <c r="AD87" s="372"/>
+      <c r="AE87" s="373"/>
+      <c r="AF87" s="373"/>
+      <c r="AG87" s="373"/>
+      <c r="AH87" s="374"/>
     </row>
     <row r="88" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C88" s="39"/>
@@ -14261,43 +14261,43 @@
       <c r="E88" s="98">
         <v>2</v>
       </c>
-      <c r="F88" s="293" t="s">
+      <c r="F88" s="369" t="s">
+        <v>80</v>
+      </c>
+      <c r="G88" s="370"/>
+      <c r="H88" s="370"/>
+      <c r="I88" s="371"/>
+      <c r="J88" s="369" t="s">
         <v>81</v>
       </c>
-      <c r="G88" s="294"/>
-      <c r="H88" s="294"/>
-      <c r="I88" s="295"/>
-      <c r="J88" s="293" t="s">
-        <v>82</v>
-      </c>
-      <c r="K88" s="294"/>
-      <c r="L88" s="294"/>
-      <c r="M88" s="295"/>
-      <c r="N88" s="290" t="s">
+      <c r="K88" s="370"/>
+      <c r="L88" s="370"/>
+      <c r="M88" s="371"/>
+      <c r="N88" s="376" t="s">
         <v>63</v>
       </c>
-      <c r="O88" s="291"/>
-      <c r="P88" s="291"/>
-      <c r="Q88" s="291"/>
-      <c r="R88" s="291"/>
-      <c r="S88" s="292" t="s">
-        <v>82</v>
-      </c>
-      <c r="T88" s="292"/>
-      <c r="U88" s="292"/>
-      <c r="V88" s="292"/>
-      <c r="W88" s="279"/>
-      <c r="X88" s="280"/>
-      <c r="Y88" s="280"/>
-      <c r="Z88" s="280"/>
-      <c r="AA88" s="280"/>
-      <c r="AB88" s="280"/>
-      <c r="AC88" s="281"/>
-      <c r="AD88" s="279"/>
-      <c r="AE88" s="280"/>
-      <c r="AF88" s="280"/>
-      <c r="AG88" s="280"/>
-      <c r="AH88" s="281"/>
+      <c r="O88" s="377"/>
+      <c r="P88" s="377"/>
+      <c r="Q88" s="377"/>
+      <c r="R88" s="377"/>
+      <c r="S88" s="378" t="s">
+        <v>81</v>
+      </c>
+      <c r="T88" s="378"/>
+      <c r="U88" s="378"/>
+      <c r="V88" s="378"/>
+      <c r="W88" s="372"/>
+      <c r="X88" s="373"/>
+      <c r="Y88" s="373"/>
+      <c r="Z88" s="373"/>
+      <c r="AA88" s="373"/>
+      <c r="AB88" s="373"/>
+      <c r="AC88" s="374"/>
+      <c r="AD88" s="372"/>
+      <c r="AE88" s="373"/>
+      <c r="AF88" s="373"/>
+      <c r="AG88" s="373"/>
+      <c r="AH88" s="374"/>
     </row>
     <row r="89" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C89" s="39"/>
@@ -14305,43 +14305,43 @@
       <c r="E89" s="98">
         <v>3</v>
       </c>
-      <c r="F89" s="293" t="s">
+      <c r="F89" s="369" t="s">
+        <v>82</v>
+      </c>
+      <c r="G89" s="370"/>
+      <c r="H89" s="370"/>
+      <c r="I89" s="371"/>
+      <c r="J89" s="369" t="s">
         <v>83</v>
       </c>
-      <c r="G89" s="294"/>
-      <c r="H89" s="294"/>
-      <c r="I89" s="295"/>
-      <c r="J89" s="293" t="s">
-        <v>84</v>
-      </c>
-      <c r="K89" s="294"/>
-      <c r="L89" s="294"/>
-      <c r="M89" s="295"/>
-      <c r="N89" s="290" t="s">
+      <c r="K89" s="370"/>
+      <c r="L89" s="370"/>
+      <c r="M89" s="371"/>
+      <c r="N89" s="376" t="s">
         <v>63</v>
       </c>
-      <c r="O89" s="291"/>
-      <c r="P89" s="291"/>
-      <c r="Q89" s="291"/>
-      <c r="R89" s="291"/>
-      <c r="S89" s="292" t="s">
-        <v>84</v>
-      </c>
-      <c r="T89" s="292"/>
-      <c r="U89" s="292"/>
-      <c r="V89" s="292"/>
-      <c r="W89" s="279"/>
-      <c r="X89" s="280"/>
-      <c r="Y89" s="280"/>
-      <c r="Z89" s="280"/>
-      <c r="AA89" s="280"/>
-      <c r="AB89" s="280"/>
-      <c r="AC89" s="281"/>
-      <c r="AD89" s="279"/>
-      <c r="AE89" s="280"/>
-      <c r="AF89" s="280"/>
-      <c r="AG89" s="280"/>
-      <c r="AH89" s="281"/>
+      <c r="O89" s="377"/>
+      <c r="P89" s="377"/>
+      <c r="Q89" s="377"/>
+      <c r="R89" s="377"/>
+      <c r="S89" s="378" t="s">
+        <v>83</v>
+      </c>
+      <c r="T89" s="378"/>
+      <c r="U89" s="378"/>
+      <c r="V89" s="378"/>
+      <c r="W89" s="372"/>
+      <c r="X89" s="373"/>
+      <c r="Y89" s="373"/>
+      <c r="Z89" s="373"/>
+      <c r="AA89" s="373"/>
+      <c r="AB89" s="373"/>
+      <c r="AC89" s="374"/>
+      <c r="AD89" s="372"/>
+      <c r="AE89" s="373"/>
+      <c r="AF89" s="373"/>
+      <c r="AG89" s="373"/>
+      <c r="AH89" s="374"/>
     </row>
     <row r="90" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C90" s="39"/>
@@ -14349,35 +14349,35 @@
       <c r="E90" s="98">
         <v>4</v>
       </c>
-      <c r="F90" s="293"/>
-      <c r="G90" s="294"/>
-      <c r="H90" s="294"/>
-      <c r="I90" s="295"/>
-      <c r="J90" s="293"/>
-      <c r="K90" s="294"/>
-      <c r="L90" s="294"/>
-      <c r="M90" s="295"/>
-      <c r="N90" s="290"/>
-      <c r="O90" s="291"/>
-      <c r="P90" s="291"/>
-      <c r="Q90" s="291"/>
-      <c r="R90" s="291"/>
-      <c r="S90" s="292"/>
-      <c r="T90" s="292"/>
-      <c r="U90" s="292"/>
-      <c r="V90" s="292"/>
-      <c r="W90" s="279"/>
-      <c r="X90" s="280"/>
-      <c r="Y90" s="280"/>
-      <c r="Z90" s="280"/>
-      <c r="AA90" s="280"/>
-      <c r="AB90" s="280"/>
-      <c r="AC90" s="281"/>
-      <c r="AD90" s="279"/>
-      <c r="AE90" s="280"/>
-      <c r="AF90" s="280"/>
-      <c r="AG90" s="280"/>
-      <c r="AH90" s="281"/>
+      <c r="F90" s="369"/>
+      <c r="G90" s="370"/>
+      <c r="H90" s="370"/>
+      <c r="I90" s="371"/>
+      <c r="J90" s="369"/>
+      <c r="K90" s="370"/>
+      <c r="L90" s="370"/>
+      <c r="M90" s="371"/>
+      <c r="N90" s="376"/>
+      <c r="O90" s="377"/>
+      <c r="P90" s="377"/>
+      <c r="Q90" s="377"/>
+      <c r="R90" s="377"/>
+      <c r="S90" s="378"/>
+      <c r="T90" s="378"/>
+      <c r="U90" s="378"/>
+      <c r="V90" s="378"/>
+      <c r="W90" s="372"/>
+      <c r="X90" s="373"/>
+      <c r="Y90" s="373"/>
+      <c r="Z90" s="373"/>
+      <c r="AA90" s="373"/>
+      <c r="AB90" s="373"/>
+      <c r="AC90" s="374"/>
+      <c r="AD90" s="372"/>
+      <c r="AE90" s="373"/>
+      <c r="AF90" s="373"/>
+      <c r="AG90" s="373"/>
+      <c r="AH90" s="374"/>
     </row>
     <row r="91" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C91" s="39"/>
@@ -14385,47 +14385,124 @@
       <c r="E91" s="98">
         <v>5</v>
       </c>
-      <c r="F91" s="293"/>
-      <c r="G91" s="294"/>
-      <c r="H91" s="294"/>
-      <c r="I91" s="295"/>
-      <c r="J91" s="293"/>
-      <c r="K91" s="294"/>
-      <c r="L91" s="294"/>
-      <c r="M91" s="295"/>
-      <c r="N91" s="290"/>
-      <c r="O91" s="291"/>
-      <c r="P91" s="291"/>
-      <c r="Q91" s="291"/>
-      <c r="R91" s="291"/>
-      <c r="S91" s="292"/>
-      <c r="T91" s="292"/>
-      <c r="U91" s="292"/>
-      <c r="V91" s="292"/>
-      <c r="W91" s="279"/>
-      <c r="X91" s="280"/>
-      <c r="Y91" s="280"/>
-      <c r="Z91" s="280"/>
-      <c r="AA91" s="280"/>
-      <c r="AB91" s="280"/>
-      <c r="AC91" s="281"/>
-      <c r="AD91" s="279"/>
-      <c r="AE91" s="280"/>
-      <c r="AF91" s="280"/>
-      <c r="AG91" s="280"/>
-      <c r="AH91" s="281"/>
+      <c r="F91" s="369"/>
+      <c r="G91" s="370"/>
+      <c r="H91" s="370"/>
+      <c r="I91" s="371"/>
+      <c r="J91" s="369"/>
+      <c r="K91" s="370"/>
+      <c r="L91" s="370"/>
+      <c r="M91" s="371"/>
+      <c r="N91" s="376"/>
+      <c r="O91" s="377"/>
+      <c r="P91" s="377"/>
+      <c r="Q91" s="377"/>
+      <c r="R91" s="377"/>
+      <c r="S91" s="378"/>
+      <c r="T91" s="378"/>
+      <c r="U91" s="378"/>
+      <c r="V91" s="378"/>
+      <c r="W91" s="372"/>
+      <c r="X91" s="373"/>
+      <c r="Y91" s="373"/>
+      <c r="Z91" s="373"/>
+      <c r="AA91" s="373"/>
+      <c r="AB91" s="373"/>
+      <c r="AC91" s="374"/>
+      <c r="AD91" s="372"/>
+      <c r="AE91" s="373"/>
+      <c r="AF91" s="373"/>
+      <c r="AG91" s="373"/>
+      <c r="AH91" s="374"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="T50:AD50"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:S40"/>
-    <mergeCell ref="T40:AD40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:S41"/>
-    <mergeCell ref="T41:AD41"/>
+    <mergeCell ref="AD87:AH87"/>
+    <mergeCell ref="AD88:AH88"/>
+    <mergeCell ref="AD89:AH89"/>
+    <mergeCell ref="W87:AC87"/>
+    <mergeCell ref="W88:AC88"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="AD90:AH90"/>
+    <mergeCell ref="AD91:AH91"/>
+    <mergeCell ref="H17:AH17"/>
+    <mergeCell ref="H18:AH18"/>
+    <mergeCell ref="H19:AH19"/>
+    <mergeCell ref="H20:AH20"/>
+    <mergeCell ref="N91:R91"/>
+    <mergeCell ref="S91:V91"/>
+    <mergeCell ref="N90:R90"/>
+    <mergeCell ref="S90:V90"/>
+    <mergeCell ref="N89:R89"/>
+    <mergeCell ref="S89:V89"/>
+    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="J90:M90"/>
+    <mergeCell ref="J91:M91"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="F89:I89"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="W89:AC89"/>
+    <mergeCell ref="W90:AC90"/>
+    <mergeCell ref="W91:AC91"/>
+    <mergeCell ref="N85:V85"/>
+    <mergeCell ref="N86:R86"/>
+    <mergeCell ref="S86:V86"/>
+    <mergeCell ref="N88:R88"/>
+    <mergeCell ref="S88:V88"/>
+    <mergeCell ref="N87:R87"/>
+    <mergeCell ref="S87:V87"/>
+    <mergeCell ref="J87:M87"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E8:J9"/>
+    <mergeCell ref="K8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="V8:AH9"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="L36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="J85:M86"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:S49"/>
+    <mergeCell ref="F85:I86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="L37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="O80:AH80"/>
+    <mergeCell ref="W85:AC86"/>
+    <mergeCell ref="AD85:AH86"/>
+    <mergeCell ref="T49:AD49"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:S50"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="V12:AH12"/>
@@ -14450,103 +14527,23 @@
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E19:G19"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="L36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="J85:M86"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:S49"/>
-    <mergeCell ref="F85:I86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="Y37:AB37"/>
-    <mergeCell ref="L37:U37"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="O80:AH80"/>
-    <mergeCell ref="W85:AC86"/>
-    <mergeCell ref="AD85:AH86"/>
-    <mergeCell ref="T49:AD49"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:S50"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E8:J9"/>
-    <mergeCell ref="K8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="V8:AH9"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="F91:I91"/>
-    <mergeCell ref="W89:AC89"/>
-    <mergeCell ref="W90:AC90"/>
-    <mergeCell ref="W91:AC91"/>
-    <mergeCell ref="N85:V85"/>
-    <mergeCell ref="N86:R86"/>
-    <mergeCell ref="S86:V86"/>
-    <mergeCell ref="N88:R88"/>
-    <mergeCell ref="S88:V88"/>
-    <mergeCell ref="N87:R87"/>
-    <mergeCell ref="S87:V87"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="AD87:AH87"/>
-    <mergeCell ref="AD88:AH88"/>
-    <mergeCell ref="AD89:AH89"/>
-    <mergeCell ref="W87:AC87"/>
-    <mergeCell ref="W88:AC88"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="AD90:AH90"/>
-    <mergeCell ref="AD91:AH91"/>
-    <mergeCell ref="H17:AH17"/>
-    <mergeCell ref="H18:AH18"/>
-    <mergeCell ref="H19:AH19"/>
-    <mergeCell ref="H20:AH20"/>
-    <mergeCell ref="N91:R91"/>
-    <mergeCell ref="S91:V91"/>
-    <mergeCell ref="N90:R90"/>
-    <mergeCell ref="S90:V90"/>
-    <mergeCell ref="N89:R89"/>
-    <mergeCell ref="S89:V89"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="J91:M91"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="F89:I89"/>
+    <mergeCell ref="T50:AD50"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:S40"/>
+    <mergeCell ref="T40:AD40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:S41"/>
+    <mergeCell ref="T41:AD41"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K10:N12" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>種別一覧</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O10:O12" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"I,O"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P10:U12" xr:uid="{00000000-0002-0000-0500-000002000000}">
-      <formula1>"○,-"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -14579,7 +14576,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="153" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -14599,17 +14596,17 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="155" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="155" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="155" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
